--- a/EL SALVADOR/Delitos/Informe Femicidios.xlsx
+++ b/EL SALVADOR/Delitos/Informe Femicidios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Delitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691ACC8-85E7-4000-8B4B-6C1EB1C3667A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E66F65-E974-4E81-A214-1F70B328350D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="informe1" sheetId="1" r:id="rId1"/>
@@ -1957,6 +1957,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 2018</t>
     </r>
@@ -1976,6 +1977,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 2019</t>
     </r>
@@ -2044,7 +2046,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2055,20 +2057,24 @@
       <b/>
       <sz val="28"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -2086,19 +2092,23 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2112,12 +2122,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -2162,11 +2166,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="8"/>
       <color rgb="FF0000FF"/>
@@ -2182,11 +2181,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2194,12 +2188,6 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2211,12 +2199,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -2511,9 +2499,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2592,7 +2580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2634,7 +2622,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2676,73 +2664,64 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,368 +2730,380 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="32" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="28" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3143,8 +3134,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -3153,8 +3144,6 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4111,7 +4100,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2104898" y="26793607"/>
+          <a:off x="2304923" y="26796782"/>
           <a:ext cx="2972435" cy="1334135"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2972435" cy="1334135"/>
@@ -4696,20 +4685,20 @@
       <selection activeCell="A27" sqref="A27:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="1.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" customWidth="1"/>
+    <col min="2" max="2" width="1.796875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" customWidth="1"/>
-    <col min="9" max="9" width="39.83203125" customWidth="1"/>
+    <col min="7" max="7" width="3.69921875" customWidth="1"/>
+    <col min="8" max="8" width="23.796875" customWidth="1"/>
+    <col min="9" max="9" width="39.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4717,559 +4706,596 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-    </row>
-    <row r="3" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98" t="s">
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+    </row>
+    <row r="3" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="100" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-    </row>
-    <row r="5" spans="1:9" ht="204.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+    </row>
+    <row r="5" spans="1:9" ht="205" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-    </row>
-    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-    </row>
-    <row r="8" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+    </row>
+    <row r="8" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-    </row>
-    <row r="9" spans="1:9" ht="151.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+    </row>
+    <row r="9" spans="1:9" ht="151.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-    </row>
-    <row r="11" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+    </row>
+    <row r="11" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-    </row>
-    <row r="12" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="104" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+    </row>
+    <row r="12" spans="1:9" ht="75.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-    </row>
-    <row r="13" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="105" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+    </row>
+    <row r="13" spans="1:9" ht="75.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-    </row>
-    <row r="14" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="105" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+    </row>
+    <row r="14" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-    </row>
-    <row r="15" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="105" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+    </row>
+    <row r="15" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-    </row>
-    <row r="16" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="102" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+    </row>
+    <row r="16" spans="1:9" ht="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-    </row>
-    <row r="18" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="105" t="s">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+    </row>
+    <row r="18" spans="1:9" ht="60.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-    </row>
-    <row r="19" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+    </row>
+    <row r="19" spans="1:9" ht="75.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-    </row>
-    <row r="20" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+    </row>
+    <row r="20" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-    </row>
-    <row r="21" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+    </row>
+    <row r="21" spans="1:9" ht="60.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-    </row>
-    <row r="22" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+    </row>
+    <row r="22" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-    </row>
-    <row r="23" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="106" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+    </row>
+    <row r="23" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-    </row>
-    <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105" t="s">
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+    </row>
+    <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-    </row>
-    <row r="25" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+    </row>
+    <row r="25" spans="1:9" ht="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-    </row>
-    <row r="27" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+    </row>
+    <row r="27" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="110" t="s">
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="115"/>
       <c r="H27" s="40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2016</v>
       </c>
-      <c r="B28" s="113">
+      <c r="B28" s="106">
         <v>524</v>
       </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="113">
+      <c r="C28" s="108"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="106">
         <v>16</v>
       </c>
-      <c r="F28" s="114"/>
-      <c r="G28" s="115"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="107"/>
       <c r="H28" s="3">
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2017</v>
       </c>
-      <c r="B29" s="113">
+      <c r="B29" s="106">
         <v>469</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="113">
+      <c r="C29" s="108"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="106">
         <v>17</v>
       </c>
-      <c r="F29" s="114"/>
-      <c r="G29" s="115"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="107"/>
       <c r="H29" s="3">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2018</v>
       </c>
-      <c r="B30" s="113">
+      <c r="B30" s="106">
         <v>386</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="113">
+      <c r="C30" s="108"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="106">
         <v>31</v>
       </c>
-      <c r="F30" s="114"/>
-      <c r="G30" s="115"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="107"/>
       <c r="H30" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="116" t="s">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-    </row>
-    <row r="32" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="103" t="s">
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+    </row>
+    <row r="32" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-    </row>
-    <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="118" t="s">
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+    </row>
+    <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="119"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="4">
         <v>2016</v>
       </c>
-      <c r="D34" s="120">
+      <c r="D34" s="102">
         <v>2017</v>
       </c>
-      <c r="E34" s="121"/>
+      <c r="E34" s="103"/>
       <c r="F34" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="122" t="s">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="123"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="113">
+      <c r="D35" s="106">
         <v>1</v>
       </c>
-      <c r="E35" s="115"/>
+      <c r="E35" s="107"/>
       <c r="F35" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="174.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="124" t="s">
+    <row r="36" spans="1:9" ht="174.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-    </row>
-    <row r="37" spans="1:9" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="105" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+    </row>
+    <row r="37" spans="1:9" ht="73.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-    </row>
-    <row r="38" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="102" t="s">
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+    </row>
+    <row r="38" spans="1:9" ht="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-    </row>
-    <row r="40" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="99" t="s">
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+    </row>
+    <row r="40" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-    </row>
-    <row r="41" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="126" t="s">
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+    </row>
+    <row r="41" spans="1:9" ht="125.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-    </row>
-    <row r="42" spans="1:9" ht="217.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="124" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+    </row>
+    <row r="42" spans="1:9" ht="217.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-    </row>
-    <row r="43" spans="1:9" ht="90.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="102" t="s">
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+    </row>
+    <row r="43" spans="1:9" ht="90.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="125" t="s">
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+    </row>
+    <row r="44" spans="1:9" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-    </row>
-    <row r="45" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="117" t="s">
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+    </row>
+    <row r="45" spans="1:9" ht="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A43:I43"/>
     <mergeCell ref="A44:I44"/>
@@ -5279,43 +5305,6 @@
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.asamblea.gob.sv/decretos/details/483" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5337,1143 +5326,1289 @@
       <selection activeCell="A3" sqref="A3:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.296875" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.1640625" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="1.83203125" customWidth="1"/>
-    <col min="12" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.19921875" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.296875" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" customWidth="1"/>
+    <col min="11" max="11" width="1.796875" customWidth="1"/>
+    <col min="12" max="13" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A1" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="131" t="s">
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="133"/>
-    </row>
-    <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="134" t="s">
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="188"/>
+    </row>
+    <row r="2" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="135"/>
+      <c r="D2" s="190"/>
       <c r="E2" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="136"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="134" t="s">
+      <c r="H2" s="191"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="135"/>
+      <c r="K2" s="190"/>
       <c r="L2" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="137" t="s">
+    <row r="3" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="139">
+      <c r="B3" s="172"/>
+      <c r="C3" s="173">
         <v>35</v>
       </c>
-      <c r="D3" s="140"/>
+      <c r="D3" s="174"/>
       <c r="E3" s="8">
         <v>363</v>
       </c>
       <c r="F3" s="9">
         <v>398</v>
       </c>
-      <c r="G3" s="139">
+      <c r="G3" s="173">
         <v>11</v>
       </c>
-      <c r="H3" s="141"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="139">
+      <c r="H3" s="175"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="173">
         <v>198</v>
       </c>
-      <c r="K3" s="140"/>
+      <c r="K3" s="174"/>
       <c r="L3" s="9">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="142" t="s">
+    <row r="4" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="139">
+      <c r="B4" s="132"/>
+      <c r="C4" s="173">
         <v>1</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="11">
         <v>1517</v>
       </c>
       <c r="F4" s="12">
         <v>1518</v>
       </c>
-      <c r="G4" s="139">
+      <c r="G4" s="173">
         <v>2</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="139">
+      <c r="H4" s="175"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="173">
         <v>831</v>
       </c>
-      <c r="K4" s="140"/>
+      <c r="K4" s="174"/>
       <c r="L4" s="9">
         <v>833</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="137" t="s">
+    <row r="5" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A5" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="139">
-        <v>0</v>
-      </c>
-      <c r="D5" s="140"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="173">
+        <v>0</v>
+      </c>
+      <c r="D5" s="174"/>
       <c r="E5" s="11">
         <v>1920</v>
       </c>
       <c r="F5" s="12">
         <v>1920</v>
       </c>
-      <c r="G5" s="139">
+      <c r="G5" s="173">
         <v>1</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="139">
+      <c r="H5" s="175"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="173">
         <v>940</v>
       </c>
-      <c r="K5" s="140"/>
+      <c r="K5" s="174"/>
       <c r="L5" s="9">
         <v>941</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="137" t="s">
+    <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A6" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="139">
-        <v>0</v>
-      </c>
-      <c r="D6" s="140"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173">
+        <v>0</v>
+      </c>
+      <c r="D6" s="174"/>
       <c r="E6" s="11">
         <v>2523</v>
       </c>
       <c r="F6" s="12">
         <v>2523</v>
       </c>
-      <c r="G6" s="139">
-        <v>0</v>
-      </c>
-      <c r="H6" s="141"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="144">
+      <c r="G6" s="173">
+        <v>0</v>
+      </c>
+      <c r="H6" s="175"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="180">
         <v>1382</v>
       </c>
-      <c r="K6" s="145"/>
+      <c r="K6" s="181"/>
       <c r="L6" s="12">
         <v>1382</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="137" t="s">
+    <row r="7" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A7" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="139">
+      <c r="B7" s="172"/>
+      <c r="C7" s="173">
         <v>4</v>
       </c>
-      <c r="D7" s="140"/>
+      <c r="D7" s="174"/>
       <c r="E7" s="11">
         <v>1100</v>
       </c>
       <c r="F7" s="12">
         <v>1104</v>
       </c>
-      <c r="G7" s="139">
+      <c r="G7" s="173">
         <v>1</v>
       </c>
-      <c r="H7" s="141"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="139">
+      <c r="H7" s="175"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="173">
         <v>520</v>
       </c>
-      <c r="K7" s="140"/>
+      <c r="K7" s="174"/>
       <c r="L7" s="9">
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="142" t="s">
+    <row r="8" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A8" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="139">
+      <c r="B8" s="132"/>
+      <c r="C8" s="173">
         <v>8</v>
       </c>
-      <c r="D8" s="140"/>
+      <c r="D8" s="174"/>
       <c r="E8" s="8">
         <v>89</v>
       </c>
       <c r="F8" s="9">
         <v>97</v>
       </c>
-      <c r="G8" s="139">
+      <c r="G8" s="173">
         <v>3</v>
       </c>
-      <c r="H8" s="141"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="139">
+      <c r="H8" s="175"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="173">
         <v>51</v>
       </c>
-      <c r="K8" s="140"/>
+      <c r="K8" s="174"/>
       <c r="L8" s="9">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="142" t="s">
+    <row r="9" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A9" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="146">
-        <v>0</v>
-      </c>
-      <c r="D9" s="147"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="177">
+        <v>0</v>
+      </c>
+      <c r="D9" s="178"/>
       <c r="E9" s="13">
         <v>42</v>
       </c>
       <c r="F9" s="14">
         <v>42</v>
       </c>
-      <c r="G9" s="146">
-        <v>0</v>
-      </c>
-      <c r="H9" s="148"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="146">
+      <c r="G9" s="177">
+        <v>0</v>
+      </c>
+      <c r="H9" s="179"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="177">
         <v>35</v>
       </c>
-      <c r="K9" s="147"/>
+      <c r="K9" s="178"/>
       <c r="L9" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="149" t="s">
+    <row r="10" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A10" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="151">
+      <c r="B10" s="155"/>
+      <c r="C10" s="156">
         <v>48</v>
       </c>
-      <c r="D10" s="152"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="12">
         <v>7554</v>
       </c>
       <c r="F10" s="12">
         <v>7602</v>
       </c>
-      <c r="G10" s="151">
+      <c r="G10" s="156">
         <v>18</v>
       </c>
-      <c r="H10" s="153"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="154">
+      <c r="H10" s="158"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="159">
         <v>3957</v>
       </c>
-      <c r="K10" s="155"/>
+      <c r="K10" s="160"/>
       <c r="L10" s="12">
         <v>3975</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="156" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="105" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="157" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="110" t="s">
+      <c r="C14" s="164"/>
+      <c r="D14" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="110" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
-    </row>
-    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="158"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163" t="s">
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="115"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="162"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="165" t="s">
+      <c r="E15" s="168"/>
+      <c r="F15" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="166"/>
+      <c r="G15" s="170"/>
       <c r="H15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="163" t="s">
+      <c r="I15" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165" t="s">
+      <c r="J15" s="168"/>
+      <c r="K15" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="166"/>
+      <c r="L15" s="170"/>
       <c r="M15" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="167" t="s">
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="113">
-        <v>0</v>
-      </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="113">
+      <c r="C16" s="132"/>
+      <c r="D16" s="106">
+        <v>0</v>
+      </c>
+      <c r="E16" s="107"/>
+      <c r="F16" s="106">
         <v>9</v>
       </c>
-      <c r="G16" s="115"/>
+      <c r="G16" s="107"/>
       <c r="H16" s="2">
         <v>9</v>
       </c>
-      <c r="I16" s="113">
+      <c r="I16" s="106">
         <v>1</v>
       </c>
-      <c r="J16" s="115"/>
-      <c r="K16" s="113">
+      <c r="J16" s="107"/>
+      <c r="K16" s="106">
         <v>2</v>
       </c>
-      <c r="L16" s="115"/>
+      <c r="L16" s="107"/>
       <c r="M16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="168"/>
-      <c r="B17" s="170" t="s">
+    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="152"/>
+      <c r="B17" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="171">
+      <c r="C17" s="132"/>
+      <c r="D17" s="133">
         <v>2</v>
       </c>
-      <c r="E17" s="172"/>
-      <c r="F17" s="171">
+      <c r="E17" s="134"/>
+      <c r="F17" s="133">
         <v>20</v>
       </c>
-      <c r="G17" s="172"/>
+      <c r="G17" s="134"/>
       <c r="H17" s="16">
         <v>22</v>
       </c>
-      <c r="I17" s="171">
+      <c r="I17" s="133">
         <v>6</v>
       </c>
-      <c r="J17" s="172"/>
-      <c r="K17" s="171">
+      <c r="J17" s="134"/>
+      <c r="K17" s="133">
         <v>4</v>
       </c>
-      <c r="L17" s="172"/>
+      <c r="L17" s="134"/>
       <c r="M17" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="168"/>
-      <c r="B18" s="170" t="s">
+    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="152"/>
+      <c r="B18" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="171">
-        <v>0</v>
-      </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="171">
-        <v>0</v>
-      </c>
-      <c r="G18" s="172"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="133">
+        <v>0</v>
+      </c>
+      <c r="E18" s="134"/>
+      <c r="F18" s="133">
+        <v>0</v>
+      </c>
+      <c r="G18" s="134"/>
       <c r="H18" s="16">
         <v>0</v>
       </c>
-      <c r="I18" s="171">
-        <v>0</v>
-      </c>
-      <c r="J18" s="172"/>
-      <c r="K18" s="171">
+      <c r="I18" s="133">
+        <v>0</v>
+      </c>
+      <c r="J18" s="134"/>
+      <c r="K18" s="133">
         <v>1</v>
       </c>
-      <c r="L18" s="172"/>
+      <c r="L18" s="134"/>
       <c r="M18" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="169"/>
-      <c r="B19" s="173" t="s">
+    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="153"/>
+      <c r="B19" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="174"/>
-      <c r="D19" s="113">
-        <v>0</v>
-      </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="113">
+      <c r="C19" s="128"/>
+      <c r="D19" s="106">
+        <v>0</v>
+      </c>
+      <c r="E19" s="107"/>
+      <c r="F19" s="106">
         <v>1</v>
       </c>
-      <c r="G19" s="115"/>
+      <c r="G19" s="107"/>
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="113">
-        <v>0</v>
-      </c>
-      <c r="J19" s="115"/>
-      <c r="K19" s="113">
-        <v>0</v>
-      </c>
-      <c r="L19" s="115"/>
+      <c r="I19" s="106">
+        <v>0</v>
+      </c>
+      <c r="J19" s="107"/>
+      <c r="K19" s="106">
+        <v>0</v>
+      </c>
+      <c r="L19" s="107"/>
       <c r="M19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="175"/>
-      <c r="B20" s="170" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="124"/>
+      <c r="B20" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="143"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="132"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="143"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="176"/>
-      <c r="B21" s="170" t="s">
+    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="125"/>
+      <c r="B21" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="178">
-        <v>0</v>
-      </c>
-      <c r="E21" s="179"/>
-      <c r="F21" s="171">
+      <c r="C21" s="132"/>
+      <c r="D21" s="143">
+        <v>0</v>
+      </c>
+      <c r="E21" s="144"/>
+      <c r="F21" s="133">
         <v>1</v>
       </c>
-      <c r="G21" s="172"/>
+      <c r="G21" s="134"/>
       <c r="H21" s="17">
         <v>1</v>
       </c>
-      <c r="I21" s="171">
-        <v>0</v>
-      </c>
-      <c r="J21" s="172"/>
-      <c r="K21" s="180">
-        <v>0</v>
-      </c>
-      <c r="L21" s="181"/>
+      <c r="I21" s="133">
+        <v>0</v>
+      </c>
+      <c r="J21" s="134"/>
+      <c r="K21" s="135">
+        <v>0</v>
+      </c>
+      <c r="L21" s="136"/>
       <c r="M21" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="176"/>
-      <c r="B22" s="170" t="s">
+    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="125"/>
+      <c r="B22" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="178">
+      <c r="C22" s="132"/>
+      <c r="D22" s="143">
         <v>1</v>
       </c>
-      <c r="E22" s="179"/>
-      <c r="F22" s="171">
+      <c r="E22" s="144"/>
+      <c r="F22" s="133">
         <v>2</v>
       </c>
-      <c r="G22" s="172"/>
+      <c r="G22" s="134"/>
       <c r="H22" s="17">
         <v>3</v>
       </c>
-      <c r="I22" s="171">
+      <c r="I22" s="133">
         <v>1</v>
       </c>
-      <c r="J22" s="172"/>
-      <c r="K22" s="180">
-        <v>0</v>
-      </c>
-      <c r="L22" s="181"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135">
+        <v>0</v>
+      </c>
+      <c r="L22" s="136"/>
       <c r="M22" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="176"/>
-      <c r="B23" s="170" t="s">
+    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="125"/>
+      <c r="B23" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="178">
-        <v>0</v>
-      </c>
-      <c r="E23" s="179"/>
-      <c r="F23" s="171">
+      <c r="C23" s="132"/>
+      <c r="D23" s="143">
+        <v>0</v>
+      </c>
+      <c r="E23" s="144"/>
+      <c r="F23" s="133">
         <v>1</v>
       </c>
-      <c r="G23" s="172"/>
+      <c r="G23" s="134"/>
       <c r="H23" s="17">
         <v>1</v>
       </c>
-      <c r="I23" s="171">
-        <v>0</v>
-      </c>
-      <c r="J23" s="172"/>
-      <c r="K23" s="180">
-        <v>0</v>
-      </c>
-      <c r="L23" s="181"/>
+      <c r="I23" s="133">
+        <v>0</v>
+      </c>
+      <c r="J23" s="134"/>
+      <c r="K23" s="135">
+        <v>0</v>
+      </c>
+      <c r="L23" s="136"/>
       <c r="M23" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="176"/>
-      <c r="B24" s="170" t="s">
+    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="125"/>
+      <c r="B24" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="178">
+      <c r="C24" s="132"/>
+      <c r="D24" s="143">
         <v>13</v>
       </c>
-      <c r="E24" s="179"/>
-      <c r="F24" s="171">
+      <c r="E24" s="144"/>
+      <c r="F24" s="133">
         <v>23</v>
       </c>
-      <c r="G24" s="172"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="19">
         <v>36</v>
       </c>
-      <c r="I24" s="171">
+      <c r="I24" s="133">
         <v>5</v>
       </c>
-      <c r="J24" s="172"/>
-      <c r="K24" s="180">
+      <c r="J24" s="134"/>
+      <c r="K24" s="135">
         <v>6</v>
       </c>
-      <c r="L24" s="181"/>
+      <c r="L24" s="136"/>
       <c r="M24" s="20">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="176"/>
-      <c r="B25" s="170" t="s">
+    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="125"/>
+      <c r="B25" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="178">
+      <c r="C25" s="132"/>
+      <c r="D25" s="143">
         <v>3</v>
       </c>
-      <c r="E25" s="179"/>
-      <c r="F25" s="171">
+      <c r="E25" s="144"/>
+      <c r="F25" s="133">
         <v>5</v>
       </c>
-      <c r="G25" s="172"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="17">
         <v>8</v>
       </c>
-      <c r="I25" s="171">
+      <c r="I25" s="133">
         <v>1</v>
       </c>
-      <c r="J25" s="172"/>
-      <c r="K25" s="180">
-        <v>0</v>
-      </c>
-      <c r="L25" s="181"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="135">
+        <v>0</v>
+      </c>
+      <c r="L25" s="136"/>
       <c r="M25" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="176"/>
-      <c r="B26" s="170" t="s">
+    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="125"/>
+      <c r="B26" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="178">
-        <v>0</v>
-      </c>
-      <c r="E26" s="179"/>
-      <c r="F26" s="171">
+      <c r="C26" s="132"/>
+      <c r="D26" s="143">
+        <v>0</v>
+      </c>
+      <c r="E26" s="144"/>
+      <c r="F26" s="133">
         <v>5</v>
       </c>
-      <c r="G26" s="172"/>
+      <c r="G26" s="134"/>
       <c r="H26" s="17">
         <v>5</v>
       </c>
-      <c r="I26" s="171">
+      <c r="I26" s="133">
         <v>2</v>
       </c>
-      <c r="J26" s="172"/>
-      <c r="K26" s="180">
-        <v>0</v>
-      </c>
-      <c r="L26" s="181"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135">
+        <v>0</v>
+      </c>
+      <c r="L26" s="136"/>
       <c r="M26" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="177"/>
-      <c r="B27" s="182" t="s">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" s="126"/>
+      <c r="B27" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="183"/>
-      <c r="D27" s="184">
+      <c r="C27" s="138"/>
+      <c r="D27" s="149">
         <v>19</v>
       </c>
-      <c r="E27" s="185"/>
-      <c r="F27" s="186">
+      <c r="E27" s="150"/>
+      <c r="F27" s="139">
         <v>67</v>
       </c>
-      <c r="G27" s="187"/>
+      <c r="G27" s="140"/>
       <c r="H27" s="21">
         <v>86</v>
       </c>
-      <c r="I27" s="186">
+      <c r="I27" s="139">
         <v>16</v>
       </c>
-      <c r="J27" s="187"/>
-      <c r="K27" s="188">
+      <c r="J27" s="140"/>
+      <c r="K27" s="141">
         <v>13</v>
       </c>
-      <c r="L27" s="189"/>
+      <c r="L27" s="142"/>
       <c r="M27" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="167" t="s">
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="170" t="s">
+      <c r="B28" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="190">
-        <v>0</v>
-      </c>
-      <c r="E28" s="191"/>
-      <c r="F28" s="113">
+      <c r="C28" s="132"/>
+      <c r="D28" s="145">
+        <v>0</v>
+      </c>
+      <c r="E28" s="146"/>
+      <c r="F28" s="106">
         <v>1</v>
       </c>
-      <c r="G28" s="115"/>
+      <c r="G28" s="107"/>
       <c r="H28" s="23">
         <v>1</v>
       </c>
-      <c r="I28" s="113">
-        <v>0</v>
-      </c>
-      <c r="J28" s="115"/>
-      <c r="K28" s="192">
-        <v>0</v>
-      </c>
-      <c r="L28" s="193"/>
+      <c r="I28" s="106">
+        <v>0</v>
+      </c>
+      <c r="J28" s="107"/>
+      <c r="K28" s="147">
+        <v>0</v>
+      </c>
+      <c r="L28" s="148"/>
       <c r="M28" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="168"/>
-      <c r="B29" s="170" t="s">
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="152"/>
+      <c r="B29" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="178">
+      <c r="C29" s="132"/>
+      <c r="D29" s="143">
         <v>3</v>
       </c>
-      <c r="E29" s="179"/>
-      <c r="F29" s="171">
+      <c r="E29" s="144"/>
+      <c r="F29" s="133">
         <v>7</v>
       </c>
-      <c r="G29" s="172"/>
+      <c r="G29" s="134"/>
       <c r="H29" s="19">
         <v>10</v>
       </c>
-      <c r="I29" s="171">
+      <c r="I29" s="133">
         <v>3</v>
       </c>
-      <c r="J29" s="172"/>
-      <c r="K29" s="180">
+      <c r="J29" s="134"/>
+      <c r="K29" s="135">
         <v>4</v>
       </c>
-      <c r="L29" s="181"/>
+      <c r="L29" s="136"/>
       <c r="M29" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="168"/>
-      <c r="B30" s="170" t="s">
+    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="152"/>
+      <c r="B30" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="178">
-        <v>0</v>
-      </c>
-      <c r="E30" s="179"/>
-      <c r="F30" s="171">
+      <c r="C30" s="132"/>
+      <c r="D30" s="143">
+        <v>0</v>
+      </c>
+      <c r="E30" s="144"/>
+      <c r="F30" s="133">
         <v>1</v>
       </c>
-      <c r="G30" s="172"/>
+      <c r="G30" s="134"/>
       <c r="H30" s="17">
         <v>1</v>
       </c>
-      <c r="I30" s="171">
-        <v>0</v>
-      </c>
-      <c r="J30" s="172"/>
-      <c r="K30" s="180">
+      <c r="I30" s="133">
+        <v>0</v>
+      </c>
+      <c r="J30" s="134"/>
+      <c r="K30" s="135">
         <v>1</v>
       </c>
-      <c r="L30" s="181"/>
+      <c r="L30" s="136"/>
       <c r="M30" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="168"/>
-      <c r="B31" s="170" t="s">
+    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="152"/>
+      <c r="B31" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="178">
-        <v>0</v>
-      </c>
-      <c r="E31" s="179"/>
-      <c r="F31" s="171">
-        <v>0</v>
-      </c>
-      <c r="G31" s="172"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="143">
+        <v>0</v>
+      </c>
+      <c r="E31" s="144"/>
+      <c r="F31" s="133">
+        <v>0</v>
+      </c>
+      <c r="G31" s="134"/>
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="171">
+      <c r="I31" s="133">
         <v>1</v>
       </c>
-      <c r="J31" s="172"/>
-      <c r="K31" s="180">
-        <v>0</v>
-      </c>
-      <c r="L31" s="181"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="135">
+        <v>0</v>
+      </c>
+      <c r="L31" s="136"/>
       <c r="M31" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="168"/>
-      <c r="B32" s="170" t="s">
+    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="152"/>
+      <c r="B32" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="143"/>
-      <c r="D32" s="178">
-        <v>0</v>
-      </c>
-      <c r="E32" s="179"/>
-      <c r="F32" s="171">
+      <c r="C32" s="132"/>
+      <c r="D32" s="143">
+        <v>0</v>
+      </c>
+      <c r="E32" s="144"/>
+      <c r="F32" s="133">
         <v>1</v>
       </c>
-      <c r="G32" s="172"/>
+      <c r="G32" s="134"/>
       <c r="H32" s="17">
         <v>1</v>
       </c>
-      <c r="I32" s="171">
-        <v>0</v>
-      </c>
-      <c r="J32" s="172"/>
-      <c r="K32" s="180">
-        <v>0</v>
-      </c>
-      <c r="L32" s="181"/>
+      <c r="I32" s="133">
+        <v>0</v>
+      </c>
+      <c r="J32" s="134"/>
+      <c r="K32" s="135">
+        <v>0</v>
+      </c>
+      <c r="L32" s="136"/>
       <c r="M32" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="169"/>
-      <c r="B33" s="170" t="s">
+    <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="153"/>
+      <c r="B33" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="143"/>
-      <c r="D33" s="190">
-        <v>0</v>
-      </c>
-      <c r="E33" s="191"/>
-      <c r="F33" s="113">
+      <c r="C33" s="132"/>
+      <c r="D33" s="145">
+        <v>0</v>
+      </c>
+      <c r="E33" s="146"/>
+      <c r="F33" s="106">
         <v>2</v>
       </c>
-      <c r="G33" s="115"/>
+      <c r="G33" s="107"/>
       <c r="H33" s="23">
         <v>2</v>
       </c>
-      <c r="I33" s="113">
+      <c r="I33" s="106">
         <v>1</v>
       </c>
-      <c r="J33" s="115"/>
-      <c r="K33" s="192">
+      <c r="J33" s="107"/>
+      <c r="K33" s="147">
         <v>1</v>
       </c>
-      <c r="L33" s="193"/>
+      <c r="L33" s="148"/>
       <c r="M33" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="175"/>
-      <c r="B34" s="173" t="s">
+    <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="124"/>
+      <c r="B34" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="196"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="196"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="130"/>
       <c r="M34" s="25"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="176"/>
-      <c r="B35" s="170" t="s">
+    <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="125"/>
+      <c r="B35" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="171">
+      <c r="C35" s="132"/>
+      <c r="D35" s="133">
         <v>3</v>
       </c>
-      <c r="E35" s="172"/>
-      <c r="F35" s="171">
+      <c r="E35" s="134"/>
+      <c r="F35" s="133">
         <v>24</v>
       </c>
-      <c r="G35" s="172"/>
+      <c r="G35" s="134"/>
       <c r="H35" s="19">
         <v>27</v>
       </c>
-      <c r="I35" s="171">
+      <c r="I35" s="133">
         <v>3</v>
       </c>
-      <c r="J35" s="172"/>
-      <c r="K35" s="180">
+      <c r="J35" s="134"/>
+      <c r="K35" s="135">
         <v>6</v>
       </c>
-      <c r="L35" s="181"/>
+      <c r="L35" s="136"/>
       <c r="M35" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="170" t="s">
+    <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="125"/>
+      <c r="B36" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="171">
+      <c r="C36" s="132"/>
+      <c r="D36" s="133">
         <v>1</v>
       </c>
-      <c r="E36" s="172"/>
-      <c r="F36" s="171">
+      <c r="E36" s="134"/>
+      <c r="F36" s="133">
         <v>3</v>
       </c>
-      <c r="G36" s="172"/>
+      <c r="G36" s="134"/>
       <c r="H36" s="17">
         <v>4</v>
       </c>
-      <c r="I36" s="171">
+      <c r="I36" s="133">
         <v>1</v>
       </c>
-      <c r="J36" s="172"/>
-      <c r="K36" s="180">
-        <v>0</v>
-      </c>
-      <c r="L36" s="181"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="135">
+        <v>0</v>
+      </c>
+      <c r="L36" s="136"/>
       <c r="M36" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="177"/>
-      <c r="B37" s="182" t="s">
+    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="126"/>
+      <c r="B37" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="183"/>
-      <c r="D37" s="186">
+      <c r="C37" s="138"/>
+      <c r="D37" s="139">
         <v>7</v>
       </c>
-      <c r="E37" s="187"/>
-      <c r="F37" s="186">
+      <c r="E37" s="140"/>
+      <c r="F37" s="139">
         <v>39</v>
       </c>
-      <c r="G37" s="187"/>
+      <c r="G37" s="140"/>
       <c r="H37" s="21">
         <v>46</v>
       </c>
-      <c r="I37" s="186">
+      <c r="I37" s="139">
         <v>9</v>
       </c>
-      <c r="J37" s="187"/>
-      <c r="K37" s="188">
+      <c r="J37" s="140"/>
+      <c r="K37" s="141">
         <v>12</v>
       </c>
-      <c r="L37" s="189"/>
+      <c r="L37" s="142"/>
       <c r="M37" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="156" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="105" t="s">
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="122"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="102" t="s">
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="105" t="s">
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="105" t="s">
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="102" t="s">
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="102"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="102"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="194" t="s">
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="194"/>
-      <c r="C44" s="194"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="194"/>
-      <c r="L44" s="194"/>
-      <c r="M44" s="194"/>
-      <c r="N44" s="194"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+      <c r="N44" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
     <mergeCell ref="A38:N38"/>
     <mergeCell ref="A39:N39"/>
     <mergeCell ref="A40:N40"/>
@@ -6498,152 +6633,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6653,34 +6642,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A41DA92-E6A0-8848-AE3D-549F1689C42D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="197" t="s">
+    <row r="1" spans="1:5" ht="38.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-    </row>
-    <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+    </row>
+    <row r="2" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
         <v>121</v>
       </c>
@@ -6694,7 +6683,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>2016</v>
       </c>
@@ -6708,7 +6697,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>2017</v>
       </c>
@@ -6722,7 +6711,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="41">
         <v>2018</v>
       </c>
@@ -6755,24 +6744,24 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="198" t="s">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
     </row>
-    <row r="2" spans="1:7" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
         <v>118</v>
       </c>
@@ -6786,7 +6775,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>29</v>
       </c>
@@ -6816,22 +6805,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A018FA-F9AC-A344-A4A0-22F7F7275504}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>105</v>
       </c>
@@ -6855,7 +6844,7 @@
       </c>
       <c r="I1" s="38"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>45</v>
       </c>
@@ -6878,7 +6867,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>46</v>
       </c>
@@ -6901,7 +6890,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>47</v>
       </c>
@@ -6924,7 +6913,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>48</v>
       </c>
@@ -6947,7 +6936,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>49</v>
       </c>
@@ -6970,7 +6959,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>50</v>
       </c>
@@ -6993,7 +6982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>51</v>
       </c>
@@ -7016,7 +7005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>44</v>
       </c>
@@ -7040,7 +7029,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -7052,80 +7041,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4184C7-D28C-C441-B082-D2AEE83C63D1}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="122.83203125" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.69921875" style="199" customWidth="1"/>
+    <col min="3" max="3" width="36.69921875" customWidth="1"/>
     <col min="4" max="4" width="45.5" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.69921875" customWidth="1"/>
     <col min="7" max="7" width="45.5" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>107</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="G4" s="73" t="s">
         <v>110</v>
       </c>
       <c r="H4" s="61" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="196" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="27">
@@ -7147,11 +7134,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="196" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="30">
@@ -7173,11 +7160,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="196" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="30">
@@ -7199,11 +7186,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+    <row r="8" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="196" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="27">
@@ -7225,19 +7212,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="91"/>
-      <c r="B10" s="75" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="85"/>
+      <c r="B10" s="196" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="30">
@@ -7259,9 +7246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
-      <c r="B11" s="75" t="s">
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="86"/>
+      <c r="B11" s="196" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="30">
@@ -7283,9 +7270,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="91"/>
-      <c r="B12" s="75" t="s">
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="85"/>
+      <c r="B12" s="196" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="30">
@@ -7307,9 +7294,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
-      <c r="B13" s="75" t="s">
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="86"/>
+      <c r="B13" s="196" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="30">
@@ -7331,9 +7318,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="91"/>
-      <c r="B14" s="75" t="s">
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="85"/>
+      <c r="B14" s="196" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="30">
@@ -7355,9 +7342,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="92"/>
-      <c r="B15" s="75" t="s">
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="86"/>
+      <c r="B15" s="196" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="30">
@@ -7379,9 +7366,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
-      <c r="B16" s="79" t="s">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="87"/>
+      <c r="B16" s="197" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="31">
@@ -7403,11 +7390,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="196" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="27">
@@ -7429,11 +7416,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="196" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="30">
@@ -7455,11 +7442,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="196" t="s">
         <v>92</v>
       </c>
       <c r="C19" s="30">
@@ -7481,11 +7468,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="196" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="30">
@@ -7507,11 +7494,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="196" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="30">
@@ -7533,11 +7520,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="196" t="s">
         <v>100</v>
       </c>
       <c r="C22" s="27">
@@ -7559,19 +7546,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="90"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="91"/>
-      <c r="B24" s="75" t="s">
+    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="84"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="85"/>
+      <c r="B24" s="196" t="s">
         <v>97</v>
       </c>
       <c r="C24" s="30">
@@ -7593,9 +7580,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="92"/>
-      <c r="B25" s="75" t="s">
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="86"/>
+      <c r="B25" s="196" t="s">
         <v>98</v>
       </c>
       <c r="C25" s="30">
@@ -7617,35 +7604,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="96"/>
-      <c r="B26" s="83" t="s">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="90"/>
+      <c r="B26" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="84">
+      <c r="C26" s="78">
         <v>7</v>
       </c>
-      <c r="D26" s="84">
+      <c r="D26" s="78">
         <v>39</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="79">
         <v>46</v>
       </c>
-      <c r="F26" s="84">
+      <c r="F26" s="78">
         <v>9</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="78">
         <v>12</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="78">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/EL SALVADOR/Delitos/Informe Femicidios.xlsx
+++ b/EL SALVADOR/Delitos/Informe Femicidios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Delitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E66F65-E974-4E81-A214-1F70B328350D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C49A69-6CE3-4DFB-BBB8-9825365E264D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="informe1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -78,33 +78,6 @@
         <family val="1"/>
       </rPr>
       <t>a)   La existencia o progreso en la creación de un observatorio de feminicidio nacional y/o un observatorio sobre la violencia contra la mujer.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>El  Estado  Salvadoreño  cuenta  con  el  Sistema  Nacional  de  Datos,  Estadísticas  e  Información  de Violencia contra las Mujeres, en cumplimiento a los Art. 30 y 31 de la Ley Especial Integral para una Vida  libre  de  Violencia  para  las  Mujeres  (LEIV)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.  Este  sistema  es  una  herramienta  de  gestión  de información  sobre  violencia  contra  las  mujeres  que  permite  disponer  de  una  base  de  datos compartida sobre los tipos de violencia en el país. Las instituciones que proporcionan información son las siguientes: Ministerio de Justicia  y Seguridad Pública (MJSP), Procuraduría General de la República  (PGR),  Fiscalía  General  de  la  República  (FGR),  Corte  Suprema  de  Justicia  (CSJ), Ministerio  de  Salud  (MINSAL),  Ministerio  de  Economía  (MINEC),  Ministerio  de  Trabajo  y Previsión  Social  (MTPS),  Policía  Nacional  Civil  (PNC)  e  instituciones  que  brindan  atención  a mujeres que enfrentan violencia.</t>
     </r>
   </si>
   <si>
@@ -1163,16 +1136,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Delitos LEIV (Sin
-</t>
-    </r>
+      <t>Violencia Sexual</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Feminicidios)</t>
+      <t>Violencia Física</t>
     </r>
   </si>
   <si>
@@ -1182,65 +1156,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Violencia Sexual</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Violencia Física</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Violencia Patrimonial</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Feminicidios (45
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LEIV,46 LEIV)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Feminicidios Tentativos
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(45 LEIV-24 CP,46 LEIV-24 CP)</t>
     </r>
   </si>
   <si>
@@ -1853,39 +1769,6 @@
   </si>
   <si>
     <t>Delitos LEIV (Sin Femicidios)</t>
-  </si>
-  <si>
-    <t>Feminicidio (45 LEIVM)</t>
-  </si>
-  <si>
-    <t>Feminicidio Agravado (46 LEIVM)</t>
-  </si>
-  <si>
-    <t>Suicidio Feminicida Por Inducción O Ayuda (48 LEIVM)</t>
-  </si>
-  <si>
-    <t>Inducción, Promoción Y "Favorecimiento De Actos Sexuales O Eróticos Por Medios Informáticos O Electrónicos (49 LEIVM)</t>
-  </si>
-  <si>
-    <t>Difusión Ilegal De Información (50 LEIVM)</t>
-  </si>
-  <si>
-    <t>Difusión De Pornografía (51 LEIVM)</t>
-  </si>
-  <si>
-    <t>Sustracción De Las Utilidades De Las Actividades Económicas Familiares (54 LEIVM)</t>
-  </si>
-  <si>
-    <t>Expresiones De Violencia Contra Las Mujeres (55 LEIVM)</t>
-  </si>
-  <si>
-    <t>Feminicidio Agravado en Grado de Tentativa (46 LEIVM 24 CP)</t>
-  </si>
-  <si>
-    <t>Feminicidio En Grado de Tentativa (45 LEIVM 24 CP)</t>
-  </si>
-  <si>
-    <t>Sustracción Patrimonial (53 LEIVM)</t>
   </si>
   <si>
     <r>
@@ -1913,140 +1796,173 @@
     <t>Datos administrativos sobre los asesinatos de mujeres por razón de género de los últimos tres años (2016-2018)</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>Delitos</t>
   </si>
   <si>
-    <t>Juzgados Especializados 2018</t>
-  </si>
-  <si>
-    <t>Juzgados/ Tribunales Ordinarios 2018</t>
-  </si>
-  <si>
-    <t>Total 2018</t>
-  </si>
-  <si>
-    <t>Juzgados Especializados 2019</t>
-  </si>
-  <si>
-    <t>Juzgados/ Tribunales Ordinarios 2019</t>
-  </si>
-  <si>
-    <t>Total 2019</t>
-  </si>
-  <si>
     <t>Sentencias Condenatorias</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Total</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2018</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Total</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2019</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Número total de asesinatos de mujeres intencionales/ homicidios</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>Número total de mujeres asesinadas por pareja íntima</t>
+  </si>
+  <si>
+    <t>Grupo de edad</t>
+  </si>
+  <si>
+    <t>Tipo de Sentencia</t>
+  </si>
+  <si>
+    <t>Años</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Cantidad de Víctimas</t>
+  </si>
+  <si>
+    <t>0 - 12 Años</t>
+  </si>
+  <si>
+    <t>2018 (Enero-Junio)</t>
+  </si>
+  <si>
+    <t>Casos Ingresados a los Juzgados Especializados y a los Juzgados Ordinarios 2018, 2019</t>
+  </si>
+  <si>
+    <t>Violencia Feminicida</t>
+  </si>
+  <si>
+    <t>Violencia Sexual</t>
+  </si>
+  <si>
+    <t>Violencia Física</t>
+  </si>
+  <si>
+    <t>Violencia Patrimonial</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delitos LEIV (Sin
+Feminicidios)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tipo de Juzgado</t>
+  </si>
+  <si>
+    <t>Juzgado Especializado</t>
+  </si>
+  <si>
+    <t>Juzgado Ordinario</t>
+  </si>
+  <si>
+    <t>Cantida de casos Ingresados</t>
+  </si>
+  <si>
+    <t>Casos con Resultado de Sentencia, Años 2018 y 2019</t>
+  </si>
+  <si>
+    <t>Fuente: Departamento de Estadística, según Base de Datos SIGAP FGR al 17/07/2019.</t>
+  </si>
+  <si>
+    <t>Sentencias Absolutorias</t>
+  </si>
+  <si>
+    <t>Cantidad de casos con resultado de sentencia</t>
+  </si>
+  <si>
+    <t>Número total de asesinatos de mujeres intencionales/ homicidios</t>
+  </si>
+  <si>
+    <t>Número total de feminicidios u homicidios de mujeres por violencia de género</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La información corresponde a mujeres víctimas de muertes violentas dolosas registradas en la Mesa Técnica de Conciliación de Cifras de Homicidios Dolosos (FGR, PNC e IML). En tal sentido, los datos pueden incluir víctimas que posteriormente y de acuerdo a las investigaciones, se investiguen por el delito de Feminicidio.</t>
+  </si>
+  <si>
+    <t>Los datos corresponden a las víctimas registradas por el delito de Feminicidio según el Artículo 45 y Artículo 46 de la LEIV  y registros de SIGAP hasta el año 2017, A partir del año 2018, las víctimas de Feminicidios corresponden según datos homologados en la Mesa Técnica de Conciliación de Cifras de Homicidios Dolosos (FGR, PNC e IML), año en que se ha comenzado a homologar dichos datos.</t>
+  </si>
+  <si>
+    <r>
+      <t>El  Estado  Salvadoreño  cuenta  con  el  Sistema  Nacional  de  Datos,  Estadísticas  e  Información  de Violencia contra las Mujeres, en cumplimiento a los Art. 30 y 31 de la Ley Especial Integral para una Vida  libre  de  Violencia  para  las  Mujeres  (LEIV)</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>Número total de mujeres asesinadas por pareja íntima</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Número total de feminicidios u homicidios de mujeres por violencia de género</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <t>Grupo de edad</t>
-  </si>
-  <si>
-    <t>Enero- Junio 2018</t>
-  </si>
-  <si>
-    <t>Tipo de Sentencia</t>
-  </si>
-  <si>
-    <t>Años</t>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.  Este  sistema  es  una  herramienta  de  gestión  de información  sobre  violencia  contra  las  mujeres  que  permite  disponer  de  una  base  de  datos compartida sobre los tipos de violencia en el país. Las instituciones que proporcionan información son las siguientes: Ministerio de Justicia  y Seguridad Pública (MJSP), Procuraduría General de la República  (PGR),  Fiscalía  General  de  la  República  (FGR),  Corte  Suprema  de  Justicia  (CSJ), Ministerio  de  Salud  (MINSAL),  Ministerio  de  Economía  (MINEC),  Ministerio  de  Trabajo  y Previsión  Social  (MTPS),  Policía  Nacional  Civil  (PNC)  e  instituciones  que  brindan  atención  a mujeres que enfrentan violencia.</t>
+    </r>
+  </si>
+  <si>
+    <t>LEIV: Ley Especial Integral para una Vida  libre  de  Violencia  para  las  Mujeres</t>
+  </si>
+  <si>
+    <t>Delitos LEIV (Sin Feminicidios)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminicidios </t>
+  </si>
+  <si>
+    <t>Feminicidios Tentativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminicidio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminicidio Agravado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suicidio Feminicida Por Inducción O Ayuda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inducción, Promoción Y "Favorecimiento De Actos Sexuales O Eróticos Por Medios Informáticos O Electrónicos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difusión Ilegal De Información </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difusión De Pornografía </t>
+  </si>
+  <si>
+    <t>Sustracción De Las Utilidades De Las Actividades Económicas Familiares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expresiones De Violencia Contra Las Mujeres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminicidio Agravado en Grado de Tentativa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminicidio En Grado de Tentativa </t>
+  </si>
+  <si>
+    <t>Feminicidio Agravado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustracción Patrimonial </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2213,26 +2129,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
@@ -2242,32 +2138,83 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <color theme="0"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2279,26 +2226,8 @@
         <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2462,38 +2391,8 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2501,7 +2400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2583,501 +2482,396 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3087,30 +2881,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="31">
     <dxf>
       <font>
         <b val="0"/>
@@ -3122,40 +2952,34 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3164,21 +2988,43 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFD9D9D9"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3187,6 +3033,19 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3206,305 +3065,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -3523,53 +3087,16 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -3577,6 +3104,28 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3589,11 +3138,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -3627,11 +3176,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -3665,11 +3214,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -3694,7 +3243,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3703,11 +3252,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -3725,6 +3274,340 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -3754,38 +3637,11 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <color theme="0"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4100,7 +3956,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2304923" y="26796782"/>
+          <a:off x="2095373" y="27184132"/>
           <a:ext cx="2972435" cy="1334135"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2972435" cy="1334135"/>
@@ -4300,61 +4156,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21871D3B-8F3F-4E8B-9A91-1FDD705D243A}" name="Asesinatos_mujeres_por_género_2016_2018" displayName="Asesinatos_mujeres_por_género_2016_2018" ref="A3:D6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21871D3B-8F3F-4E8B-9A91-1FDD705D243A}" name="Asesinatos_mujeres_por_género_2016_2018" displayName="Asesinatos_mujeres_por_género_2016_2018" ref="A3:D6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="A3:D6" xr:uid="{58FFDF50-70A5-46EB-A5EF-7A3C46AD0633}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5F620E6D-6C20-4684-9FE9-9B27DF753264}" name="Años" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{CDE9EF35-162F-41F6-ABF3-7E14A40D6AAD}" name="Número total de asesinatos de mujeres intencionales/ homicidios7" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{2E705138-AE90-4F61-B5BF-2611F875D8FD}" name="Número total de mujeres asesinadas por pareja íntima" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{8AF8B62B-726A-44D9-AC3F-5A1CFB4A45A5}" name="Número total de feminicidios u homicidios de mujeres por violencia de género8" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{5F620E6D-6C20-4684-9FE9-9B27DF753264}" name="Años" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CDE9EF35-162F-41F6-ABF3-7E14A40D6AAD}" name="Número total de asesinatos de mujeres intencionales/ homicidios" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2E705138-AE90-4F61-B5BF-2611F875D8FD}" name="Número total de mujeres asesinadas por pareja íntima" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8AF8B62B-726A-44D9-AC3F-5A1CFB4A45A5}" name="Número total de feminicidios u homicidios de mujeres por violencia de género" dataDxfId="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{346A1C5F-9FF3-4C3B-B9C6-663F15B09004}" name="Cantidad_niñas_femicidio_2016_2018" displayName="Cantidad_niñas_femicidio_2016_2018" ref="A2:D3" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A2:D3" xr:uid="{334A8480-CBB1-4AB3-B8AA-3A4F81CA4674}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D761261A-7EE4-42C6-99BA-68A3F800A2CA}" name="Grupo de edad" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{59189A23-FC7E-43D4-905E-5206256AA718}" name="2016" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{93E87CE9-65AD-4950-A06A-EC188E2FD15C}" name="2017" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{2485CF84-E2F1-4D39-9E04-BBB7EB0A360C}" name="Enero- Junio 2018" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{346A1C5F-9FF3-4C3B-B9C6-663F15B09004}" name="Cantidad_niñas_femicidio_2016_2018" displayName="Cantidad_niñas_femicidio_2016_2018" ref="A2:C5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A2:C5" xr:uid="{334A8480-CBB1-4AB3-B8AA-3A4F81CA4674}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D761261A-7EE4-42C6-99BA-68A3F800A2CA}" name="Grupo de edad" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2349DAAD-8399-BA4E-BE50-40BBDCD43D15}" name="Año" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{59189A23-FC7E-43D4-905E-5206256AA718}" name="Cantidad de Víctimas" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0C8BF93-56E1-408F-9541-CDACE47D094F}" name="Tipos_de_delitos_por_tipo_juzgado_2018_2019" displayName="Tipos_de_delitos_por_tipo_juzgado_2018_2019" ref="A1:G9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:G9" xr:uid="{4590DC7A-9920-4C59-BC25-9636307EB846}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{01121B26-C462-463B-977B-6CA8118AB527}" name="Delitos" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E511E22B-D595-4502-B8F9-896D08763669}" name="Juzgados Especializados 2018" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0EE25A9C-94AC-4FDA-A955-F75194EE3CA4}" name="Juzgados/ Tribunales Ordinarios 2018" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{EE54EEDB-E762-4785-AD52-61FFF5E90CD0}" name="Total 2018" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{3407078A-58D9-4243-9128-284DE89D45F2}" name="Juzgados Especializados 2019" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{809B7314-158F-48A6-AB54-BFF7D47E7E29}" name="Juzgados/ Tribunales Ordinarios 2019" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{96604670-BBFE-4B2C-AD67-7868D41DFE76}" name="Total 2019" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0C8BF93-56E1-408F-9541-CDACE47D094F}" name="Tipos_de_delitos_por_tipo_juzgado_2018_2019" displayName="Tipos_de_delitos_por_tipo_juzgado_2018_2019" ref="A3:D31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A3:D31" xr:uid="{4590DC7A-9920-4C59-BC25-9636307EB846}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{01121B26-C462-463B-977B-6CA8118AB527}" name="Delitos" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{5C2BEBB4-E24E-6B43-A225-B1E3C8C0BBC6}" name="Año" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{8C1DE1A0-2CF1-4C46-985C-95FC129355A6}" name="Tipo de Juzgado" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{E511E22B-D595-4502-B8F9-896D08763669}" name="Cantida de casos Ingresados" dataDxfId="19"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{40DBB6A5-8CFE-4769-8445-7644070E6D5E}" name="Casos_con_resultado_de_sentencia_2018_2019" displayName="Casos_con_resultado_de_sentencia_2018_2019" ref="A4:H26" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A4:H26" xr:uid="{8E702311-84B1-4E53-91B4-B8FA6F30BFE7}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C81BCCBC-F172-4751-B9BB-D3D9ADFE57CC}" name="Tipo de Sentencia"/>
-    <tableColumn id="2" xr3:uid="{D366E9C7-92C1-418B-BCA9-13F897356F8F}" name="Delitos" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{2AB7CA02-3388-437C-B0BB-B8AFAEF7B718}" name="Juzgados Especializados 2018"/>
-    <tableColumn id="4" xr3:uid="{E5F64525-2A74-4575-8B2A-9402BB682E9A}" name="Juzgados/ Tribunales Ordinarios 2018"/>
-    <tableColumn id="5" xr3:uid="{2A6B75A1-C5F8-4C44-91BE-619CB2FC979A}" name="Total 2018"/>
-    <tableColumn id="6" xr3:uid="{E4D5A37D-D017-4690-95E6-0E5D468F155F}" name="Juzgados Especializados 2019"/>
-    <tableColumn id="7" xr3:uid="{5125297D-03FF-40DD-8C45-21100CA11C25}" name="Juzgados/ Tribunales Ordinarios 2019"/>
-    <tableColumn id="8" xr3:uid="{11366F06-1F93-402F-983D-2C7A89174887}" name="Total 2019"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{40DBB6A5-8CFE-4769-8445-7644070E6D5E}" name="Casos_con_resultado_de_sentencia_2018_2019" displayName="Casos_con_resultado_de_sentencia_2018_2019" ref="A4:E76" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A4:E76" xr:uid="{8E702311-84B1-4E53-91B4-B8FA6F30BFE7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C81BCCBC-F172-4751-B9BB-D3D9ADFE57CC}" name="Tipo de Sentencia" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{D366E9C7-92C1-418B-BCA9-13F897356F8F}" name="Delitos" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D310E9E4-D70E-6644-BC68-D86EE464ABA3}" name="Año" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{4E233275-C13D-5D4E-8598-3E3F95D396FF}" name="Tipo de Juzgado" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2AB7CA02-3388-437C-B0BB-B8AFAEF7B718}" name="Cantidad de casos con resultado de sentencia" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4681,621 +4530,584 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:H30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.296875" customWidth="1"/>
-    <col min="2" max="2" width="1.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="1.83203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="3.69921875" customWidth="1"/>
-    <col min="8" max="8" width="23.796875" customWidth="1"/>
-    <col min="9" max="9" width="39.796875" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-    </row>
-    <row r="3" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-    </row>
-    <row r="5" spans="1:9" ht="205" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+    </row>
+    <row r="5" spans="1:9" ht="204.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-    </row>
-    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-    </row>
-    <row r="8" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-    </row>
-    <row r="9" spans="1:9" ht="151.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="93" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-    </row>
-    <row r="11" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="93" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-    </row>
-    <row r="12" spans="1:9" ht="75.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="117" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+    </row>
+    <row r="13" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-    </row>
-    <row r="13" spans="1:9" ht="75.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-    </row>
-    <row r="14" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="96" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+    </row>
+    <row r="15" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-    </row>
-    <row r="15" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+    </row>
+    <row r="16" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-    </row>
-    <row r="16" spans="1:9" ht="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="93" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+    </row>
+    <row r="18" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-    </row>
-    <row r="18" spans="1:9" ht="60.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-    </row>
-    <row r="19" spans="1:9" ht="75.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="96" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-    </row>
-    <row r="20" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="93" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+    </row>
+    <row r="21" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-    </row>
-    <row r="21" spans="1:9" ht="60.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="96" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-    </row>
-    <row r="22" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-    </row>
-    <row r="23" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="116" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+    </row>
+    <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-    </row>
-    <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="96" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-    </row>
-    <row r="25" spans="1:9" ht="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="97" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+    </row>
+    <row r="27" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-    </row>
-    <row r="27" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="114"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2016</v>
       </c>
-      <c r="B28" s="106">
+      <c r="B28" s="73">
         <v>524</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="106">
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="73">
         <v>16</v>
       </c>
-      <c r="F28" s="108"/>
-      <c r="G28" s="107"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="3">
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2017</v>
       </c>
-      <c r="B29" s="106">
+      <c r="B29" s="73">
         <v>469</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="106">
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="73">
         <v>17</v>
       </c>
-      <c r="F29" s="108"/>
-      <c r="G29" s="107"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="3">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2018</v>
       </c>
-      <c r="B30" s="106">
+      <c r="B30" s="73">
         <v>386</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="106">
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="73">
         <v>31</v>
       </c>
-      <c r="F30" s="108"/>
-      <c r="G30" s="107"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="109" t="s">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-    </row>
-    <row r="32" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99" t="s">
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95" t="s">
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+    </row>
+    <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-    </row>
-    <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="101"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="4">
         <v>2016</v>
       </c>
-      <c r="D34" s="102">
+      <c r="D34" s="80">
         <v>2017</v>
       </c>
-      <c r="E34" s="103"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="82" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="105"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="106">
+      <c r="D35" s="73">
         <v>1</v>
       </c>
-      <c r="E35" s="107"/>
+      <c r="E35" s="75"/>
       <c r="F35" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="174.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="92" t="s">
+    <row r="36" spans="1:9" ht="174.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+    </row>
+    <row r="37" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-    </row>
-    <row r="37" spans="1:9" ht="73.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="96" t="s">
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+    </row>
+    <row r="38" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-    </row>
-    <row r="38" spans="1:9" ht="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="93" t="s">
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-    </row>
-    <row r="40" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="97" t="s">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+    </row>
+    <row r="41" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-    </row>
-    <row r="41" spans="1:9" ht="125.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="98" t="s">
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+    </row>
+    <row r="42" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-    </row>
-    <row r="42" spans="1:9" ht="217.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="92" t="s">
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+    </row>
+    <row r="43" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-    </row>
-    <row r="43" spans="1:9" ht="90.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="93" t="s">
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+    </row>
+    <row r="44" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="94" t="s">
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+    </row>
+    <row r="45" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-    </row>
-    <row r="45" spans="1:9" ht="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A43:I43"/>
     <mergeCell ref="A44:I44"/>
@@ -5305,6 +5117,43 @@
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.asamblea.gob.sv/decretos/details/483" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5322,1217 +5171,1223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.19921875" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.296875" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" customWidth="1"/>
-    <col min="11" max="11" width="1.796875" customWidth="1"/>
-    <col min="12" max="13" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.796875" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.1640625" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="1.83203125" customWidth="1"/>
+    <col min="12" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A1" s="182" t="s">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="186" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="186" t="s">
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="93"/>
+    </row>
+    <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="188"/>
-    </row>
-    <row r="2" spans="1:14" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="184"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="189" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="96"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="95"/>
+      <c r="L2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="189" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="191"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="190"/>
-      <c r="L2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="171" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="173">
+      <c r="B3" s="98"/>
+      <c r="C3" s="99">
         <v>35</v>
       </c>
-      <c r="D3" s="174"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="8">
         <v>363</v>
       </c>
       <c r="F3" s="9">
         <v>398</v>
       </c>
-      <c r="G3" s="173">
+      <c r="G3" s="99">
         <v>11</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="173">
+      <c r="H3" s="101"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="99">
         <v>198</v>
       </c>
-      <c r="K3" s="174"/>
+      <c r="K3" s="100"/>
       <c r="L3" s="9">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="176" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="173">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="103"/>
+      <c r="C4" s="99">
         <v>1</v>
       </c>
-      <c r="D4" s="174"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="11">
         <v>1517</v>
       </c>
       <c r="F4" s="12">
         <v>1518</v>
       </c>
-      <c r="G4" s="173">
+      <c r="G4" s="99">
         <v>2</v>
       </c>
-      <c r="H4" s="175"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="173">
+      <c r="H4" s="101"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="99">
         <v>831</v>
       </c>
-      <c r="K4" s="174"/>
+      <c r="K4" s="100"/>
       <c r="L4" s="9">
         <v>833</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="171" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="173">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99">
         <v>0</v>
       </c>
-      <c r="D5" s="174"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="11">
         <v>1920</v>
       </c>
       <c r="F5" s="12">
         <v>1920</v>
       </c>
-      <c r="G5" s="173">
+      <c r="G5" s="99">
         <v>1</v>
       </c>
-      <c r="H5" s="175"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="173">
+      <c r="H5" s="101"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="99">
         <v>940</v>
       </c>
-      <c r="K5" s="174"/>
+      <c r="K5" s="100"/>
       <c r="L5" s="9">
         <v>941</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A6" s="171" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99">
         <v>0</v>
       </c>
-      <c r="D6" s="174"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="11">
         <v>2523</v>
       </c>
       <c r="F6" s="12">
         <v>2523</v>
       </c>
-      <c r="G6" s="173">
+      <c r="G6" s="99">
         <v>0</v>
       </c>
-      <c r="H6" s="175"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="180">
+      <c r="H6" s="101"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="104">
         <v>1382</v>
       </c>
-      <c r="K6" s="181"/>
+      <c r="K6" s="105"/>
       <c r="L6" s="12">
         <v>1382</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A7" s="171" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="172"/>
-      <c r="C7" s="173">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="98"/>
+      <c r="C7" s="99">
         <v>4</v>
       </c>
-      <c r="D7" s="174"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="11">
         <v>1100</v>
       </c>
       <c r="F7" s="12">
         <v>1104</v>
       </c>
-      <c r="G7" s="173">
+      <c r="G7" s="99">
         <v>1</v>
       </c>
-      <c r="H7" s="175"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="173">
+      <c r="H7" s="101"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="99">
         <v>520</v>
       </c>
-      <c r="K7" s="174"/>
+      <c r="K7" s="100"/>
       <c r="L7" s="9">
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A8" s="176" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="173">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="103"/>
+      <c r="C8" s="99">
         <v>8</v>
       </c>
-      <c r="D8" s="174"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="8">
         <v>89</v>
       </c>
       <c r="F8" s="9">
         <v>97</v>
       </c>
-      <c r="G8" s="173">
+      <c r="G8" s="99">
         <v>3</v>
       </c>
-      <c r="H8" s="175"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="173">
+      <c r="H8" s="101"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="99">
         <v>51</v>
       </c>
-      <c r="K8" s="174"/>
+      <c r="K8" s="100"/>
       <c r="L8" s="9">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A9" s="176" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="177">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106">
         <v>0</v>
       </c>
-      <c r="D9" s="178"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="13">
         <v>42</v>
       </c>
       <c r="F9" s="14">
         <v>42</v>
       </c>
-      <c r="G9" s="177">
+      <c r="G9" s="106">
         <v>0</v>
       </c>
-      <c r="H9" s="179"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="177">
+      <c r="H9" s="108"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="106">
         <v>35</v>
       </c>
-      <c r="K9" s="178"/>
+      <c r="K9" s="107"/>
       <c r="L9" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A10" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="156">
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="110"/>
+      <c r="C10" s="111">
         <v>48</v>
       </c>
-      <c r="D10" s="157"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="12">
         <v>7554</v>
       </c>
       <c r="F10" s="12">
         <v>7602</v>
       </c>
-      <c r="G10" s="156">
+      <c r="G10" s="111">
         <v>18</v>
       </c>
-      <c r="H10" s="158"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="159">
+      <c r="H10" s="113"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="114">
         <v>3957</v>
       </c>
-      <c r="K10" s="160"/>
+      <c r="K10" s="115"/>
       <c r="L10" s="12">
         <v>3975</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="122" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="96" t="s">
+      <c r="C14" s="120"/>
+      <c r="D14" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="95" t="s">
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="161" t="s">
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
+    </row>
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="118"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="163" t="s">
+      <c r="E15" s="124"/>
+      <c r="F15" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="113" t="s">
+      <c r="G15" s="126"/>
+      <c r="H15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="113" t="s">
+      <c r="I15" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="124"/>
+      <c r="K15" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="126"/>
+      <c r="M15" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="162"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167" t="s">
+      <c r="B16" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="168"/>
-      <c r="F15" s="169" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="167" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="168"/>
-      <c r="K15" s="169" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="170"/>
-      <c r="M15" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="151" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="106">
+      <c r="C16" s="103"/>
+      <c r="D16" s="73">
         <v>0</v>
       </c>
-      <c r="E16" s="107"/>
-      <c r="F16" s="106">
+      <c r="E16" s="75"/>
+      <c r="F16" s="73">
         <v>9</v>
       </c>
-      <c r="G16" s="107"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="2">
         <v>9</v>
       </c>
-      <c r="I16" s="106">
+      <c r="I16" s="73">
         <v>1</v>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="106">
+      <c r="J16" s="75"/>
+      <c r="K16" s="73">
         <v>2</v>
       </c>
-      <c r="L16" s="107"/>
+      <c r="L16" s="75"/>
       <c r="M16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="128"/>
+      <c r="B17" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="131">
         <v>2</v>
       </c>
-      <c r="E17" s="134"/>
-      <c r="F17" s="133">
+      <c r="E17" s="132"/>
+      <c r="F17" s="131">
         <v>20</v>
       </c>
-      <c r="G17" s="134"/>
+      <c r="G17" s="132"/>
       <c r="H17" s="16">
         <v>22</v>
       </c>
-      <c r="I17" s="133">
+      <c r="I17" s="131">
         <v>6</v>
       </c>
-      <c r="J17" s="134"/>
-      <c r="K17" s="133">
+      <c r="J17" s="132"/>
+      <c r="K17" s="131">
         <v>4</v>
       </c>
-      <c r="L17" s="134"/>
+      <c r="L17" s="132"/>
       <c r="M17" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
-      <c r="B18" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="133">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="128"/>
+      <c r="B18" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="103"/>
+      <c r="D18" s="131">
         <v>0</v>
       </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="133">
+      <c r="E18" s="132"/>
+      <c r="F18" s="131">
         <v>0</v>
       </c>
-      <c r="G18" s="134"/>
+      <c r="G18" s="132"/>
       <c r="H18" s="16">
         <v>0</v>
       </c>
-      <c r="I18" s="133">
+      <c r="I18" s="131">
         <v>0</v>
       </c>
-      <c r="J18" s="134"/>
-      <c r="K18" s="133">
+      <c r="J18" s="132"/>
+      <c r="K18" s="131">
         <v>1</v>
       </c>
-      <c r="L18" s="134"/>
+      <c r="L18" s="132"/>
       <c r="M18" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="153"/>
-      <c r="B19" s="127" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="106">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="129"/>
+      <c r="B19" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="134"/>
+      <c r="D19" s="73">
         <v>0</v>
       </c>
-      <c r="E19" s="107"/>
-      <c r="F19" s="106">
+      <c r="E19" s="75"/>
+      <c r="F19" s="73">
         <v>1</v>
       </c>
-      <c r="G19" s="107"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="73">
         <v>0</v>
       </c>
-      <c r="J19" s="107"/>
-      <c r="K19" s="106">
+      <c r="J19" s="75"/>
+      <c r="K19" s="73">
         <v>0</v>
       </c>
-      <c r="L19" s="107"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="124"/>
-      <c r="B20" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="132"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="135"/>
+      <c r="B20" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="132"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="103"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="125"/>
-      <c r="B21" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="143">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="136"/>
+      <c r="B21" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="103"/>
+      <c r="D21" s="138">
         <v>0</v>
       </c>
-      <c r="E21" s="144"/>
-      <c r="F21" s="133">
+      <c r="E21" s="139"/>
+      <c r="F21" s="131">
         <v>1</v>
       </c>
-      <c r="G21" s="134"/>
+      <c r="G21" s="132"/>
       <c r="H21" s="17">
         <v>1</v>
       </c>
-      <c r="I21" s="133">
+      <c r="I21" s="131">
         <v>0</v>
       </c>
-      <c r="J21" s="134"/>
-      <c r="K21" s="135">
+      <c r="J21" s="132"/>
+      <c r="K21" s="140">
         <v>0</v>
       </c>
-      <c r="L21" s="136"/>
+      <c r="L21" s="141"/>
       <c r="M21" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="125"/>
-      <c r="B22" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="143">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="136"/>
+      <c r="B22" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="103"/>
+      <c r="D22" s="138">
         <v>1</v>
       </c>
-      <c r="E22" s="144"/>
-      <c r="F22" s="133">
+      <c r="E22" s="139"/>
+      <c r="F22" s="131">
         <v>2</v>
       </c>
-      <c r="G22" s="134"/>
+      <c r="G22" s="132"/>
       <c r="H22" s="17">
         <v>3</v>
       </c>
-      <c r="I22" s="133">
+      <c r="I22" s="131">
         <v>1</v>
       </c>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135">
+      <c r="J22" s="132"/>
+      <c r="K22" s="140">
         <v>0</v>
       </c>
-      <c r="L22" s="136"/>
+      <c r="L22" s="141"/>
       <c r="M22" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="125"/>
-      <c r="B23" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="143">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="136"/>
+      <c r="B23" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="103"/>
+      <c r="D23" s="138">
         <v>0</v>
       </c>
-      <c r="E23" s="144"/>
-      <c r="F23" s="133">
+      <c r="E23" s="139"/>
+      <c r="F23" s="131">
         <v>1</v>
       </c>
-      <c r="G23" s="134"/>
+      <c r="G23" s="132"/>
       <c r="H23" s="17">
         <v>1</v>
       </c>
-      <c r="I23" s="133">
+      <c r="I23" s="131">
         <v>0</v>
       </c>
-      <c r="J23" s="134"/>
-      <c r="K23" s="135">
+      <c r="J23" s="132"/>
+      <c r="K23" s="140">
         <v>0</v>
       </c>
-      <c r="L23" s="136"/>
+      <c r="L23" s="141"/>
       <c r="M23" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="125"/>
-      <c r="B24" s="131" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="143">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="136"/>
+      <c r="B24" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="103"/>
+      <c r="D24" s="138">
         <v>13</v>
       </c>
-      <c r="E24" s="144"/>
-      <c r="F24" s="133">
+      <c r="E24" s="139"/>
+      <c r="F24" s="131">
         <v>23</v>
       </c>
-      <c r="G24" s="134"/>
+      <c r="G24" s="132"/>
       <c r="H24" s="19">
         <v>36</v>
       </c>
-      <c r="I24" s="133">
+      <c r="I24" s="131">
         <v>5</v>
       </c>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135">
+      <c r="J24" s="132"/>
+      <c r="K24" s="140">
         <v>6</v>
       </c>
-      <c r="L24" s="136"/>
+      <c r="L24" s="141"/>
       <c r="M24" s="20">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="125"/>
-      <c r="B25" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="143">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="136"/>
+      <c r="B25" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="103"/>
+      <c r="D25" s="138">
         <v>3</v>
       </c>
-      <c r="E25" s="144"/>
-      <c r="F25" s="133">
+      <c r="E25" s="139"/>
+      <c r="F25" s="131">
         <v>5</v>
       </c>
-      <c r="G25" s="134"/>
+      <c r="G25" s="132"/>
       <c r="H25" s="17">
         <v>8</v>
       </c>
-      <c r="I25" s="133">
+      <c r="I25" s="131">
         <v>1</v>
       </c>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135">
+      <c r="J25" s="132"/>
+      <c r="K25" s="140">
         <v>0</v>
       </c>
-      <c r="L25" s="136"/>
+      <c r="L25" s="141"/>
       <c r="M25" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="125"/>
-      <c r="B26" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="143">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="136"/>
+      <c r="B26" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="103"/>
+      <c r="D26" s="138">
         <v>0</v>
       </c>
-      <c r="E26" s="144"/>
-      <c r="F26" s="133">
+      <c r="E26" s="139"/>
+      <c r="F26" s="131">
         <v>5</v>
       </c>
-      <c r="G26" s="134"/>
+      <c r="G26" s="132"/>
       <c r="H26" s="17">
         <v>5</v>
       </c>
-      <c r="I26" s="133">
+      <c r="I26" s="131">
         <v>2</v>
       </c>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135">
+      <c r="J26" s="132"/>
+      <c r="K26" s="140">
         <v>0</v>
       </c>
-      <c r="L26" s="136"/>
+      <c r="L26" s="141"/>
       <c r="M26" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="126"/>
-      <c r="B27" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="138"/>
-      <c r="D27" s="149">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="137"/>
+      <c r="B27" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144">
         <v>19</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="139">
+      <c r="E27" s="145"/>
+      <c r="F27" s="146">
         <v>67</v>
       </c>
-      <c r="G27" s="140"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="21">
         <v>86</v>
       </c>
-      <c r="I27" s="139">
+      <c r="I27" s="146">
         <v>16</v>
       </c>
-      <c r="J27" s="140"/>
-      <c r="K27" s="141">
+      <c r="J27" s="147"/>
+      <c r="K27" s="148">
         <v>13</v>
       </c>
-      <c r="L27" s="142"/>
+      <c r="L27" s="149"/>
       <c r="M27" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="151" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="132"/>
-      <c r="D28" s="145">
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="103"/>
+      <c r="D28" s="150">
         <v>0</v>
       </c>
-      <c r="E28" s="146"/>
-      <c r="F28" s="106">
+      <c r="E28" s="151"/>
+      <c r="F28" s="73">
         <v>1</v>
       </c>
-      <c r="G28" s="107"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="23">
         <v>1</v>
       </c>
-      <c r="I28" s="106">
+      <c r="I28" s="73">
         <v>0</v>
       </c>
-      <c r="J28" s="107"/>
-      <c r="K28" s="147">
+      <c r="J28" s="75"/>
+      <c r="K28" s="152">
         <v>0</v>
       </c>
-      <c r="L28" s="148"/>
+      <c r="L28" s="153"/>
       <c r="M28" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="152"/>
-      <c r="B29" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="143">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="128"/>
+      <c r="B29" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="103"/>
+      <c r="D29" s="138">
         <v>3</v>
       </c>
-      <c r="E29" s="144"/>
-      <c r="F29" s="133">
+      <c r="E29" s="139"/>
+      <c r="F29" s="131">
         <v>7</v>
       </c>
-      <c r="G29" s="134"/>
+      <c r="G29" s="132"/>
       <c r="H29" s="19">
         <v>10</v>
       </c>
-      <c r="I29" s="133">
+      <c r="I29" s="131">
         <v>3</v>
       </c>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135">
+      <c r="J29" s="132"/>
+      <c r="K29" s="140">
         <v>4</v>
       </c>
-      <c r="L29" s="136"/>
+      <c r="L29" s="141"/>
       <c r="M29" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="152"/>
-      <c r="B30" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="143">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="128"/>
+      <c r="B30" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="138">
         <v>0</v>
       </c>
-      <c r="E30" s="144"/>
-      <c r="F30" s="133">
+      <c r="E30" s="139"/>
+      <c r="F30" s="131">
         <v>1</v>
       </c>
-      <c r="G30" s="134"/>
+      <c r="G30" s="132"/>
       <c r="H30" s="17">
         <v>1</v>
       </c>
-      <c r="I30" s="133">
+      <c r="I30" s="131">
         <v>0</v>
       </c>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135">
+      <c r="J30" s="132"/>
+      <c r="K30" s="140">
         <v>1</v>
       </c>
-      <c r="L30" s="136"/>
+      <c r="L30" s="141"/>
       <c r="M30" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="152"/>
-      <c r="B31" s="131" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="143">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="128"/>
+      <c r="B31" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="103"/>
+      <c r="D31" s="138">
         <v>0</v>
       </c>
-      <c r="E31" s="144"/>
-      <c r="F31" s="133">
+      <c r="E31" s="139"/>
+      <c r="F31" s="131">
         <v>0</v>
       </c>
-      <c r="G31" s="134"/>
+      <c r="G31" s="132"/>
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="133">
+      <c r="I31" s="131">
         <v>1</v>
       </c>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135">
+      <c r="J31" s="132"/>
+      <c r="K31" s="140">
         <v>0</v>
       </c>
-      <c r="L31" s="136"/>
+      <c r="L31" s="141"/>
       <c r="M31" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="152"/>
-      <c r="B32" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="143">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="128"/>
+      <c r="B32" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="103"/>
+      <c r="D32" s="138">
         <v>0</v>
       </c>
-      <c r="E32" s="144"/>
-      <c r="F32" s="133">
+      <c r="E32" s="139"/>
+      <c r="F32" s="131">
         <v>1</v>
       </c>
-      <c r="G32" s="134"/>
+      <c r="G32" s="132"/>
       <c r="H32" s="17">
         <v>1</v>
       </c>
-      <c r="I32" s="133">
+      <c r="I32" s="131">
         <v>0</v>
       </c>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135">
+      <c r="J32" s="132"/>
+      <c r="K32" s="140">
         <v>0</v>
       </c>
-      <c r="L32" s="136"/>
+      <c r="L32" s="141"/>
       <c r="M32" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="153"/>
-      <c r="B33" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="132"/>
-      <c r="D33" s="145">
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="129"/>
+      <c r="B33" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="103"/>
+      <c r="D33" s="150">
         <v>0</v>
       </c>
-      <c r="E33" s="146"/>
-      <c r="F33" s="106">
+      <c r="E33" s="151"/>
+      <c r="F33" s="73">
         <v>2</v>
       </c>
-      <c r="G33" s="107"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="23">
         <v>2</v>
       </c>
-      <c r="I33" s="106">
+      <c r="I33" s="73">
         <v>1</v>
       </c>
-      <c r="J33" s="107"/>
-      <c r="K33" s="147">
+      <c r="J33" s="75"/>
+      <c r="K33" s="152">
         <v>1</v>
       </c>
-      <c r="L33" s="148"/>
+      <c r="L33" s="153"/>
       <c r="M33" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="124"/>
-      <c r="B34" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="130"/>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="135"/>
+      <c r="B34" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="134"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="156"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="129"/>
-      <c r="L34" s="130"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="156"/>
       <c r="M34" s="25"/>
     </row>
-    <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="125"/>
-      <c r="B35" s="131" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="133">
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="136"/>
+      <c r="B35" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="103"/>
+      <c r="D35" s="131">
         <v>3</v>
       </c>
-      <c r="E35" s="134"/>
-      <c r="F35" s="133">
+      <c r="E35" s="132"/>
+      <c r="F35" s="131">
         <v>24</v>
       </c>
-      <c r="G35" s="134"/>
+      <c r="G35" s="132"/>
       <c r="H35" s="19">
         <v>27</v>
       </c>
-      <c r="I35" s="133">
+      <c r="I35" s="131">
         <v>3</v>
       </c>
-      <c r="J35" s="134"/>
-      <c r="K35" s="135">
+      <c r="J35" s="132"/>
+      <c r="K35" s="140">
         <v>6</v>
       </c>
-      <c r="L35" s="136"/>
+      <c r="L35" s="141"/>
       <c r="M35" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="125"/>
-      <c r="B36" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="133">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="136"/>
+      <c r="B36" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="103"/>
+      <c r="D36" s="131">
         <v>1</v>
       </c>
-      <c r="E36" s="134"/>
-      <c r="F36" s="133">
+      <c r="E36" s="132"/>
+      <c r="F36" s="131">
         <v>3</v>
       </c>
-      <c r="G36" s="134"/>
+      <c r="G36" s="132"/>
       <c r="H36" s="17">
         <v>4</v>
       </c>
-      <c r="I36" s="133">
+      <c r="I36" s="131">
         <v>1</v>
       </c>
-      <c r="J36" s="134"/>
-      <c r="K36" s="135">
+      <c r="J36" s="132"/>
+      <c r="K36" s="140">
         <v>0</v>
       </c>
-      <c r="L36" s="136"/>
+      <c r="L36" s="141"/>
       <c r="M36" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="126"/>
-      <c r="B37" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="138"/>
-      <c r="D37" s="139">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="137"/>
+      <c r="B37" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="143"/>
+      <c r="D37" s="146">
         <v>7</v>
       </c>
-      <c r="E37" s="140"/>
-      <c r="F37" s="139">
+      <c r="E37" s="147"/>
+      <c r="F37" s="146">
         <v>39</v>
       </c>
-      <c r="G37" s="140"/>
+      <c r="G37" s="147"/>
       <c r="H37" s="21">
         <v>46</v>
       </c>
-      <c r="I37" s="139">
+      <c r="I37" s="146">
         <v>9</v>
       </c>
-      <c r="J37" s="140"/>
-      <c r="K37" s="141">
+      <c r="J37" s="147"/>
+      <c r="K37" s="148">
         <v>12</v>
       </c>
-      <c r="L37" s="142"/>
+      <c r="L37" s="149"/>
       <c r="M37" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="122"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="122"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="93" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="123" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="123"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="123"/>
-      <c r="L44" s="123"/>
-      <c r="M44" s="123"/>
-      <c r="N44" s="123"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
+      <c r="K44" s="154"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
@@ -6557,82 +6412,76 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6640,89 +6489,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A41DA92-E6A0-8848-AE3D-549F1689C42D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.83203125" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="4" max="4" width="87.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="192" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-    </row>
-    <row r="2" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="64" t="s">
+    <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="157" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="162" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="167">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="163">
+        <v>524</v>
+      </c>
+      <c r="C4" s="163">
+        <v>16</v>
+      </c>
+      <c r="D4" s="164">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="167">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="163">
+        <v>469</v>
+      </c>
+      <c r="C5" s="163">
+        <v>17</v>
+      </c>
+      <c r="D5" s="164">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="168">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="165">
+        <v>386</v>
+      </c>
+      <c r="C6" s="165">
+        <v>31</v>
+      </c>
+      <c r="D6" s="166">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="170" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="33">
-        <v>524</v>
-      </c>
-      <c r="C4" s="33">
-        <v>16</v>
-      </c>
-      <c r="D4" s="27">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="33">
-        <v>469</v>
-      </c>
-      <c r="C5" s="33">
-        <v>17</v>
-      </c>
-      <c r="D5" s="27">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="42">
-        <v>386</v>
-      </c>
-      <c r="C6" s="42">
-        <v>31</v>
-      </c>
-      <c r="D6" s="43">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6730,69 +6587,86 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4872201B-B19E-7446-9802-E7BB87F485A2}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="25.296875" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="193" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:7" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="44">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="171" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="171" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="172" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="173" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="173">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="174">
         <v>5</v>
       </c>
-      <c r="C3" s="42">
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="173" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="173">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="174">
         <v>1</v>
       </c>
-      <c r="D3" s="43">
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="173" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="175" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="174">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6803,229 +6677,435 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A018FA-F9AC-A344-A4A0-22F7F7275504}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="D4" s="36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="G5" s="176" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="36">
+      <c r="D11" s="44">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="44">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="44">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="44">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="44">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="44">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="36">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="36">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="36">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="36">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="36">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="38">
         <v>35</v>
-      </c>
-      <c r="C2" s="8">
-        <v>363</v>
-      </c>
-      <c r="D2" s="9">
-        <v>398</v>
-      </c>
-      <c r="E2" s="36">
-        <v>11</v>
-      </c>
-      <c r="F2" s="36">
-        <v>198</v>
-      </c>
-      <c r="G2" s="28">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="36">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1517</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1518</v>
-      </c>
-      <c r="E3" s="36">
-        <v>2</v>
-      </c>
-      <c r="F3" s="36">
-        <v>831</v>
-      </c>
-      <c r="G3" s="28">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1920</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1920</v>
-      </c>
-      <c r="E4" s="36">
-        <v>1</v>
-      </c>
-      <c r="F4" s="36">
-        <v>940</v>
-      </c>
-      <c r="G4" s="28">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="36">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2523</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2523</v>
-      </c>
-      <c r="E5" s="36">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37">
-        <v>1382</v>
-      </c>
-      <c r="G5" s="29">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="36">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1100</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1104</v>
-      </c>
-      <c r="E6" s="36">
-        <v>1</v>
-      </c>
-      <c r="F6" s="36">
-        <v>520</v>
-      </c>
-      <c r="G6" s="28">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="36">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8">
-        <v>89</v>
-      </c>
-      <c r="D7" s="9">
-        <v>97</v>
-      </c>
-      <c r="E7" s="36">
-        <v>3</v>
-      </c>
-      <c r="F7" s="36">
-        <v>51</v>
-      </c>
-      <c r="G7" s="28">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="56" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="35">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
-        <v>42</v>
-      </c>
-      <c r="D8" s="14">
-        <v>42</v>
-      </c>
-      <c r="E8" s="35">
-        <v>0</v>
-      </c>
-      <c r="F8" s="35">
-        <v>35</v>
-      </c>
-      <c r="G8" s="52">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="49">
-        <v>48</v>
-      </c>
-      <c r="C9" s="50">
-        <v>7554</v>
-      </c>
-      <c r="D9" s="50">
-        <v>7602</v>
-      </c>
-      <c r="E9" s="49">
-        <v>18</v>
-      </c>
-      <c r="F9" s="51">
-        <v>3957</v>
-      </c>
-      <c r="G9" s="53">
-        <v>3975</v>
       </c>
     </row>
   </sheetData>
@@ -7039,593 +7119,1224 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4184C7-D28C-C441-B082-D2AEE83C63D1}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.69921875" style="199" customWidth="1"/>
-    <col min="3" max="3" width="36.69921875" customWidth="1"/>
-    <col min="4" max="4" width="45.5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="36.69921875" customWidth="1"/>
-    <col min="7" max="7" width="45.5" customWidth="1"/>
-    <col min="8" max="8" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-    </row>
-    <row r="2" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="200" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="195" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="72" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46"/>
+      <c r="B2" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="54"/>
+      <c r="B21" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="54"/>
+      <c r="B22" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="73" t="s">
+      <c r="E23" s="37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="54"/>
+      <c r="B27" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="54"/>
+      <c r="B28" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="54"/>
+      <c r="B29" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="54"/>
+      <c r="B30" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="54"/>
+      <c r="B31" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="54"/>
+      <c r="B32" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="196" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B33" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="39">
         <v>0</v>
       </c>
-      <c r="D5" s="27">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
-        <v>9</v>
-      </c>
-      <c r="F5" s="27">
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="39">
         <v>1</v>
       </c>
-      <c r="G5" s="27">
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="37">
         <v>2</v>
       </c>
-      <c r="H5" s="31">
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="54"/>
+      <c r="B39" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
+      <c r="B40" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="39">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="196" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="30">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="54"/>
+      <c r="B45" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="54"/>
+      <c r="B46" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="54"/>
+      <c r="B47" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="54"/>
+      <c r="B48" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="54"/>
+      <c r="B49" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="54"/>
+      <c r="B50" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="39">
         <v>2</v>
       </c>
-      <c r="D6" s="30">
-        <v>20</v>
-      </c>
-      <c r="E6" s="16">
-        <v>22</v>
-      </c>
-      <c r="F6" s="30">
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="54"/>
+      <c r="B57" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="54"/>
+      <c r="B58" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="54"/>
+      <c r="B63" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="54"/>
+      <c r="B64" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="54"/>
+      <c r="B65" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="54"/>
+      <c r="B66" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="39">
         <v>6</v>
       </c>
-      <c r="G6" s="30">
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="54"/>
+      <c r="B67" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="54"/>
+      <c r="B68" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="39">
         <v>4</v>
       </c>
-      <c r="H6" s="62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="196" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="30">
+    </row>
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="39">
         <v>0</v>
       </c>
-      <c r="D7" s="30">
+    </row>
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="39">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+    </row>
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="54"/>
+      <c r="B75" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="54"/>
+      <c r="B76" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="42">
+        <v>2019</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" s="39">
         <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
-        <v>1</v>
-      </c>
-      <c r="H7" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="196" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
-      <c r="B10" s="196" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="196" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="30">
-        <v>1</v>
-      </c>
-      <c r="D11" s="30">
-        <v>2</v>
-      </c>
-      <c r="E11" s="16">
-        <v>3</v>
-      </c>
-      <c r="F11" s="30">
-        <v>1</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
-      <c r="B12" s="196" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="30">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="196" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="30">
-        <v>13</v>
-      </c>
-      <c r="D13" s="30">
-        <v>23</v>
-      </c>
-      <c r="E13" s="16">
-        <v>36</v>
-      </c>
-      <c r="F13" s="30">
-        <v>5</v>
-      </c>
-      <c r="G13" s="30">
-        <v>6</v>
-      </c>
-      <c r="H13" s="62">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
-      <c r="B14" s="196" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="30">
-        <v>3</v>
-      </c>
-      <c r="D14" s="30">
-        <v>5</v>
-      </c>
-      <c r="E14" s="16">
-        <v>8</v>
-      </c>
-      <c r="F14" s="30">
-        <v>1</v>
-      </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="196" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="30">
-        <v>0</v>
-      </c>
-      <c r="D15" s="30">
-        <v>5</v>
-      </c>
-      <c r="E15" s="16">
-        <v>5</v>
-      </c>
-      <c r="F15" s="30">
-        <v>2</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-      <c r="H15" s="62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
-      <c r="B16" s="197" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="31">
-        <v>19</v>
-      </c>
-      <c r="D16" s="31">
-        <v>67</v>
-      </c>
-      <c r="E16" s="2">
-        <v>86</v>
-      </c>
-      <c r="F16" s="31">
-        <v>16</v>
-      </c>
-      <c r="G16" s="31">
-        <v>13</v>
-      </c>
-      <c r="H16" s="31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="196" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="27">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="27">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="196" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="30">
-        <v>3</v>
-      </c>
-      <c r="D18" s="30">
-        <v>7</v>
-      </c>
-      <c r="E18" s="16">
-        <v>10</v>
-      </c>
-      <c r="F18" s="30">
-        <v>3</v>
-      </c>
-      <c r="G18" s="30">
-        <v>4</v>
-      </c>
-      <c r="H18" s="62">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="196" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="30">
-        <v>0</v>
-      </c>
-      <c r="D19" s="30">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1</v>
-      </c>
-      <c r="F19" s="30">
-        <v>0</v>
-      </c>
-      <c r="G19" s="30">
-        <v>1</v>
-      </c>
-      <c r="H19" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="196" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="30">
-        <v>0</v>
-      </c>
-      <c r="D20" s="30">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="30">
-        <v>1</v>
-      </c>
-      <c r="G20" s="30">
-        <v>0</v>
-      </c>
-      <c r="H20" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="196" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="30">
-        <v>0</v>
-      </c>
-      <c r="D21" s="30">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1</v>
-      </c>
-      <c r="F21" s="30">
-        <v>0</v>
-      </c>
-      <c r="G21" s="30">
-        <v>0</v>
-      </c>
-      <c r="H21" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="196" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="27">
-        <v>0</v>
-      </c>
-      <c r="D22" s="27">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="27">
-        <v>1</v>
-      </c>
-      <c r="G22" s="27">
-        <v>1</v>
-      </c>
-      <c r="H22" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
-      <c r="B23" s="198"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
-      <c r="B24" s="196" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="30">
-        <v>3</v>
-      </c>
-      <c r="D24" s="30">
-        <v>24</v>
-      </c>
-      <c r="E24" s="16">
-        <v>27</v>
-      </c>
-      <c r="F24" s="30">
-        <v>3</v>
-      </c>
-      <c r="G24" s="30">
-        <v>6</v>
-      </c>
-      <c r="H24" s="62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="196" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="30">
-        <v>1</v>
-      </c>
-      <c r="D25" s="30">
-        <v>3</v>
-      </c>
-      <c r="E25" s="16">
-        <v>4</v>
-      </c>
-      <c r="F25" s="30">
-        <v>1</v>
-      </c>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-      <c r="H25" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="78">
-        <v>7</v>
-      </c>
-      <c r="D26" s="78">
-        <v>39</v>
-      </c>
-      <c r="E26" s="79">
-        <v>46</v>
-      </c>
-      <c r="F26" s="78">
-        <v>9</v>
-      </c>
-      <c r="G26" s="78">
-        <v>12</v>
-      </c>
-      <c r="H26" s="78">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/EL SALVADOR/Delitos/Informe Femicidios.xlsx
+++ b/EL SALVADOR/Delitos/Informe Femicidios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C49A69-6CE3-4DFB-BBB8-9825365E264D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8EF75-E9E1-4F7B-A221-4C2E9DF58039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2227,7 +2227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2371,15 +2371,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -2400,7 +2391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2554,12 +2545,12 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2572,6 +2563,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2659,6 +2692,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2875,72 +2911,50 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2966,16 +2980,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3001,6 +3005,32 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -3009,8 +3039,352 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3052,80 +3426,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3204,386 +3504,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color rgb="FF000000"/>
@@ -3607,6 +3527,26 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
@@ -3614,34 +3554,25 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4156,52 +4087,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21871D3B-8F3F-4E8B-9A91-1FDD705D243A}" name="Asesinatos_mujeres_por_género_2016_2018" displayName="Asesinatos_mujeres_por_género_2016_2018" ref="A3:D6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21871D3B-8F3F-4E8B-9A91-1FDD705D243A}" name="Asesinatos_mujeres_por_género_2016_2018" displayName="Asesinatos_mujeres_por_género_2016_2018" ref="A3:D6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A3:D6" xr:uid="{58FFDF50-70A5-46EB-A5EF-7A3C46AD0633}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5F620E6D-6C20-4684-9FE9-9B27DF753264}" name="Años" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{CDE9EF35-162F-41F6-ABF3-7E14A40D6AAD}" name="Número total de asesinatos de mujeres intencionales/ homicidios" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{2E705138-AE90-4F61-B5BF-2611F875D8FD}" name="Número total de mujeres asesinadas por pareja íntima" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{8AF8B62B-726A-44D9-AC3F-5A1CFB4A45A5}" name="Número total de feminicidios u homicidios de mujeres por violencia de género" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5F620E6D-6C20-4684-9FE9-9B27DF753264}" name="Años" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CDE9EF35-162F-41F6-ABF3-7E14A40D6AAD}" name="Número total de asesinatos de mujeres intencionales/ homicidios" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2E705138-AE90-4F61-B5BF-2611F875D8FD}" name="Número total de mujeres asesinadas por pareja íntima" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{8AF8B62B-726A-44D9-AC3F-5A1CFB4A45A5}" name="Número total de feminicidios u homicidios de mujeres por violencia de género" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{346A1C5F-9FF3-4C3B-B9C6-663F15B09004}" name="Cantidad_niñas_femicidio_2016_2018" displayName="Cantidad_niñas_femicidio_2016_2018" ref="A2:C5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{346A1C5F-9FF3-4C3B-B9C6-663F15B09004}" name="Cantidad_niñas_femicidio_2016_2018" displayName="Cantidad_niñas_femicidio_2016_2018" ref="A2:C5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A2:C5" xr:uid="{334A8480-CBB1-4AB3-B8AA-3A4F81CA4674}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D761261A-7EE4-42C6-99BA-68A3F800A2CA}" name="Grupo de edad" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{2349DAAD-8399-BA4E-BE50-40BBDCD43D15}" name="Año" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{59189A23-FC7E-43D4-905E-5206256AA718}" name="Cantidad de Víctimas" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D761261A-7EE4-42C6-99BA-68A3F800A2CA}" name="Grupo de edad" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2349DAAD-8399-BA4E-BE50-40BBDCD43D15}" name="Año" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{59189A23-FC7E-43D4-905E-5206256AA718}" name="Cantidad de Víctimas" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0C8BF93-56E1-408F-9541-CDACE47D094F}" name="Tipos_de_delitos_por_tipo_juzgado_2018_2019" displayName="Tipos_de_delitos_por_tipo_juzgado_2018_2019" ref="A3:D31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0C8BF93-56E1-408F-9541-CDACE47D094F}" name="Tipos_de_delitos_por_tipo_juzgado_2018_2019" displayName="Tipos_de_delitos_por_tipo_juzgado_2018_2019" ref="A3:D31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A3:D31" xr:uid="{4590DC7A-9920-4C59-BC25-9636307EB846}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{01121B26-C462-463B-977B-6CA8118AB527}" name="Delitos" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{5C2BEBB4-E24E-6B43-A225-B1E3C8C0BBC6}" name="Año" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{8C1DE1A0-2CF1-4C46-985C-95FC129355A6}" name="Tipo de Juzgado" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{E511E22B-D595-4502-B8F9-896D08763669}" name="Cantida de casos Ingresados" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{01121B26-C462-463B-977B-6CA8118AB527}" name="Delitos" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{5C2BEBB4-E24E-6B43-A225-B1E3C8C0BBC6}" name="Año" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{8C1DE1A0-2CF1-4C46-985C-95FC129355A6}" name="Tipo de Juzgado" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{E511E22B-D595-4502-B8F9-896D08763669}" name="Cantida de casos Ingresados" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{40DBB6A5-8CFE-4769-8445-7644070E6D5E}" name="Casos_con_resultado_de_sentencia_2018_2019" displayName="Casos_con_resultado_de_sentencia_2018_2019" ref="A4:E76" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{40DBB6A5-8CFE-4769-8445-7644070E6D5E}" name="Casos_con_resultado_de_sentencia_2018_2019" displayName="Casos_con_resultado_de_sentencia_2018_2019" ref="A4:E76" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A4:E76" xr:uid="{8E702311-84B1-4E53-91B4-B8FA6F30BFE7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C81BCCBC-F172-4751-B9BB-D3D9ADFE57CC}" name="Tipo de Sentencia" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{D366E9C7-92C1-418B-BCA9-13F897356F8F}" name="Delitos" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{D310E9E4-D70E-6644-BC68-D86EE464ABA3}" name="Año" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{4E233275-C13D-5D4E-8598-3E3F95D396FF}" name="Tipo de Juzgado" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2AB7CA02-3388-437C-B0BB-B8AFAEF7B718}" name="Cantidad de casos con resultado de sentencia" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{C81BCCBC-F172-4751-B9BB-D3D9ADFE57CC}" name="Tipo de Sentencia" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D366E9C7-92C1-418B-BCA9-13F897356F8F}" name="Delitos" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D310E9E4-D70E-6644-BC68-D86EE464ABA3}" name="Año" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{4E233275-C13D-5D4E-8598-3E3F95D396FF}" name="Tipo de Juzgado" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2AB7CA02-3388-437C-B0BB-B8AFAEF7B718}" name="Cantidad de casos con resultado de sentencia" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4556,308 +4487,308 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" ht="204.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
     </row>
     <row r="9" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70" t="s">
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="30" t="s">
         <v>86</v>
       </c>
@@ -4866,16 +4797,16 @@
       <c r="A28" s="2">
         <v>2016</v>
       </c>
-      <c r="B28" s="73">
+      <c r="B28" s="87">
         <v>524</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="73">
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="87">
         <v>16</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="75"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="3">
         <v>346</v>
       </c>
@@ -4884,16 +4815,16 @@
       <c r="A29" s="2">
         <v>2017</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="87">
         <v>469</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="73">
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="87">
         <v>17</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="3">
         <v>354</v>
       </c>
@@ -4902,209 +4833,209 @@
       <c r="A30" s="2">
         <v>2018</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B30" s="87">
         <v>386</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="73">
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="87">
         <v>31</v>
       </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="3">
         <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
     </row>
     <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="79"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="4">
         <v>2016</v>
       </c>
-      <c r="D34" s="80">
+      <c r="D34" s="94">
         <v>2017</v>
       </c>
-      <c r="E34" s="81"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="83"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="73">
+      <c r="D35" s="87">
         <v>1</v>
       </c>
-      <c r="E35" s="75"/>
+      <c r="E35" s="89"/>
       <c r="F35" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="174.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="169" t="s">
+      <c r="A37" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
     </row>
     <row r="38" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
     </row>
     <row r="42" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
     </row>
     <row r="43" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
     </row>
     <row r="44" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
     </row>
     <row r="45" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -5193,1122 +5124,1122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="91" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="91" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="93"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="94" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="95"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="94" t="s">
+      <c r="H2" s="111"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="95"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99">
+      <c r="B3" s="113"/>
+      <c r="C3" s="114">
         <v>35</v>
       </c>
-      <c r="D3" s="100"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="8">
         <v>363</v>
       </c>
       <c r="F3" s="9">
         <v>398</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="114">
         <v>11</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="99">
+      <c r="H3" s="116"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="114">
         <v>198</v>
       </c>
-      <c r="K3" s="100"/>
+      <c r="K3" s="115"/>
       <c r="L3" s="9">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="99">
+      <c r="B4" s="118"/>
+      <c r="C4" s="114">
         <v>1</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="11">
         <v>1517</v>
       </c>
       <c r="F4" s="12">
         <v>1518</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="114">
         <v>2</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="99">
+      <c r="H4" s="116"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="114">
         <v>831</v>
       </c>
-      <c r="K4" s="100"/>
+      <c r="K4" s="115"/>
       <c r="L4" s="9">
         <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99">
+      <c r="B5" s="113"/>
+      <c r="C5" s="114">
         <v>0</v>
       </c>
-      <c r="D5" s="100"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="11">
         <v>1920</v>
       </c>
       <c r="F5" s="12">
         <v>1920</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="114">
         <v>1</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="99">
+      <c r="H5" s="116"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="114">
         <v>940</v>
       </c>
-      <c r="K5" s="100"/>
+      <c r="K5" s="115"/>
       <c r="L5" s="9">
         <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="99">
+      <c r="B6" s="113"/>
+      <c r="C6" s="114">
         <v>0</v>
       </c>
-      <c r="D6" s="100"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="11">
         <v>2523</v>
       </c>
       <c r="F6" s="12">
         <v>2523</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="114">
         <v>0</v>
       </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="104">
+      <c r="H6" s="116"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="119">
         <v>1382</v>
       </c>
-      <c r="K6" s="105"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="12">
         <v>1382</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="99">
+      <c r="B7" s="113"/>
+      <c r="C7" s="114">
         <v>4</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="11">
         <v>1100</v>
       </c>
       <c r="F7" s="12">
         <v>1104</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="114">
         <v>1</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="99">
+      <c r="H7" s="116"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="114">
         <v>520</v>
       </c>
-      <c r="K7" s="100"/>
+      <c r="K7" s="115"/>
       <c r="L7" s="9">
         <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="99">
+      <c r="B8" s="118"/>
+      <c r="C8" s="114">
         <v>8</v>
       </c>
-      <c r="D8" s="100"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="8">
         <v>89</v>
       </c>
       <c r="F8" s="9">
         <v>97</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="114">
         <v>3</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="99">
+      <c r="H8" s="116"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="114">
         <v>51</v>
       </c>
-      <c r="K8" s="100"/>
+      <c r="K8" s="115"/>
       <c r="L8" s="9">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106">
+      <c r="B9" s="118"/>
+      <c r="C9" s="121">
         <v>0</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="13">
         <v>42</v>
       </c>
       <c r="F9" s="14">
         <v>42</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="121">
         <v>0</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="106">
+      <c r="H9" s="123"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="121">
         <v>35</v>
       </c>
-      <c r="K9" s="107"/>
+      <c r="K9" s="122"/>
       <c r="L9" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111">
+      <c r="B10" s="125"/>
+      <c r="C10" s="126">
         <v>48</v>
       </c>
-      <c r="D10" s="112"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="12">
         <v>7554</v>
       </c>
       <c r="F10" s="12">
         <v>7602</v>
       </c>
-      <c r="G10" s="111">
+      <c r="G10" s="126">
         <v>18</v>
       </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="114">
+      <c r="H10" s="128"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="129">
         <v>3957</v>
       </c>
-      <c r="K10" s="115"/>
+      <c r="K10" s="130"/>
       <c r="L10" s="12">
         <v>3975</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="70" t="s">
+      <c r="C14" s="135"/>
+      <c r="D14" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="70" t="s">
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="118"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123" t="s">
+      <c r="A15" s="133"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="125" t="s">
+      <c r="E15" s="139"/>
+      <c r="F15" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="126"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="123" t="s">
+      <c r="I15" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="125" t="s">
+      <c r="J15" s="139"/>
+      <c r="K15" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="126"/>
+      <c r="L15" s="141"/>
       <c r="M15" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="73">
+      <c r="C16" s="118"/>
+      <c r="D16" s="87">
         <v>0</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="73">
+      <c r="E16" s="89"/>
+      <c r="F16" s="87">
         <v>9</v>
       </c>
-      <c r="G16" s="75"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="2">
         <v>9</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="87">
         <v>1</v>
       </c>
-      <c r="J16" s="75"/>
-      <c r="K16" s="73">
+      <c r="J16" s="89"/>
+      <c r="K16" s="87">
         <v>2</v>
       </c>
-      <c r="L16" s="75"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="128"/>
-      <c r="B17" s="130" t="s">
+      <c r="A17" s="143"/>
+      <c r="B17" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="131">
+      <c r="C17" s="118"/>
+      <c r="D17" s="146">
         <v>2</v>
       </c>
-      <c r="E17" s="132"/>
-      <c r="F17" s="131">
+      <c r="E17" s="147"/>
+      <c r="F17" s="146">
         <v>20</v>
       </c>
-      <c r="G17" s="132"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="16">
         <v>22</v>
       </c>
-      <c r="I17" s="131">
+      <c r="I17" s="146">
         <v>6</v>
       </c>
-      <c r="J17" s="132"/>
-      <c r="K17" s="131">
+      <c r="J17" s="147"/>
+      <c r="K17" s="146">
         <v>4</v>
       </c>
-      <c r="L17" s="132"/>
+      <c r="L17" s="147"/>
       <c r="M17" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="128"/>
-      <c r="B18" s="130" t="s">
+      <c r="A18" s="143"/>
+      <c r="B18" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="131">
+      <c r="C18" s="118"/>
+      <c r="D18" s="146">
         <v>0</v>
       </c>
-      <c r="E18" s="132"/>
-      <c r="F18" s="131">
+      <c r="E18" s="147"/>
+      <c r="F18" s="146">
         <v>0</v>
       </c>
-      <c r="G18" s="132"/>
+      <c r="G18" s="147"/>
       <c r="H18" s="16">
         <v>0</v>
       </c>
-      <c r="I18" s="131">
+      <c r="I18" s="146">
         <v>0</v>
       </c>
-      <c r="J18" s="132"/>
-      <c r="K18" s="131">
+      <c r="J18" s="147"/>
+      <c r="K18" s="146">
         <v>1</v>
       </c>
-      <c r="L18" s="132"/>
+      <c r="L18" s="147"/>
       <c r="M18" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="129"/>
-      <c r="B19" s="133" t="s">
+      <c r="A19" s="144"/>
+      <c r="B19" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="73">
+      <c r="C19" s="149"/>
+      <c r="D19" s="87">
         <v>0</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="73">
+      <c r="E19" s="89"/>
+      <c r="F19" s="87">
         <v>1</v>
       </c>
-      <c r="G19" s="75"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="87">
         <v>0</v>
       </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="73">
+      <c r="J19" s="89"/>
+      <c r="K19" s="87">
         <v>0</v>
       </c>
-      <c r="L19" s="75"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="135"/>
-      <c r="B20" s="130" t="s">
+      <c r="A20" s="150"/>
+      <c r="B20" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="103"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="118"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="103"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="118"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="136"/>
-      <c r="B21" s="130" t="s">
+      <c r="A21" s="151"/>
+      <c r="B21" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="138">
+      <c r="C21" s="118"/>
+      <c r="D21" s="153">
         <v>0</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="131">
+      <c r="E21" s="154"/>
+      <c r="F21" s="146">
         <v>1</v>
       </c>
-      <c r="G21" s="132"/>
+      <c r="G21" s="147"/>
       <c r="H21" s="17">
         <v>1</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="146">
         <v>0</v>
       </c>
-      <c r="J21" s="132"/>
-      <c r="K21" s="140">
+      <c r="J21" s="147"/>
+      <c r="K21" s="155">
         <v>0</v>
       </c>
-      <c r="L21" s="141"/>
+      <c r="L21" s="156"/>
       <c r="M21" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="136"/>
-      <c r="B22" s="130" t="s">
+      <c r="A22" s="151"/>
+      <c r="B22" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="138">
+      <c r="C22" s="118"/>
+      <c r="D22" s="153">
         <v>1</v>
       </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="131">
+      <c r="E22" s="154"/>
+      <c r="F22" s="146">
         <v>2</v>
       </c>
-      <c r="G22" s="132"/>
+      <c r="G22" s="147"/>
       <c r="H22" s="17">
         <v>3</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="146">
         <v>1</v>
       </c>
-      <c r="J22" s="132"/>
-      <c r="K22" s="140">
+      <c r="J22" s="147"/>
+      <c r="K22" s="155">
         <v>0</v>
       </c>
-      <c r="L22" s="141"/>
+      <c r="L22" s="156"/>
       <c r="M22" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="136"/>
-      <c r="B23" s="130" t="s">
+      <c r="A23" s="151"/>
+      <c r="B23" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="138">
+      <c r="C23" s="118"/>
+      <c r="D23" s="153">
         <v>0</v>
       </c>
-      <c r="E23" s="139"/>
-      <c r="F23" s="131">
+      <c r="E23" s="154"/>
+      <c r="F23" s="146">
         <v>1</v>
       </c>
-      <c r="G23" s="132"/>
+      <c r="G23" s="147"/>
       <c r="H23" s="17">
         <v>1</v>
       </c>
-      <c r="I23" s="131">
+      <c r="I23" s="146">
         <v>0</v>
       </c>
-      <c r="J23" s="132"/>
-      <c r="K23" s="140">
+      <c r="J23" s="147"/>
+      <c r="K23" s="155">
         <v>0</v>
       </c>
-      <c r="L23" s="141"/>
+      <c r="L23" s="156"/>
       <c r="M23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="136"/>
-      <c r="B24" s="130" t="s">
+      <c r="A24" s="151"/>
+      <c r="B24" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="138">
+      <c r="C24" s="118"/>
+      <c r="D24" s="153">
         <v>13</v>
       </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="131">
+      <c r="E24" s="154"/>
+      <c r="F24" s="146">
         <v>23</v>
       </c>
-      <c r="G24" s="132"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="19">
         <v>36</v>
       </c>
-      <c r="I24" s="131">
+      <c r="I24" s="146">
         <v>5</v>
       </c>
-      <c r="J24" s="132"/>
-      <c r="K24" s="140">
+      <c r="J24" s="147"/>
+      <c r="K24" s="155">
         <v>6</v>
       </c>
-      <c r="L24" s="141"/>
+      <c r="L24" s="156"/>
       <c r="M24" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="136"/>
-      <c r="B25" s="130" t="s">
+      <c r="A25" s="151"/>
+      <c r="B25" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="138">
+      <c r="C25" s="118"/>
+      <c r="D25" s="153">
         <v>3</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="131">
+      <c r="E25" s="154"/>
+      <c r="F25" s="146">
         <v>5</v>
       </c>
-      <c r="G25" s="132"/>
+      <c r="G25" s="147"/>
       <c r="H25" s="17">
         <v>8</v>
       </c>
-      <c r="I25" s="131">
+      <c r="I25" s="146">
         <v>1</v>
       </c>
-      <c r="J25" s="132"/>
-      <c r="K25" s="140">
+      <c r="J25" s="147"/>
+      <c r="K25" s="155">
         <v>0</v>
       </c>
-      <c r="L25" s="141"/>
+      <c r="L25" s="156"/>
       <c r="M25" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="136"/>
-      <c r="B26" s="130" t="s">
+      <c r="A26" s="151"/>
+      <c r="B26" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="138">
+      <c r="C26" s="118"/>
+      <c r="D26" s="153">
         <v>0</v>
       </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="131">
+      <c r="E26" s="154"/>
+      <c r="F26" s="146">
         <v>5</v>
       </c>
-      <c r="G26" s="132"/>
+      <c r="G26" s="147"/>
       <c r="H26" s="17">
         <v>5</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="146">
         <v>2</v>
       </c>
-      <c r="J26" s="132"/>
-      <c r="K26" s="140">
+      <c r="J26" s="147"/>
+      <c r="K26" s="155">
         <v>0</v>
       </c>
-      <c r="L26" s="141"/>
+      <c r="L26" s="156"/>
       <c r="M26" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="137"/>
-      <c r="B27" s="142" t="s">
+      <c r="A27" s="152"/>
+      <c r="B27" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144">
+      <c r="C27" s="158"/>
+      <c r="D27" s="159">
         <v>19</v>
       </c>
-      <c r="E27" s="145"/>
-      <c r="F27" s="146">
+      <c r="E27" s="160"/>
+      <c r="F27" s="161">
         <v>67</v>
       </c>
-      <c r="G27" s="147"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="21">
         <v>86</v>
       </c>
-      <c r="I27" s="146">
+      <c r="I27" s="161">
         <v>16</v>
       </c>
-      <c r="J27" s="147"/>
-      <c r="K27" s="148">
+      <c r="J27" s="162"/>
+      <c r="K27" s="163">
         <v>13</v>
       </c>
-      <c r="L27" s="149"/>
+      <c r="L27" s="164"/>
       <c r="M27" s="22">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="127" t="s">
+      <c r="A28" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="150">
+      <c r="C28" s="118"/>
+      <c r="D28" s="165">
         <v>0</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="73">
+      <c r="E28" s="166"/>
+      <c r="F28" s="87">
         <v>1</v>
       </c>
-      <c r="G28" s="75"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="23">
         <v>1</v>
       </c>
-      <c r="I28" s="73">
+      <c r="I28" s="87">
         <v>0</v>
       </c>
-      <c r="J28" s="75"/>
-      <c r="K28" s="152">
+      <c r="J28" s="89"/>
+      <c r="K28" s="167">
         <v>0</v>
       </c>
-      <c r="L28" s="153"/>
+      <c r="L28" s="168"/>
       <c r="M28" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="128"/>
-      <c r="B29" s="130" t="s">
+      <c r="A29" s="143"/>
+      <c r="B29" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="138">
+      <c r="C29" s="118"/>
+      <c r="D29" s="153">
         <v>3</v>
       </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="131">
+      <c r="E29" s="154"/>
+      <c r="F29" s="146">
         <v>7</v>
       </c>
-      <c r="G29" s="132"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="19">
         <v>10</v>
       </c>
-      <c r="I29" s="131">
+      <c r="I29" s="146">
         <v>3</v>
       </c>
-      <c r="J29" s="132"/>
-      <c r="K29" s="140">
+      <c r="J29" s="147"/>
+      <c r="K29" s="155">
         <v>4</v>
       </c>
-      <c r="L29" s="141"/>
+      <c r="L29" s="156"/>
       <c r="M29" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="128"/>
-      <c r="B30" s="130" t="s">
+      <c r="A30" s="143"/>
+      <c r="B30" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="138">
+      <c r="C30" s="118"/>
+      <c r="D30" s="153">
         <v>0</v>
       </c>
-      <c r="E30" s="139"/>
-      <c r="F30" s="131">
+      <c r="E30" s="154"/>
+      <c r="F30" s="146">
         <v>1</v>
       </c>
-      <c r="G30" s="132"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="17">
         <v>1</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="146">
         <v>0</v>
       </c>
-      <c r="J30" s="132"/>
-      <c r="K30" s="140">
+      <c r="J30" s="147"/>
+      <c r="K30" s="155">
         <v>1</v>
       </c>
-      <c r="L30" s="141"/>
+      <c r="L30" s="156"/>
       <c r="M30" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="128"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="143"/>
+      <c r="B31" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="138">
+      <c r="C31" s="118"/>
+      <c r="D31" s="153">
         <v>0</v>
       </c>
-      <c r="E31" s="139"/>
-      <c r="F31" s="131">
+      <c r="E31" s="154"/>
+      <c r="F31" s="146">
         <v>0</v>
       </c>
-      <c r="G31" s="132"/>
+      <c r="G31" s="147"/>
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="131">
+      <c r="I31" s="146">
         <v>1</v>
       </c>
-      <c r="J31" s="132"/>
-      <c r="K31" s="140">
+      <c r="J31" s="147"/>
+      <c r="K31" s="155">
         <v>0</v>
       </c>
-      <c r="L31" s="141"/>
+      <c r="L31" s="156"/>
       <c r="M31" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="128"/>
-      <c r="B32" s="130" t="s">
+      <c r="A32" s="143"/>
+      <c r="B32" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="138">
+      <c r="C32" s="118"/>
+      <c r="D32" s="153">
         <v>0</v>
       </c>
-      <c r="E32" s="139"/>
-      <c r="F32" s="131">
+      <c r="E32" s="154"/>
+      <c r="F32" s="146">
         <v>1</v>
       </c>
-      <c r="G32" s="132"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="17">
         <v>1</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="146">
         <v>0</v>
       </c>
-      <c r="J32" s="132"/>
-      <c r="K32" s="140">
+      <c r="J32" s="147"/>
+      <c r="K32" s="155">
         <v>0</v>
       </c>
-      <c r="L32" s="141"/>
+      <c r="L32" s="156"/>
       <c r="M32" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="129"/>
-      <c r="B33" s="130" t="s">
+      <c r="A33" s="144"/>
+      <c r="B33" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="150">
+      <c r="C33" s="118"/>
+      <c r="D33" s="165">
         <v>0</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="73">
+      <c r="E33" s="166"/>
+      <c r="F33" s="87">
         <v>2</v>
       </c>
-      <c r="G33" s="75"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="23">
         <v>2</v>
       </c>
-      <c r="I33" s="73">
+      <c r="I33" s="87">
         <v>1</v>
       </c>
-      <c r="J33" s="75"/>
-      <c r="K33" s="152">
+      <c r="J33" s="89"/>
+      <c r="K33" s="167">
         <v>1</v>
       </c>
-      <c r="L33" s="153"/>
+      <c r="L33" s="168"/>
       <c r="M33" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="135"/>
-      <c r="B34" s="133" t="s">
+      <c r="A34" s="150"/>
+      <c r="B34" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="156"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="156"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="171"/>
       <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="136"/>
-      <c r="B35" s="130" t="s">
+      <c r="A35" s="151"/>
+      <c r="B35" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="131">
+      <c r="C35" s="118"/>
+      <c r="D35" s="146">
         <v>3</v>
       </c>
-      <c r="E35" s="132"/>
-      <c r="F35" s="131">
+      <c r="E35" s="147"/>
+      <c r="F35" s="146">
         <v>24</v>
       </c>
-      <c r="G35" s="132"/>
+      <c r="G35" s="147"/>
       <c r="H35" s="19">
         <v>27</v>
       </c>
-      <c r="I35" s="131">
+      <c r="I35" s="146">
         <v>3</v>
       </c>
-      <c r="J35" s="132"/>
-      <c r="K35" s="140">
+      <c r="J35" s="147"/>
+      <c r="K35" s="155">
         <v>6</v>
       </c>
-      <c r="L35" s="141"/>
+      <c r="L35" s="156"/>
       <c r="M35" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="136"/>
-      <c r="B36" s="130" t="s">
+      <c r="A36" s="151"/>
+      <c r="B36" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="131">
+      <c r="C36" s="118"/>
+      <c r="D36" s="146">
         <v>1</v>
       </c>
-      <c r="E36" s="132"/>
-      <c r="F36" s="131">
+      <c r="E36" s="147"/>
+      <c r="F36" s="146">
         <v>3</v>
       </c>
-      <c r="G36" s="132"/>
+      <c r="G36" s="147"/>
       <c r="H36" s="17">
         <v>4</v>
       </c>
-      <c r="I36" s="131">
+      <c r="I36" s="146">
         <v>1</v>
       </c>
-      <c r="J36" s="132"/>
-      <c r="K36" s="140">
+      <c r="J36" s="147"/>
+      <c r="K36" s="155">
         <v>0</v>
       </c>
-      <c r="L36" s="141"/>
+      <c r="L36" s="156"/>
       <c r="M36" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="137"/>
-      <c r="B37" s="142" t="s">
+      <c r="A37" s="152"/>
+      <c r="B37" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="146">
+      <c r="C37" s="158"/>
+      <c r="D37" s="161">
         <v>7</v>
       </c>
-      <c r="E37" s="147"/>
-      <c r="F37" s="146">
+      <c r="E37" s="162"/>
+      <c r="F37" s="161">
         <v>39</v>
       </c>
-      <c r="G37" s="147"/>
+      <c r="G37" s="162"/>
       <c r="H37" s="21">
         <v>46</v>
       </c>
-      <c r="I37" s="146">
+      <c r="I37" s="161">
         <v>9</v>
       </c>
-      <c r="J37" s="147"/>
-      <c r="K37" s="148">
+      <c r="J37" s="162"/>
+      <c r="K37" s="163">
         <v>12</v>
       </c>
-      <c r="L37" s="149"/>
+      <c r="L37" s="164"/>
       <c r="M37" s="22">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="131"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="154" t="s">
+      <c r="A44" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="154"/>
-      <c r="K44" s="154"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
-      <c r="N44" s="154"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="169"/>
+      <c r="M44" s="169"/>
+      <c r="N44" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="170">
@@ -6491,25 +6422,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A41DA92-E6A0-8848-AE3D-549F1689C42D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.83203125" customWidth="1"/>
-    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
     <col min="4" max="4" width="87.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
@@ -6518,59 +6449,59 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="160" t="s">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="D3" s="59" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="167">
+      <c r="A4" s="173">
         <v>2016</v>
       </c>
-      <c r="B4" s="163">
+      <c r="B4" s="60">
         <v>524</v>
       </c>
-      <c r="C4" s="163">
+      <c r="C4" s="60">
         <v>16</v>
       </c>
-      <c r="D4" s="164">
+      <c r="D4" s="61">
         <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="167">
+      <c r="A5" s="173">
         <v>2017</v>
       </c>
-      <c r="B5" s="163">
+      <c r="B5" s="60">
         <v>469</v>
       </c>
-      <c r="C5" s="163">
+      <c r="C5" s="60">
         <v>17</v>
       </c>
-      <c r="D5" s="164">
+      <c r="D5" s="61">
         <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="168">
+      <c r="A6" s="174">
         <v>2018</v>
       </c>
-      <c r="B6" s="165">
+      <c r="B6" s="62">
         <v>386</v>
       </c>
-      <c r="C6" s="165">
+      <c r="C6" s="62">
         <v>31</v>
       </c>
-      <c r="D6" s="166">
+      <c r="D6" s="63">
         <v>232</v>
       </c>
     </row>
@@ -6578,7 +6509,7 @@
       <c r="B8" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="170" t="s">
+      <c r="D8" s="64" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6599,66 +6530,66 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="68" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="173">
+      <c r="B3" s="175">
         <v>2016</v>
       </c>
-      <c r="C3" s="174">
+      <c r="C3" s="70">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="173">
+      <c r="B4" s="175">
         <v>2017</v>
       </c>
-      <c r="C4" s="174">
+      <c r="C4" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="174">
+      <c r="C5" s="70">
         <v>2</v>
       </c>
     </row>
@@ -6679,8 +6610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A018FA-F9AC-A344-A4A0-22F7F7275504}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6740,7 +6671,7 @@
       <c r="D5" s="36">
         <v>1</v>
       </c>
-      <c r="G5" s="176" t="s">
+      <c r="G5" s="65" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6997,7 +6928,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="66" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="42">
@@ -7122,15 +7053,15 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="138" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="33" customWidth="1"/>
     <col min="5" max="5" width="61.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/EL SALVADOR/Delitos/Informe Femicidios.xlsx
+++ b/EL SALVADOR/Delitos/Informe Femicidios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8EF75-E9E1-4F7B-A221-4C2E9DF58039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C00070-A4FA-4955-A756-D8966A2B12E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -1962,7 +1962,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2149,12 +2149,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2391,7 +2385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2497,7 +2491,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2530,16 +2524,16 @@
     <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2554,56 +2548,65 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2692,7 +2695,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2910,18 +2913,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2929,6 +2920,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2940,20 +2951,278 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2998,6 +3267,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3018,156 +3288,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -3175,216 +3299,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3495,6 +3410,82 @@
           <color rgb="FF000000"/>
         </left>
         <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
@@ -4090,49 +4081,49 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21871D3B-8F3F-4E8B-9A91-1FDD705D243A}" name="Asesinatos_mujeres_por_género_2016_2018" displayName="Asesinatos_mujeres_por_género_2016_2018" ref="A3:D6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A3:D6" xr:uid="{58FFDF50-70A5-46EB-A5EF-7A3C46AD0633}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5F620E6D-6C20-4684-9FE9-9B27DF753264}" name="Años" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CDE9EF35-162F-41F6-ABF3-7E14A40D6AAD}" name="Número total de asesinatos de mujeres intencionales/ homicidios" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2E705138-AE90-4F61-B5BF-2611F875D8FD}" name="Número total de mujeres asesinadas por pareja íntima" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{8AF8B62B-726A-44D9-AC3F-5A1CFB4A45A5}" name="Número total de feminicidios u homicidios de mujeres por violencia de género" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{5F620E6D-6C20-4684-9FE9-9B27DF753264}" name="Años" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{CDE9EF35-162F-41F6-ABF3-7E14A40D6AAD}" name="Número total de asesinatos de mujeres intencionales/ homicidios" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{2E705138-AE90-4F61-B5BF-2611F875D8FD}" name="Número total de mujeres asesinadas por pareja íntima" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{8AF8B62B-726A-44D9-AC3F-5A1CFB4A45A5}" name="Número total de feminicidios u homicidios de mujeres por violencia de género" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{346A1C5F-9FF3-4C3B-B9C6-663F15B09004}" name="Cantidad_niñas_femicidio_2016_2018" displayName="Cantidad_niñas_femicidio_2016_2018" ref="A2:C5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{346A1C5F-9FF3-4C3B-B9C6-663F15B09004}" name="Cantidad_niñas_femicidio_2016_2018" displayName="Cantidad_niñas_femicidio_2016_2018" ref="A2:C5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A2:C5" xr:uid="{334A8480-CBB1-4AB3-B8AA-3A4F81CA4674}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D761261A-7EE4-42C6-99BA-68A3F800A2CA}" name="Grupo de edad" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2349DAAD-8399-BA4E-BE50-40BBDCD43D15}" name="Año" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{59189A23-FC7E-43D4-905E-5206256AA718}" name="Cantidad de Víctimas" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D761261A-7EE4-42C6-99BA-68A3F800A2CA}" name="Grupo de edad" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{2349DAAD-8399-BA4E-BE50-40BBDCD43D15}" name="Año" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{59189A23-FC7E-43D4-905E-5206256AA718}" name="Cantidad de Víctimas" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0C8BF93-56E1-408F-9541-CDACE47D094F}" name="Tipos_de_delitos_por_tipo_juzgado_2018_2019" displayName="Tipos_de_delitos_por_tipo_juzgado_2018_2019" ref="A3:D31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0C8BF93-56E1-408F-9541-CDACE47D094F}" name="Tipos_de_delitos_por_tipo_juzgado_2018_2019" displayName="Tipos_de_delitos_por_tipo_juzgado_2018_2019" ref="A3:D31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A3:D31" xr:uid="{4590DC7A-9920-4C59-BC25-9636307EB846}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{01121B26-C462-463B-977B-6CA8118AB527}" name="Delitos" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{5C2BEBB4-E24E-6B43-A225-B1E3C8C0BBC6}" name="Año" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{8C1DE1A0-2CF1-4C46-985C-95FC129355A6}" name="Tipo de Juzgado" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{E511E22B-D595-4502-B8F9-896D08763669}" name="Cantida de casos Ingresados" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{01121B26-C462-463B-977B-6CA8118AB527}" name="Delitos" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5C2BEBB4-E24E-6B43-A225-B1E3C8C0BBC6}" name="Año" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{8C1DE1A0-2CF1-4C46-985C-95FC129355A6}" name="Tipo de Juzgado" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E511E22B-D595-4502-B8F9-896D08763669}" name="Cantida de casos Ingresados" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{40DBB6A5-8CFE-4769-8445-7644070E6D5E}" name="Casos_con_resultado_de_sentencia_2018_2019" displayName="Casos_con_resultado_de_sentencia_2018_2019" ref="A4:E76" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{40DBB6A5-8CFE-4769-8445-7644070E6D5E}" name="Casos_con_resultado_de_sentencia_2018_2019" displayName="Casos_con_resultado_de_sentencia_2018_2019" ref="A4:E76" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A4:E76" xr:uid="{8E702311-84B1-4E53-91B4-B8FA6F30BFE7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C81BCCBC-F172-4751-B9BB-D3D9ADFE57CC}" name="Tipo de Sentencia" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{D366E9C7-92C1-418B-BCA9-13F897356F8F}" name="Delitos" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D310E9E4-D70E-6644-BC68-D86EE464ABA3}" name="Año" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{4E233275-C13D-5D4E-8598-3E3F95D396FF}" name="Tipo de Juzgado" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2AB7CA02-3388-437C-B0BB-B8AFAEF7B718}" name="Cantidad de casos con resultado de sentencia" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{C81BCCBC-F172-4751-B9BB-D3D9ADFE57CC}" name="Tipo de Sentencia" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D366E9C7-92C1-418B-BCA9-13F897356F8F}" name="Delitos" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D310E9E4-D70E-6644-BC68-D86EE464ABA3}" name="Año" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4E233275-C13D-5D4E-8598-3E3F95D396FF}" name="Tipo de Juzgado" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2AB7CA02-3388-437C-B0BB-B8AFAEF7B718}" name="Cantidad de casos con resultado de sentencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4461,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4487,308 +4478,308 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" ht="204.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
     </row>
     <row r="9" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
     </row>
     <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84" t="s">
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="30" t="s">
         <v>86</v>
       </c>
@@ -4797,16 +4788,16 @@
       <c r="A28" s="2">
         <v>2016</v>
       </c>
-      <c r="B28" s="87">
+      <c r="B28" s="90">
         <v>524</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="87">
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="90">
         <v>16</v>
       </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="3">
         <v>346</v>
       </c>
@@ -4815,16 +4806,16 @@
       <c r="A29" s="2">
         <v>2017</v>
       </c>
-      <c r="B29" s="87">
+      <c r="B29" s="90">
         <v>469</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="87">
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="90">
         <v>17</v>
       </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="92"/>
       <c r="H29" s="3">
         <v>354</v>
       </c>
@@ -4833,209 +4824,209 @@
       <c r="A30" s="2">
         <v>2018</v>
       </c>
-      <c r="B30" s="87">
+      <c r="B30" s="90">
         <v>386</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="87">
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="90">
         <v>31</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="92"/>
       <c r="H30" s="3">
         <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
     </row>
     <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="93"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="4">
         <v>2016</v>
       </c>
-      <c r="D34" s="94">
+      <c r="D34" s="97">
         <v>2017</v>
       </c>
-      <c r="E34" s="95"/>
+      <c r="E34" s="98"/>
       <c r="F34" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="97"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="87">
+      <c r="D35" s="90">
         <v>1</v>
       </c>
-      <c r="E35" s="89"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="174.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
     </row>
     <row r="37" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
     </row>
     <row r="38" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
     </row>
     <row r="40" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
     </row>
     <row r="41" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
     </row>
     <row r="42" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
     </row>
     <row r="43" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99" t="s">
+      <c r="A44" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
     </row>
     <row r="45" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -5124,1122 +5115,1122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="106" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="108"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="109" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="113"/>
       <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="109" t="s">
+      <c r="H2" s="114"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="110"/>
+      <c r="K2" s="113"/>
       <c r="L2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="114">
+      <c r="B3" s="116"/>
+      <c r="C3" s="117">
         <v>35</v>
       </c>
-      <c r="D3" s="115"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="8">
         <v>363</v>
       </c>
       <c r="F3" s="9">
         <v>398</v>
       </c>
-      <c r="G3" s="114">
+      <c r="G3" s="117">
         <v>11</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="114">
+      <c r="H3" s="119"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="117">
         <v>198</v>
       </c>
-      <c r="K3" s="115"/>
+      <c r="K3" s="118"/>
       <c r="L3" s="9">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="114">
+      <c r="B4" s="121"/>
+      <c r="C4" s="117">
         <v>1</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="11">
         <v>1517</v>
       </c>
       <c r="F4" s="12">
         <v>1518</v>
       </c>
-      <c r="G4" s="114">
+      <c r="G4" s="117">
         <v>2</v>
       </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="114">
+      <c r="H4" s="119"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="117">
         <v>831</v>
       </c>
-      <c r="K4" s="115"/>
+      <c r="K4" s="118"/>
       <c r="L4" s="9">
         <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114">
+      <c r="B5" s="116"/>
+      <c r="C5" s="117">
         <v>0</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="11">
         <v>1920</v>
       </c>
       <c r="F5" s="12">
         <v>1920</v>
       </c>
-      <c r="G5" s="114">
+      <c r="G5" s="117">
         <v>1</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="114">
+      <c r="H5" s="119"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="117">
         <v>940</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="118"/>
       <c r="L5" s="9">
         <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114">
+      <c r="B6" s="116"/>
+      <c r="C6" s="117">
         <v>0</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="11">
         <v>2523</v>
       </c>
       <c r="F6" s="12">
         <v>2523</v>
       </c>
-      <c r="G6" s="114">
+      <c r="G6" s="117">
         <v>0</v>
       </c>
-      <c r="H6" s="116"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="119">
+      <c r="H6" s="119"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="122">
         <v>1382</v>
       </c>
-      <c r="K6" s="120"/>
+      <c r="K6" s="123"/>
       <c r="L6" s="12">
         <v>1382</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="114">
+      <c r="B7" s="116"/>
+      <c r="C7" s="117">
         <v>4</v>
       </c>
-      <c r="D7" s="115"/>
+      <c r="D7" s="118"/>
       <c r="E7" s="11">
         <v>1100</v>
       </c>
       <c r="F7" s="12">
         <v>1104</v>
       </c>
-      <c r="G7" s="114">
+      <c r="G7" s="117">
         <v>1</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="114">
+      <c r="H7" s="119"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="117">
         <v>520</v>
       </c>
-      <c r="K7" s="115"/>
+      <c r="K7" s="118"/>
       <c r="L7" s="9">
         <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="114">
+      <c r="B8" s="121"/>
+      <c r="C8" s="117">
         <v>8</v>
       </c>
-      <c r="D8" s="115"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="8">
         <v>89</v>
       </c>
       <c r="F8" s="9">
         <v>97</v>
       </c>
-      <c r="G8" s="114">
+      <c r="G8" s="117">
         <v>3</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="114">
+      <c r="H8" s="119"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="117">
         <v>51</v>
       </c>
-      <c r="K8" s="115"/>
+      <c r="K8" s="118"/>
       <c r="L8" s="9">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121">
+      <c r="B9" s="121"/>
+      <c r="C9" s="124">
         <v>0</v>
       </c>
-      <c r="D9" s="122"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="13">
         <v>42</v>
       </c>
       <c r="F9" s="14">
         <v>42</v>
       </c>
-      <c r="G9" s="121">
+      <c r="G9" s="124">
         <v>0</v>
       </c>
-      <c r="H9" s="123"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="121">
+      <c r="H9" s="126"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="124">
         <v>35</v>
       </c>
-      <c r="K9" s="122"/>
+      <c r="K9" s="125"/>
       <c r="L9" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="126">
+      <c r="B10" s="128"/>
+      <c r="C10" s="129">
         <v>48</v>
       </c>
-      <c r="D10" s="127"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="12">
         <v>7554</v>
       </c>
       <c r="F10" s="12">
         <v>7602</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G10" s="129">
         <v>18</v>
       </c>
-      <c r="H10" s="128"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="129">
+      <c r="H10" s="131"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="132">
         <v>3957</v>
       </c>
-      <c r="K10" s="130"/>
+      <c r="K10" s="133"/>
       <c r="L10" s="12">
         <v>3975</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="84" t="s">
+      <c r="C14" s="138"/>
+      <c r="D14" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="84" t="s">
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="86"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="133"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="139"/>
-      <c r="F15" s="140" t="s">
+      <c r="E15" s="142"/>
+      <c r="F15" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="141"/>
+      <c r="G15" s="144"/>
       <c r="H15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="138" t="s">
+      <c r="I15" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="139"/>
-      <c r="K15" s="140" t="s">
+      <c r="J15" s="142"/>
+      <c r="K15" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="141"/>
+      <c r="L15" s="144"/>
       <c r="M15" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="87">
+      <c r="C16" s="121"/>
+      <c r="D16" s="90">
         <v>0</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="87">
+      <c r="E16" s="92"/>
+      <c r="F16" s="90">
         <v>9</v>
       </c>
-      <c r="G16" s="89"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="2">
         <v>9</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I16" s="90">
         <v>1</v>
       </c>
-      <c r="J16" s="89"/>
-      <c r="K16" s="87">
+      <c r="J16" s="92"/>
+      <c r="K16" s="90">
         <v>2</v>
       </c>
-      <c r="L16" s="89"/>
+      <c r="L16" s="92"/>
       <c r="M16" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="143"/>
-      <c r="B17" s="145" t="s">
+      <c r="A17" s="146"/>
+      <c r="B17" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="146">
+      <c r="C17" s="121"/>
+      <c r="D17" s="149">
         <v>2</v>
       </c>
-      <c r="E17" s="147"/>
-      <c r="F17" s="146">
+      <c r="E17" s="150"/>
+      <c r="F17" s="149">
         <v>20</v>
       </c>
-      <c r="G17" s="147"/>
+      <c r="G17" s="150"/>
       <c r="H17" s="16">
         <v>22</v>
       </c>
-      <c r="I17" s="146">
+      <c r="I17" s="149">
         <v>6</v>
       </c>
-      <c r="J17" s="147"/>
-      <c r="K17" s="146">
+      <c r="J17" s="150"/>
+      <c r="K17" s="149">
         <v>4</v>
       </c>
-      <c r="L17" s="147"/>
+      <c r="L17" s="150"/>
       <c r="M17" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="143"/>
-      <c r="B18" s="145" t="s">
+      <c r="A18" s="146"/>
+      <c r="B18" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="146">
+      <c r="C18" s="121"/>
+      <c r="D18" s="149">
         <v>0</v>
       </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="146">
+      <c r="E18" s="150"/>
+      <c r="F18" s="149">
         <v>0</v>
       </c>
-      <c r="G18" s="147"/>
+      <c r="G18" s="150"/>
       <c r="H18" s="16">
         <v>0</v>
       </c>
-      <c r="I18" s="146">
+      <c r="I18" s="149">
         <v>0</v>
       </c>
-      <c r="J18" s="147"/>
-      <c r="K18" s="146">
+      <c r="J18" s="150"/>
+      <c r="K18" s="149">
         <v>1</v>
       </c>
-      <c r="L18" s="147"/>
+      <c r="L18" s="150"/>
       <c r="M18" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="144"/>
-      <c r="B19" s="148" t="s">
+      <c r="A19" s="147"/>
+      <c r="B19" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="149"/>
-      <c r="D19" s="87">
+      <c r="C19" s="152"/>
+      <c r="D19" s="90">
         <v>0</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="87">
+      <c r="E19" s="92"/>
+      <c r="F19" s="90">
         <v>1</v>
       </c>
-      <c r="G19" s="89"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="87">
+      <c r="I19" s="90">
         <v>0</v>
       </c>
-      <c r="J19" s="89"/>
-      <c r="K19" s="87">
+      <c r="J19" s="92"/>
+      <c r="K19" s="90">
         <v>0</v>
       </c>
-      <c r="L19" s="89"/>
+      <c r="L19" s="92"/>
       <c r="M19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="150"/>
-      <c r="B20" s="145" t="s">
+      <c r="A20" s="153"/>
+      <c r="B20" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="118"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="118"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="121"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="151"/>
-      <c r="B21" s="145" t="s">
+      <c r="A21" s="154"/>
+      <c r="B21" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="153">
+      <c r="C21" s="121"/>
+      <c r="D21" s="156">
         <v>0</v>
       </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="146">
+      <c r="E21" s="157"/>
+      <c r="F21" s="149">
         <v>1</v>
       </c>
-      <c r="G21" s="147"/>
+      <c r="G21" s="150"/>
       <c r="H21" s="17">
         <v>1</v>
       </c>
-      <c r="I21" s="146">
+      <c r="I21" s="149">
         <v>0</v>
       </c>
-      <c r="J21" s="147"/>
-      <c r="K21" s="155">
+      <c r="J21" s="150"/>
+      <c r="K21" s="158">
         <v>0</v>
       </c>
-      <c r="L21" s="156"/>
+      <c r="L21" s="159"/>
       <c r="M21" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="151"/>
-      <c r="B22" s="145" t="s">
+      <c r="A22" s="154"/>
+      <c r="B22" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="153">
+      <c r="C22" s="121"/>
+      <c r="D22" s="156">
         <v>1</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="146">
+      <c r="E22" s="157"/>
+      <c r="F22" s="149">
         <v>2</v>
       </c>
-      <c r="G22" s="147"/>
+      <c r="G22" s="150"/>
       <c r="H22" s="17">
         <v>3</v>
       </c>
-      <c r="I22" s="146">
+      <c r="I22" s="149">
         <v>1</v>
       </c>
-      <c r="J22" s="147"/>
-      <c r="K22" s="155">
+      <c r="J22" s="150"/>
+      <c r="K22" s="158">
         <v>0</v>
       </c>
-      <c r="L22" s="156"/>
+      <c r="L22" s="159"/>
       <c r="M22" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="151"/>
-      <c r="B23" s="145" t="s">
+      <c r="A23" s="154"/>
+      <c r="B23" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="153">
+      <c r="C23" s="121"/>
+      <c r="D23" s="156">
         <v>0</v>
       </c>
-      <c r="E23" s="154"/>
-      <c r="F23" s="146">
+      <c r="E23" s="157"/>
+      <c r="F23" s="149">
         <v>1</v>
       </c>
-      <c r="G23" s="147"/>
+      <c r="G23" s="150"/>
       <c r="H23" s="17">
         <v>1</v>
       </c>
-      <c r="I23" s="146">
+      <c r="I23" s="149">
         <v>0</v>
       </c>
-      <c r="J23" s="147"/>
-      <c r="K23" s="155">
+      <c r="J23" s="150"/>
+      <c r="K23" s="158">
         <v>0</v>
       </c>
-      <c r="L23" s="156"/>
+      <c r="L23" s="159"/>
       <c r="M23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="151"/>
-      <c r="B24" s="145" t="s">
+      <c r="A24" s="154"/>
+      <c r="B24" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="153">
+      <c r="C24" s="121"/>
+      <c r="D24" s="156">
         <v>13</v>
       </c>
-      <c r="E24" s="154"/>
-      <c r="F24" s="146">
+      <c r="E24" s="157"/>
+      <c r="F24" s="149">
         <v>23</v>
       </c>
-      <c r="G24" s="147"/>
+      <c r="G24" s="150"/>
       <c r="H24" s="19">
         <v>36</v>
       </c>
-      <c r="I24" s="146">
+      <c r="I24" s="149">
         <v>5</v>
       </c>
-      <c r="J24" s="147"/>
-      <c r="K24" s="155">
+      <c r="J24" s="150"/>
+      <c r="K24" s="158">
         <v>6</v>
       </c>
-      <c r="L24" s="156"/>
+      <c r="L24" s="159"/>
       <c r="M24" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="151"/>
-      <c r="B25" s="145" t="s">
+      <c r="A25" s="154"/>
+      <c r="B25" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="153">
+      <c r="C25" s="121"/>
+      <c r="D25" s="156">
         <v>3</v>
       </c>
-      <c r="E25" s="154"/>
-      <c r="F25" s="146">
+      <c r="E25" s="157"/>
+      <c r="F25" s="149">
         <v>5</v>
       </c>
-      <c r="G25" s="147"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="17">
         <v>8</v>
       </c>
-      <c r="I25" s="146">
+      <c r="I25" s="149">
         <v>1</v>
       </c>
-      <c r="J25" s="147"/>
-      <c r="K25" s="155">
+      <c r="J25" s="150"/>
+      <c r="K25" s="158">
         <v>0</v>
       </c>
-      <c r="L25" s="156"/>
+      <c r="L25" s="159"/>
       <c r="M25" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="151"/>
-      <c r="B26" s="145" t="s">
+      <c r="A26" s="154"/>
+      <c r="B26" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="153">
+      <c r="C26" s="121"/>
+      <c r="D26" s="156">
         <v>0</v>
       </c>
-      <c r="E26" s="154"/>
-      <c r="F26" s="146">
+      <c r="E26" s="157"/>
+      <c r="F26" s="149">
         <v>5</v>
       </c>
-      <c r="G26" s="147"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="17">
         <v>5</v>
       </c>
-      <c r="I26" s="146">
+      <c r="I26" s="149">
         <v>2</v>
       </c>
-      <c r="J26" s="147"/>
-      <c r="K26" s="155">
+      <c r="J26" s="150"/>
+      <c r="K26" s="158">
         <v>0</v>
       </c>
-      <c r="L26" s="156"/>
+      <c r="L26" s="159"/>
       <c r="M26" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="152"/>
-      <c r="B27" s="157" t="s">
+      <c r="A27" s="155"/>
+      <c r="B27" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159">
+      <c r="C27" s="161"/>
+      <c r="D27" s="162">
         <v>19</v>
       </c>
-      <c r="E27" s="160"/>
-      <c r="F27" s="161">
+      <c r="E27" s="163"/>
+      <c r="F27" s="164">
         <v>67</v>
       </c>
-      <c r="G27" s="162"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="21">
         <v>86</v>
       </c>
-      <c r="I27" s="161">
+      <c r="I27" s="164">
         <v>16</v>
       </c>
-      <c r="J27" s="162"/>
-      <c r="K27" s="163">
+      <c r="J27" s="165"/>
+      <c r="K27" s="166">
         <v>13</v>
       </c>
-      <c r="L27" s="164"/>
+      <c r="L27" s="167"/>
       <c r="M27" s="22">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="165">
+      <c r="C28" s="121"/>
+      <c r="D28" s="168">
         <v>0</v>
       </c>
-      <c r="E28" s="166"/>
-      <c r="F28" s="87">
+      <c r="E28" s="169"/>
+      <c r="F28" s="90">
         <v>1</v>
       </c>
-      <c r="G28" s="89"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="23">
         <v>1</v>
       </c>
-      <c r="I28" s="87">
+      <c r="I28" s="90">
         <v>0</v>
       </c>
-      <c r="J28" s="89"/>
-      <c r="K28" s="167">
+      <c r="J28" s="92"/>
+      <c r="K28" s="170">
         <v>0</v>
       </c>
-      <c r="L28" s="168"/>
+      <c r="L28" s="171"/>
       <c r="M28" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="143"/>
-      <c r="B29" s="145" t="s">
+      <c r="A29" s="146"/>
+      <c r="B29" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="153">
+      <c r="C29" s="121"/>
+      <c r="D29" s="156">
         <v>3</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="146">
+      <c r="E29" s="157"/>
+      <c r="F29" s="149">
         <v>7</v>
       </c>
-      <c r="G29" s="147"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="19">
         <v>10</v>
       </c>
-      <c r="I29" s="146">
+      <c r="I29" s="149">
         <v>3</v>
       </c>
-      <c r="J29" s="147"/>
-      <c r="K29" s="155">
+      <c r="J29" s="150"/>
+      <c r="K29" s="158">
         <v>4</v>
       </c>
-      <c r="L29" s="156"/>
+      <c r="L29" s="159"/>
       <c r="M29" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="143"/>
-      <c r="B30" s="145" t="s">
+      <c r="A30" s="146"/>
+      <c r="B30" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="153">
+      <c r="C30" s="121"/>
+      <c r="D30" s="156">
         <v>0</v>
       </c>
-      <c r="E30" s="154"/>
-      <c r="F30" s="146">
+      <c r="E30" s="157"/>
+      <c r="F30" s="149">
         <v>1</v>
       </c>
-      <c r="G30" s="147"/>
+      <c r="G30" s="150"/>
       <c r="H30" s="17">
         <v>1</v>
       </c>
-      <c r="I30" s="146">
+      <c r="I30" s="149">
         <v>0</v>
       </c>
-      <c r="J30" s="147"/>
-      <c r="K30" s="155">
+      <c r="J30" s="150"/>
+      <c r="K30" s="158">
         <v>1</v>
       </c>
-      <c r="L30" s="156"/>
+      <c r="L30" s="159"/>
       <c r="M30" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="143"/>
-      <c r="B31" s="145" t="s">
+      <c r="A31" s="146"/>
+      <c r="B31" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="153">
+      <c r="C31" s="121"/>
+      <c r="D31" s="156">
         <v>0</v>
       </c>
-      <c r="E31" s="154"/>
-      <c r="F31" s="146">
+      <c r="E31" s="157"/>
+      <c r="F31" s="149">
         <v>0</v>
       </c>
-      <c r="G31" s="147"/>
+      <c r="G31" s="150"/>
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="146">
+      <c r="I31" s="149">
         <v>1</v>
       </c>
-      <c r="J31" s="147"/>
-      <c r="K31" s="155">
+      <c r="J31" s="150"/>
+      <c r="K31" s="158">
         <v>0</v>
       </c>
-      <c r="L31" s="156"/>
+      <c r="L31" s="159"/>
       <c r="M31" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="143"/>
-      <c r="B32" s="145" t="s">
+      <c r="A32" s="146"/>
+      <c r="B32" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="153">
+      <c r="C32" s="121"/>
+      <c r="D32" s="156">
         <v>0</v>
       </c>
-      <c r="E32" s="154"/>
-      <c r="F32" s="146">
+      <c r="E32" s="157"/>
+      <c r="F32" s="149">
         <v>1</v>
       </c>
-      <c r="G32" s="147"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="17">
         <v>1</v>
       </c>
-      <c r="I32" s="146">
+      <c r="I32" s="149">
         <v>0</v>
       </c>
-      <c r="J32" s="147"/>
-      <c r="K32" s="155">
+      <c r="J32" s="150"/>
+      <c r="K32" s="158">
         <v>0</v>
       </c>
-      <c r="L32" s="156"/>
+      <c r="L32" s="159"/>
       <c r="M32" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="144"/>
-      <c r="B33" s="145" t="s">
+      <c r="A33" s="147"/>
+      <c r="B33" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="165">
+      <c r="C33" s="121"/>
+      <c r="D33" s="168">
         <v>0</v>
       </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="87">
+      <c r="E33" s="169"/>
+      <c r="F33" s="90">
         <v>2</v>
       </c>
-      <c r="G33" s="89"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="23">
         <v>2</v>
       </c>
-      <c r="I33" s="87">
+      <c r="I33" s="90">
         <v>1</v>
       </c>
-      <c r="J33" s="89"/>
-      <c r="K33" s="167">
+      <c r="J33" s="92"/>
+      <c r="K33" s="170">
         <v>1</v>
       </c>
-      <c r="L33" s="168"/>
+      <c r="L33" s="171"/>
       <c r="M33" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="150"/>
-      <c r="B34" s="148" t="s">
+      <c r="A34" s="153"/>
+      <c r="B34" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="171"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="174"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="171"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="174"/>
       <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="151"/>
-      <c r="B35" s="145" t="s">
+      <c r="A35" s="154"/>
+      <c r="B35" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="146">
+      <c r="C35" s="121"/>
+      <c r="D35" s="149">
         <v>3</v>
       </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="146">
+      <c r="E35" s="150"/>
+      <c r="F35" s="149">
         <v>24</v>
       </c>
-      <c r="G35" s="147"/>
+      <c r="G35" s="150"/>
       <c r="H35" s="19">
         <v>27</v>
       </c>
-      <c r="I35" s="146">
+      <c r="I35" s="149">
         <v>3</v>
       </c>
-      <c r="J35" s="147"/>
-      <c r="K35" s="155">
+      <c r="J35" s="150"/>
+      <c r="K35" s="158">
         <v>6</v>
       </c>
-      <c r="L35" s="156"/>
+      <c r="L35" s="159"/>
       <c r="M35" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="151"/>
-      <c r="B36" s="145" t="s">
+      <c r="A36" s="154"/>
+      <c r="B36" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="146">
+      <c r="C36" s="121"/>
+      <c r="D36" s="149">
         <v>1</v>
       </c>
-      <c r="E36" s="147"/>
-      <c r="F36" s="146">
+      <c r="E36" s="150"/>
+      <c r="F36" s="149">
         <v>3</v>
       </c>
-      <c r="G36" s="147"/>
+      <c r="G36" s="150"/>
       <c r="H36" s="17">
         <v>4</v>
       </c>
-      <c r="I36" s="146">
+      <c r="I36" s="149">
         <v>1</v>
       </c>
-      <c r="J36" s="147"/>
-      <c r="K36" s="155">
+      <c r="J36" s="150"/>
+      <c r="K36" s="158">
         <v>0</v>
       </c>
-      <c r="L36" s="156"/>
+      <c r="L36" s="159"/>
       <c r="M36" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="152"/>
-      <c r="B37" s="157" t="s">
+      <c r="A37" s="155"/>
+      <c r="B37" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="158"/>
-      <c r="D37" s="161">
+      <c r="C37" s="161"/>
+      <c r="D37" s="164">
         <v>7</v>
       </c>
-      <c r="E37" s="162"/>
-      <c r="F37" s="161">
+      <c r="E37" s="165"/>
+      <c r="F37" s="164">
         <v>39</v>
       </c>
-      <c r="G37" s="162"/>
+      <c r="G37" s="165"/>
       <c r="H37" s="21">
         <v>46</v>
       </c>
-      <c r="I37" s="161">
+      <c r="I37" s="164">
         <v>9</v>
       </c>
-      <c r="J37" s="162"/>
-      <c r="K37" s="163">
+      <c r="J37" s="165"/>
+      <c r="K37" s="166">
         <v>12</v>
       </c>
-      <c r="L37" s="164"/>
+      <c r="L37" s="167"/>
       <c r="M37" s="22">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="131"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="169" t="s">
+      <c r="A44" s="172" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="169"/>
-      <c r="L44" s="169"/>
-      <c r="M44" s="169"/>
-      <c r="N44" s="169"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="172"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="172"/>
+      <c r="N44" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="170">
@@ -6435,12 +6426,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
@@ -6450,66 +6441,66 @@
       <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="173">
+      <c r="A4" s="70">
         <v>2016</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="59">
         <v>524</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="59">
         <v>16</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="60">
         <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="173">
+      <c r="A5" s="70">
         <v>2017</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="59">
         <v>469</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="59">
         <v>17</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="60">
         <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="174">
+      <c r="A6" s="71">
         <v>2018</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="61">
         <v>386</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="61">
         <v>31</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="62">
         <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="63" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6541,55 +6532,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="175">
+      <c r="B3" s="72">
         <v>2016</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="175">
+      <c r="B4" s="72">
         <v>2017</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="69">
         <v>2</v>
       </c>
     </row>
@@ -6671,7 +6662,7 @@
       <c r="D5" s="36">
         <v>1</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="64" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6928,7 +6919,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="65" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="42">
@@ -7053,7 +7044,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A74" sqref="A74:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7106,7 +7097,7 @@
       <c r="D4" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="54" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7179,7 +7170,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B9" s="42" t="s">
         <v>125</v>
       </c>
@@ -7194,7 +7187,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B10" s="42" t="s">
         <v>126</v>
       </c>
@@ -7209,7 +7204,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B11" s="42" t="s">
         <v>127</v>
       </c>
@@ -7224,7 +7221,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B12" s="42" t="s">
         <v>128</v>
       </c>
@@ -7239,7 +7238,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B13" s="42" t="s">
         <v>129</v>
       </c>
@@ -7254,7 +7255,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B14" s="42" t="s">
         <v>130</v>
       </c>
@@ -7371,7 +7374,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="B21" s="42" t="s">
         <v>128</v>
       </c>
@@ -7386,7 +7391,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="B22" s="42" t="s">
         <v>129</v>
       </c>
@@ -7469,7 +7476,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+      <c r="A27" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B27" s="42" t="s">
         <v>125</v>
       </c>
@@ -7484,7 +7493,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B28" s="42" t="s">
         <v>126</v>
       </c>
@@ -7499,7 +7510,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B29" s="42" t="s">
         <v>127</v>
       </c>
@@ -7514,7 +7527,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B30" s="42" t="s">
         <v>128</v>
       </c>
@@ -7529,7 +7544,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B31" s="42" t="s">
         <v>129</v>
       </c>
@@ -7544,7 +7561,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
+      <c r="A32" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B32" s="42" t="s">
         <v>130</v>
       </c>
@@ -7661,7 +7680,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
+      <c r="A39" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="B39" s="42" t="s">
         <v>128</v>
       </c>
@@ -7676,7 +7697,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
+      <c r="A40" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="B40" s="42" t="s">
         <v>129</v>
       </c>
@@ -7759,7 +7782,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B45" s="42" t="s">
         <v>125</v>
       </c>
@@ -7774,7 +7799,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+      <c r="A46" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B46" s="42" t="s">
         <v>126</v>
       </c>
@@ -7789,7 +7816,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
+      <c r="A47" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B47" s="42" t="s">
         <v>127</v>
       </c>
@@ -7804,7 +7833,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B48" s="42" t="s">
         <v>128</v>
       </c>
@@ -7819,7 +7850,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B49" s="42" t="s">
         <v>129</v>
       </c>
@@ -7834,7 +7867,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
+      <c r="A50" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B50" s="42" t="s">
         <v>130</v>
       </c>
@@ -7951,7 +7986,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
+      <c r="A57" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="B57" s="42" t="s">
         <v>128</v>
       </c>
@@ -7966,7 +8003,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
+      <c r="A58" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="B58" s="42" t="s">
         <v>129</v>
       </c>
@@ -8049,7 +8088,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B63" s="42" t="s">
         <v>125</v>
       </c>
@@ -8064,7 +8105,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B64" s="42" t="s">
         <v>126</v>
       </c>
@@ -8079,7 +8122,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
+      <c r="A65" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B65" s="42" t="s">
         <v>127</v>
       </c>
@@ -8094,7 +8139,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B66" s="42" t="s">
         <v>128</v>
       </c>
@@ -8109,7 +8156,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B67" s="42" t="s">
         <v>129</v>
       </c>
@@ -8124,7 +8173,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
+      <c r="A68" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B68" s="42" t="s">
         <v>130</v>
       </c>
@@ -8241,7 +8292,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
+      <c r="A75" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="B75" s="42" t="s">
         <v>128</v>
       </c>
@@ -8256,7 +8309,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="B76" s="42" t="s">
         <v>129</v>
       </c>

--- a/EL SALVADOR/Delitos/Informe Femicidios.xlsx
+++ b/EL SALVADOR/Delitos/Informe Femicidios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C00070-A4FA-4955-A756-D8966A2B12E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0710B701-2E4B-41A4-B233-87D6F33EB0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2608,98 +2608,278 @@
     <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2730,186 +2910,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4478,308 +4478,308 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:9" ht="204.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
     </row>
     <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
     </row>
     <row r="27" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87" t="s">
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="30" t="s">
         <v>86</v>
       </c>
@@ -4788,16 +4788,16 @@
       <c r="A28" s="2">
         <v>2016</v>
       </c>
-      <c r="B28" s="90">
+      <c r="B28" s="89">
         <v>524</v>
       </c>
       <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="90">
+      <c r="D28" s="90"/>
+      <c r="E28" s="89">
         <v>16</v>
       </c>
       <c r="F28" s="91"/>
-      <c r="G28" s="92"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="3">
         <v>346</v>
       </c>
@@ -4806,16 +4806,16 @@
       <c r="A29" s="2">
         <v>2017</v>
       </c>
-      <c r="B29" s="90">
+      <c r="B29" s="89">
         <v>469</v>
       </c>
       <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="90">
+      <c r="D29" s="90"/>
+      <c r="E29" s="89">
         <v>17</v>
       </c>
       <c r="F29" s="91"/>
-      <c r="G29" s="92"/>
+      <c r="G29" s="90"/>
       <c r="H29" s="3">
         <v>354</v>
       </c>
@@ -4824,212 +4824,249 @@
       <c r="A30" s="2">
         <v>2018</v>
       </c>
-      <c r="B30" s="90">
+      <c r="B30" s="89">
         <v>386</v>
       </c>
       <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="90">
+      <c r="D30" s="90"/>
+      <c r="E30" s="89">
         <v>31</v>
       </c>
       <c r="F30" s="91"/>
-      <c r="G30" s="92"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="3">
         <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="96"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="4">
         <v>2016</v>
       </c>
-      <c r="D34" s="97">
+      <c r="D34" s="85">
         <v>2017</v>
       </c>
-      <c r="E34" s="98"/>
+      <c r="E34" s="86"/>
       <c r="F34" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="100"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="90">
+      <c r="D35" s="89">
         <v>1</v>
       </c>
-      <c r="E35" s="92"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="174.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="103" t="s">
+      <c r="A37" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
     </row>
     <row r="38" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
     </row>
     <row r="41" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="104" t="s">
+      <c r="A41" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
     </row>
     <row r="42" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
     </row>
     <row r="43" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
     </row>
     <row r="44" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
     </row>
     <row r="45" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A43:I43"/>
     <mergeCell ref="A44:I44"/>
@@ -5039,43 +5076,6 @@
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.asamblea.gob.sv/decretos/details/483" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5093,7 +5093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -5115,1125 +5115,1271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="109" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="109" t="s">
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="111"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="171"/>
     </row>
     <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="112" t="s">
+      <c r="A2" s="167"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="113"/>
+      <c r="D2" s="173"/>
       <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="112" t="s">
+      <c r="H2" s="174"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="113"/>
+      <c r="K2" s="173"/>
       <c r="L2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117">
+      <c r="B3" s="155"/>
+      <c r="C3" s="156">
         <v>35</v>
       </c>
-      <c r="D3" s="118"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="8">
         <v>363</v>
       </c>
       <c r="F3" s="9">
         <v>398</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="156">
         <v>11</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="117">
+      <c r="H3" s="158"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="156">
         <v>198</v>
       </c>
-      <c r="K3" s="118"/>
+      <c r="K3" s="157"/>
       <c r="L3" s="9">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="117">
+      <c r="B4" s="115"/>
+      <c r="C4" s="156">
         <v>1</v>
       </c>
-      <c r="D4" s="118"/>
+      <c r="D4" s="157"/>
       <c r="E4" s="11">
         <v>1517</v>
       </c>
       <c r="F4" s="12">
         <v>1518</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="156">
         <v>2</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="117">
+      <c r="H4" s="158"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="156">
         <v>831</v>
       </c>
-      <c r="K4" s="118"/>
+      <c r="K4" s="157"/>
       <c r="L4" s="9">
         <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117">
+      <c r="B5" s="155"/>
+      <c r="C5" s="156">
         <v>0</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="11">
         <v>1920</v>
       </c>
       <c r="F5" s="12">
         <v>1920</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="156">
         <v>1</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="117">
+      <c r="H5" s="158"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="156">
         <v>940</v>
       </c>
-      <c r="K5" s="118"/>
+      <c r="K5" s="157"/>
       <c r="L5" s="9">
         <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="117">
+      <c r="B6" s="155"/>
+      <c r="C6" s="156">
         <v>0</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="157"/>
       <c r="E6" s="11">
         <v>2523</v>
       </c>
       <c r="F6" s="12">
         <v>2523</v>
       </c>
-      <c r="G6" s="117">
+      <c r="G6" s="156">
         <v>0</v>
       </c>
-      <c r="H6" s="119"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="122">
+      <c r="H6" s="158"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="163">
         <v>1382</v>
       </c>
-      <c r="K6" s="123"/>
+      <c r="K6" s="164"/>
       <c r="L6" s="12">
         <v>1382</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="117">
+      <c r="B7" s="155"/>
+      <c r="C7" s="156">
         <v>4</v>
       </c>
-      <c r="D7" s="118"/>
+      <c r="D7" s="157"/>
       <c r="E7" s="11">
         <v>1100</v>
       </c>
       <c r="F7" s="12">
         <v>1104</v>
       </c>
-      <c r="G7" s="117">
+      <c r="G7" s="156">
         <v>1</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="117">
+      <c r="H7" s="158"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="156">
         <v>520</v>
       </c>
-      <c r="K7" s="118"/>
+      <c r="K7" s="157"/>
       <c r="L7" s="9">
         <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="117">
+      <c r="B8" s="115"/>
+      <c r="C8" s="156">
         <v>8</v>
       </c>
-      <c r="D8" s="118"/>
+      <c r="D8" s="157"/>
       <c r="E8" s="8">
         <v>89</v>
       </c>
       <c r="F8" s="9">
         <v>97</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="156">
         <v>3</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="117">
+      <c r="H8" s="158"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="156">
         <v>51</v>
       </c>
-      <c r="K8" s="118"/>
+      <c r="K8" s="157"/>
       <c r="L8" s="9">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="124">
+      <c r="B9" s="115"/>
+      <c r="C9" s="160">
         <v>0</v>
       </c>
-      <c r="D9" s="125"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="13">
         <v>42</v>
       </c>
       <c r="F9" s="14">
         <v>42</v>
       </c>
-      <c r="G9" s="124">
+      <c r="G9" s="160">
         <v>0</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="124">
+      <c r="H9" s="162"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="160">
         <v>35</v>
       </c>
-      <c r="K9" s="125"/>
+      <c r="K9" s="161"/>
       <c r="L9" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129">
+      <c r="B10" s="138"/>
+      <c r="C10" s="139">
         <v>48</v>
       </c>
-      <c r="D10" s="130"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="12">
         <v>7554</v>
       </c>
       <c r="F10" s="12">
         <v>7602</v>
       </c>
-      <c r="G10" s="129">
+      <c r="G10" s="139">
         <v>18</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="132">
+      <c r="H10" s="141"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="142">
         <v>3957</v>
       </c>
-      <c r="K10" s="133"/>
+      <c r="K10" s="143"/>
       <c r="L10" s="12">
         <v>3975</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="87" t="s">
+      <c r="C14" s="147"/>
+      <c r="D14" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="87" t="s">
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="89"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="98"/>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141" t="s">
+      <c r="A15" s="145"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143" t="s">
+      <c r="E15" s="151"/>
+      <c r="F15" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="144"/>
+      <c r="G15" s="153"/>
       <c r="H15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="141" t="s">
+      <c r="I15" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143" t="s">
+      <c r="J15" s="151"/>
+      <c r="K15" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="144"/>
+      <c r="L15" s="153"/>
       <c r="M15" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="90">
+      <c r="C16" s="115"/>
+      <c r="D16" s="89">
         <v>0</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="90">
+      <c r="E16" s="90"/>
+      <c r="F16" s="89">
         <v>9</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="2">
         <v>9</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="89">
         <v>1</v>
       </c>
-      <c r="J16" s="92"/>
-      <c r="K16" s="90">
+      <c r="J16" s="90"/>
+      <c r="K16" s="89">
         <v>2</v>
       </c>
-      <c r="L16" s="92"/>
+      <c r="L16" s="90"/>
       <c r="M16" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="146"/>
-      <c r="B17" s="148" t="s">
+      <c r="A17" s="135"/>
+      <c r="B17" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="149">
+      <c r="C17" s="115"/>
+      <c r="D17" s="116">
         <v>2</v>
       </c>
-      <c r="E17" s="150"/>
-      <c r="F17" s="149">
+      <c r="E17" s="117"/>
+      <c r="F17" s="116">
         <v>20</v>
       </c>
-      <c r="G17" s="150"/>
+      <c r="G17" s="117"/>
       <c r="H17" s="16">
         <v>22</v>
       </c>
-      <c r="I17" s="149">
+      <c r="I17" s="116">
         <v>6</v>
       </c>
-      <c r="J17" s="150"/>
-      <c r="K17" s="149">
+      <c r="J17" s="117"/>
+      <c r="K17" s="116">
         <v>4</v>
       </c>
-      <c r="L17" s="150"/>
+      <c r="L17" s="117"/>
       <c r="M17" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="146"/>
-      <c r="B18" s="148" t="s">
+      <c r="A18" s="135"/>
+      <c r="B18" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="149">
+      <c r="C18" s="115"/>
+      <c r="D18" s="116">
         <v>0</v>
       </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="149">
+      <c r="E18" s="117"/>
+      <c r="F18" s="116">
         <v>0</v>
       </c>
-      <c r="G18" s="150"/>
+      <c r="G18" s="117"/>
       <c r="H18" s="16">
         <v>0</v>
       </c>
-      <c r="I18" s="149">
+      <c r="I18" s="116">
         <v>0</v>
       </c>
-      <c r="J18" s="150"/>
-      <c r="K18" s="149">
+      <c r="J18" s="117"/>
+      <c r="K18" s="116">
         <v>1</v>
       </c>
-      <c r="L18" s="150"/>
+      <c r="L18" s="117"/>
       <c r="M18" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="147"/>
-      <c r="B19" s="151" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="90">
+      <c r="C19" s="111"/>
+      <c r="D19" s="89">
         <v>0</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="90">
+      <c r="E19" s="90"/>
+      <c r="F19" s="89">
         <v>1</v>
       </c>
-      <c r="G19" s="92"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="90">
+      <c r="I19" s="89">
         <v>0</v>
       </c>
-      <c r="J19" s="92"/>
-      <c r="K19" s="90">
+      <c r="J19" s="90"/>
+      <c r="K19" s="89">
         <v>0</v>
       </c>
-      <c r="L19" s="92"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="153"/>
-      <c r="B20" s="148" t="s">
+      <c r="A20" s="107"/>
+      <c r="B20" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="121"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="115"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="121"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="115"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="154"/>
-      <c r="B21" s="148" t="s">
+      <c r="A21" s="108"/>
+      <c r="B21" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="156">
+      <c r="C21" s="115"/>
+      <c r="D21" s="126">
         <v>0</v>
       </c>
-      <c r="E21" s="157"/>
-      <c r="F21" s="149">
+      <c r="E21" s="127"/>
+      <c r="F21" s="116">
         <v>1</v>
       </c>
-      <c r="G21" s="150"/>
+      <c r="G21" s="117"/>
       <c r="H21" s="17">
         <v>1</v>
       </c>
-      <c r="I21" s="149">
+      <c r="I21" s="116">
         <v>0</v>
       </c>
-      <c r="J21" s="150"/>
-      <c r="K21" s="158">
+      <c r="J21" s="117"/>
+      <c r="K21" s="118">
         <v>0</v>
       </c>
-      <c r="L21" s="159"/>
+      <c r="L21" s="119"/>
       <c r="M21" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="154"/>
-      <c r="B22" s="148" t="s">
+      <c r="A22" s="108"/>
+      <c r="B22" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="156">
+      <c r="C22" s="115"/>
+      <c r="D22" s="126">
         <v>1</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="149">
+      <c r="E22" s="127"/>
+      <c r="F22" s="116">
         <v>2</v>
       </c>
-      <c r="G22" s="150"/>
+      <c r="G22" s="117"/>
       <c r="H22" s="17">
         <v>3</v>
       </c>
-      <c r="I22" s="149">
+      <c r="I22" s="116">
         <v>1</v>
       </c>
-      <c r="J22" s="150"/>
-      <c r="K22" s="158">
+      <c r="J22" s="117"/>
+      <c r="K22" s="118">
         <v>0</v>
       </c>
-      <c r="L22" s="159"/>
+      <c r="L22" s="119"/>
       <c r="M22" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="154"/>
-      <c r="B23" s="148" t="s">
+      <c r="A23" s="108"/>
+      <c r="B23" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="156">
+      <c r="C23" s="115"/>
+      <c r="D23" s="126">
         <v>0</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="149">
+      <c r="E23" s="127"/>
+      <c r="F23" s="116">
         <v>1</v>
       </c>
-      <c r="G23" s="150"/>
+      <c r="G23" s="117"/>
       <c r="H23" s="17">
         <v>1</v>
       </c>
-      <c r="I23" s="149">
+      <c r="I23" s="116">
         <v>0</v>
       </c>
-      <c r="J23" s="150"/>
-      <c r="K23" s="158">
+      <c r="J23" s="117"/>
+      <c r="K23" s="118">
         <v>0</v>
       </c>
-      <c r="L23" s="159"/>
+      <c r="L23" s="119"/>
       <c r="M23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="154"/>
-      <c r="B24" s="148" t="s">
+      <c r="A24" s="108"/>
+      <c r="B24" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="156">
+      <c r="C24" s="115"/>
+      <c r="D24" s="126">
         <v>13</v>
       </c>
-      <c r="E24" s="157"/>
-      <c r="F24" s="149">
+      <c r="E24" s="127"/>
+      <c r="F24" s="116">
         <v>23</v>
       </c>
-      <c r="G24" s="150"/>
+      <c r="G24" s="117"/>
       <c r="H24" s="19">
         <v>36</v>
       </c>
-      <c r="I24" s="149">
+      <c r="I24" s="116">
         <v>5</v>
       </c>
-      <c r="J24" s="150"/>
-      <c r="K24" s="158">
+      <c r="J24" s="117"/>
+      <c r="K24" s="118">
         <v>6</v>
       </c>
-      <c r="L24" s="159"/>
+      <c r="L24" s="119"/>
       <c r="M24" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="154"/>
-      <c r="B25" s="148" t="s">
+      <c r="A25" s="108"/>
+      <c r="B25" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="121"/>
-      <c r="D25" s="156">
+      <c r="C25" s="115"/>
+      <c r="D25" s="126">
         <v>3</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="149">
+      <c r="E25" s="127"/>
+      <c r="F25" s="116">
         <v>5</v>
       </c>
-      <c r="G25" s="150"/>
+      <c r="G25" s="117"/>
       <c r="H25" s="17">
         <v>8</v>
       </c>
-      <c r="I25" s="149">
+      <c r="I25" s="116">
         <v>1</v>
       </c>
-      <c r="J25" s="150"/>
-      <c r="K25" s="158">
+      <c r="J25" s="117"/>
+      <c r="K25" s="118">
         <v>0</v>
       </c>
-      <c r="L25" s="159"/>
+      <c r="L25" s="119"/>
       <c r="M25" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="154"/>
-      <c r="B26" s="148" t="s">
+      <c r="A26" s="108"/>
+      <c r="B26" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="156">
+      <c r="C26" s="115"/>
+      <c r="D26" s="126">
         <v>0</v>
       </c>
-      <c r="E26" s="157"/>
-      <c r="F26" s="149">
+      <c r="E26" s="127"/>
+      <c r="F26" s="116">
         <v>5</v>
       </c>
-      <c r="G26" s="150"/>
+      <c r="G26" s="117"/>
       <c r="H26" s="17">
         <v>5</v>
       </c>
-      <c r="I26" s="149">
+      <c r="I26" s="116">
         <v>2</v>
       </c>
-      <c r="J26" s="150"/>
-      <c r="K26" s="158">
+      <c r="J26" s="117"/>
+      <c r="K26" s="118">
         <v>0</v>
       </c>
-      <c r="L26" s="159"/>
+      <c r="L26" s="119"/>
       <c r="M26" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="155"/>
-      <c r="B27" s="160" t="s">
+      <c r="A27" s="109"/>
+      <c r="B27" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="162">
+      <c r="C27" s="121"/>
+      <c r="D27" s="132">
         <v>19</v>
       </c>
-      <c r="E27" s="163"/>
-      <c r="F27" s="164">
+      <c r="E27" s="133"/>
+      <c r="F27" s="122">
         <v>67</v>
       </c>
-      <c r="G27" s="165"/>
+      <c r="G27" s="123"/>
       <c r="H27" s="21">
         <v>86</v>
       </c>
-      <c r="I27" s="164">
+      <c r="I27" s="122">
         <v>16</v>
       </c>
-      <c r="J27" s="165"/>
-      <c r="K27" s="166">
+      <c r="J27" s="123"/>
+      <c r="K27" s="124">
         <v>13</v>
       </c>
-      <c r="L27" s="167"/>
+      <c r="L27" s="125"/>
       <c r="M27" s="22">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="168">
+      <c r="C28" s="115"/>
+      <c r="D28" s="128">
         <v>0</v>
       </c>
-      <c r="E28" s="169"/>
-      <c r="F28" s="90">
+      <c r="E28" s="129"/>
+      <c r="F28" s="89">
         <v>1</v>
       </c>
-      <c r="G28" s="92"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="23">
         <v>1</v>
       </c>
-      <c r="I28" s="90">
+      <c r="I28" s="89">
         <v>0</v>
       </c>
-      <c r="J28" s="92"/>
-      <c r="K28" s="170">
+      <c r="J28" s="90"/>
+      <c r="K28" s="130">
         <v>0</v>
       </c>
-      <c r="L28" s="171"/>
+      <c r="L28" s="131"/>
       <c r="M28" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="146"/>
-      <c r="B29" s="148" t="s">
+      <c r="A29" s="135"/>
+      <c r="B29" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="156">
+      <c r="C29" s="115"/>
+      <c r="D29" s="126">
         <v>3</v>
       </c>
-      <c r="E29" s="157"/>
-      <c r="F29" s="149">
+      <c r="E29" s="127"/>
+      <c r="F29" s="116">
         <v>7</v>
       </c>
-      <c r="G29" s="150"/>
+      <c r="G29" s="117"/>
       <c r="H29" s="19">
         <v>10</v>
       </c>
-      <c r="I29" s="149">
+      <c r="I29" s="116">
         <v>3</v>
       </c>
-      <c r="J29" s="150"/>
-      <c r="K29" s="158">
+      <c r="J29" s="117"/>
+      <c r="K29" s="118">
         <v>4</v>
       </c>
-      <c r="L29" s="159"/>
+      <c r="L29" s="119"/>
       <c r="M29" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="146"/>
-      <c r="B30" s="148" t="s">
+      <c r="A30" s="135"/>
+      <c r="B30" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="156">
+      <c r="C30" s="115"/>
+      <c r="D30" s="126">
         <v>0</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="149">
+      <c r="E30" s="127"/>
+      <c r="F30" s="116">
         <v>1</v>
       </c>
-      <c r="G30" s="150"/>
+      <c r="G30" s="117"/>
       <c r="H30" s="17">
         <v>1</v>
       </c>
-      <c r="I30" s="149">
+      <c r="I30" s="116">
         <v>0</v>
       </c>
-      <c r="J30" s="150"/>
-      <c r="K30" s="158">
+      <c r="J30" s="117"/>
+      <c r="K30" s="118">
         <v>1</v>
       </c>
-      <c r="L30" s="159"/>
+      <c r="L30" s="119"/>
       <c r="M30" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="146"/>
-      <c r="B31" s="148" t="s">
+      <c r="A31" s="135"/>
+      <c r="B31" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="156">
+      <c r="C31" s="115"/>
+      <c r="D31" s="126">
         <v>0</v>
       </c>
-      <c r="E31" s="157"/>
-      <c r="F31" s="149">
+      <c r="E31" s="127"/>
+      <c r="F31" s="116">
         <v>0</v>
       </c>
-      <c r="G31" s="150"/>
+      <c r="G31" s="117"/>
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="149">
+      <c r="I31" s="116">
         <v>1</v>
       </c>
-      <c r="J31" s="150"/>
-      <c r="K31" s="158">
+      <c r="J31" s="117"/>
+      <c r="K31" s="118">
         <v>0</v>
       </c>
-      <c r="L31" s="159"/>
+      <c r="L31" s="119"/>
       <c r="M31" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="146"/>
-      <c r="B32" s="148" t="s">
+      <c r="A32" s="135"/>
+      <c r="B32" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="156">
+      <c r="C32" s="115"/>
+      <c r="D32" s="126">
         <v>0</v>
       </c>
-      <c r="E32" s="157"/>
-      <c r="F32" s="149">
+      <c r="E32" s="127"/>
+      <c r="F32" s="116">
         <v>1</v>
       </c>
-      <c r="G32" s="150"/>
+      <c r="G32" s="117"/>
       <c r="H32" s="17">
         <v>1</v>
       </c>
-      <c r="I32" s="149">
+      <c r="I32" s="116">
         <v>0</v>
       </c>
-      <c r="J32" s="150"/>
-      <c r="K32" s="158">
+      <c r="J32" s="117"/>
+      <c r="K32" s="118">
         <v>0</v>
       </c>
-      <c r="L32" s="159"/>
+      <c r="L32" s="119"/>
       <c r="M32" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="147"/>
-      <c r="B33" s="148" t="s">
+      <c r="A33" s="136"/>
+      <c r="B33" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="168">
+      <c r="C33" s="115"/>
+      <c r="D33" s="128">
         <v>0</v>
       </c>
-      <c r="E33" s="169"/>
-      <c r="F33" s="90">
+      <c r="E33" s="129"/>
+      <c r="F33" s="89">
         <v>2</v>
       </c>
-      <c r="G33" s="92"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="23">
         <v>2</v>
       </c>
-      <c r="I33" s="90">
+      <c r="I33" s="89">
         <v>1</v>
       </c>
-      <c r="J33" s="92"/>
-      <c r="K33" s="170">
+      <c r="J33" s="90"/>
+      <c r="K33" s="130">
         <v>1</v>
       </c>
-      <c r="L33" s="171"/>
+      <c r="L33" s="131"/>
       <c r="M33" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="153"/>
-      <c r="B34" s="151" t="s">
+      <c r="A34" s="107"/>
+      <c r="B34" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="152"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="174"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="174"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
       <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="154"/>
-      <c r="B35" s="148" t="s">
+      <c r="A35" s="108"/>
+      <c r="B35" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="149">
+      <c r="C35" s="115"/>
+      <c r="D35" s="116">
         <v>3</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="149">
+      <c r="E35" s="117"/>
+      <c r="F35" s="116">
         <v>24</v>
       </c>
-      <c r="G35" s="150"/>
+      <c r="G35" s="117"/>
       <c r="H35" s="19">
         <v>27</v>
       </c>
-      <c r="I35" s="149">
+      <c r="I35" s="116">
         <v>3</v>
       </c>
-      <c r="J35" s="150"/>
-      <c r="K35" s="158">
+      <c r="J35" s="117"/>
+      <c r="K35" s="118">
         <v>6</v>
       </c>
-      <c r="L35" s="159"/>
+      <c r="L35" s="119"/>
       <c r="M35" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="154"/>
-      <c r="B36" s="148" t="s">
+      <c r="A36" s="108"/>
+      <c r="B36" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="149">
+      <c r="C36" s="115"/>
+      <c r="D36" s="116">
         <v>1</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="149">
+      <c r="E36" s="117"/>
+      <c r="F36" s="116">
         <v>3</v>
       </c>
-      <c r="G36" s="150"/>
+      <c r="G36" s="117"/>
       <c r="H36" s="17">
         <v>4</v>
       </c>
-      <c r="I36" s="149">
+      <c r="I36" s="116">
         <v>1</v>
       </c>
-      <c r="J36" s="150"/>
-      <c r="K36" s="158">
+      <c r="J36" s="117"/>
+      <c r="K36" s="118">
         <v>0</v>
       </c>
-      <c r="L36" s="159"/>
+      <c r="L36" s="119"/>
       <c r="M36" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="155"/>
-      <c r="B37" s="160" t="s">
+      <c r="A37" s="109"/>
+      <c r="B37" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="161"/>
-      <c r="D37" s="164">
+      <c r="C37" s="121"/>
+      <c r="D37" s="122">
         <v>7</v>
       </c>
-      <c r="E37" s="165"/>
-      <c r="F37" s="164">
+      <c r="E37" s="123"/>
+      <c r="F37" s="122">
         <v>39</v>
       </c>
-      <c r="G37" s="165"/>
+      <c r="G37" s="123"/>
       <c r="H37" s="21">
         <v>46</v>
       </c>
-      <c r="I37" s="164">
+      <c r="I37" s="122">
         <v>9</v>
       </c>
-      <c r="J37" s="165"/>
-      <c r="K37" s="166">
+      <c r="J37" s="123"/>
+      <c r="K37" s="124">
         <v>12</v>
       </c>
-      <c r="L37" s="167"/>
+      <c r="L37" s="125"/>
       <c r="M37" s="22">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="134" t="s">
+      <c r="A38" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="172"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="172"/>
-      <c r="N44" s="172"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
     <mergeCell ref="A38:N38"/>
     <mergeCell ref="A39:N39"/>
     <mergeCell ref="A40:N40"/>
@@ -6258,152 +6404,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6429,9 +6429,9 @@
       <c r="A1" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
@@ -6535,8 +6535,8 @@
       <c r="A1" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
     </row>
@@ -7044,7 +7044,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:A76"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/EL SALVADOR/Delitos/Informe Femicidios.xlsx
+++ b/EL SALVADOR/Delitos/Informe Femicidios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0710B701-2E4B-41A4-B233-87D6F33EB0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13966B7C-AECE-4EA4-93B8-D6269166F9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1749,10 +1749,6 @@
     </r>
   </si>
   <si>
-    <t>INFORME SOBRE LOS FEMINICIDIOS O LOS ASESINATOS DE MUJERES
-POR RAZÓN DE GÉNERO</t>
-  </si>
-  <si>
     <t xml:space="preserve">FUENTE: </t>
   </si>
   <si>
@@ -1956,13 +1952,16 @@
   </si>
   <si>
     <t xml:space="preserve">Sustracción Patrimonial </t>
+  </si>
+  <si>
+    <t>INFORME SOBRE LOS FEMINICIDIOS O LOS ASESINATOS DE MUJERES POR RAZÓN DE GÉNERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2038,12 +2037,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -2383,9 +2376,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2464,7 +2457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2476,10 +2469,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2491,23 +2484,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2515,403 +2511,397 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4453,7 +4443,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4471,317 +4461,317 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="A3" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:9" ht="204.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
+      <c r="A9" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
     </row>
     <row r="12" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
     </row>
     <row r="13" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
     </row>
     <row r="15" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
     </row>
     <row r="23" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
     </row>
     <row r="25" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96" t="s">
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4791,13 +4781,13 @@
       <c r="B28" s="89">
         <v>524</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
       <c r="E28" s="89">
         <v>16</v>
       </c>
-      <c r="F28" s="91"/>
-      <c r="G28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="3">
         <v>346</v>
       </c>
@@ -4809,13 +4799,13 @@
       <c r="B29" s="89">
         <v>469</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="89">
         <v>17</v>
       </c>
-      <c r="F29" s="91"/>
-      <c r="G29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
       <c r="H29" s="3">
         <v>354</v>
       </c>
@@ -4827,13 +4817,13 @@
       <c r="B30" s="89">
         <v>386</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="89">
         <v>31</v>
       </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
       <c r="H30" s="3">
         <v>232</v>
       </c>
@@ -4852,221 +4842,184 @@
       <c r="I31" s="92"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="84"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="4">
         <v>2016</v>
       </c>
-      <c r="D34" s="85">
+      <c r="D34" s="96">
         <v>2017</v>
       </c>
-      <c r="E34" s="86"/>
+      <c r="E34" s="97"/>
       <c r="F34" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="3">
         <v>5</v>
       </c>
       <c r="D35" s="89">
         <v>1</v>
       </c>
-      <c r="E35" s="90"/>
+      <c r="E35" s="91"/>
       <c r="F35" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="174.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
     </row>
     <row r="38" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
     </row>
     <row r="40" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
     </row>
     <row r="41" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
     </row>
     <row r="42" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
     </row>
     <row r="43" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
     </row>
     <row r="44" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
     </row>
     <row r="45" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A43:I43"/>
     <mergeCell ref="A44:I44"/>
@@ -5076,6 +5029,43 @@
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.asamblea.gob.sv/decretos/details/483" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5115,1195 +5105,1201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="169" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="169" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="167"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="172" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="173"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="172" t="s">
+      <c r="G2" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="174"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="172" t="s">
+      <c r="H2" s="113"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="173"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116">
         <v>35</v>
       </c>
-      <c r="D3" s="157"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="8">
         <v>363</v>
       </c>
       <c r="F3" s="9">
         <v>398</v>
       </c>
-      <c r="G3" s="156">
+      <c r="G3" s="116">
         <v>11</v>
       </c>
-      <c r="H3" s="158"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="156">
+      <c r="H3" s="118"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="116">
         <v>198</v>
       </c>
-      <c r="K3" s="157"/>
+      <c r="K3" s="117"/>
       <c r="L3" s="9">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="159" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="156">
+      <c r="A4" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="116">
         <v>1</v>
       </c>
-      <c r="D4" s="157"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="11">
         <v>1517</v>
       </c>
       <c r="F4" s="12">
         <v>1518</v>
       </c>
-      <c r="G4" s="156">
+      <c r="G4" s="116">
         <v>2</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="156">
+      <c r="H4" s="118"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="116">
         <v>831</v>
       </c>
-      <c r="K4" s="157"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="9">
         <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156">
+      <c r="B5" s="115"/>
+      <c r="C5" s="116">
         <v>0</v>
       </c>
-      <c r="D5" s="157"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="11">
         <v>1920</v>
       </c>
       <c r="F5" s="12">
         <v>1920</v>
       </c>
-      <c r="G5" s="156">
+      <c r="G5" s="116">
         <v>1</v>
       </c>
-      <c r="H5" s="158"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="156">
+      <c r="H5" s="118"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="116">
         <v>940</v>
       </c>
-      <c r="K5" s="157"/>
+      <c r="K5" s="117"/>
       <c r="L5" s="9">
         <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="156">
+      <c r="B6" s="115"/>
+      <c r="C6" s="116">
         <v>0</v>
       </c>
-      <c r="D6" s="157"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="11">
         <v>2523</v>
       </c>
       <c r="F6" s="12">
         <v>2523</v>
       </c>
-      <c r="G6" s="156">
+      <c r="G6" s="116">
         <v>0</v>
       </c>
-      <c r="H6" s="158"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="163">
+      <c r="H6" s="118"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="121">
         <v>1382</v>
       </c>
-      <c r="K6" s="164"/>
+      <c r="K6" s="122"/>
       <c r="L6" s="12">
         <v>1382</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="156">
+      <c r="B7" s="115"/>
+      <c r="C7" s="116">
         <v>4</v>
       </c>
-      <c r="D7" s="157"/>
+      <c r="D7" s="117"/>
       <c r="E7" s="11">
         <v>1100</v>
       </c>
       <c r="F7" s="12">
         <v>1104</v>
       </c>
-      <c r="G7" s="156">
+      <c r="G7" s="116">
         <v>1</v>
       </c>
-      <c r="H7" s="158"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="156">
+      <c r="H7" s="118"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="116">
         <v>520</v>
       </c>
-      <c r="K7" s="157"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="9">
         <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="159" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="156">
+      <c r="A8" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="116">
         <v>8</v>
       </c>
-      <c r="D8" s="157"/>
+      <c r="D8" s="117"/>
       <c r="E8" s="8">
         <v>89</v>
       </c>
       <c r="F8" s="9">
         <v>97</v>
       </c>
-      <c r="G8" s="156">
+      <c r="G8" s="116">
         <v>3</v>
       </c>
-      <c r="H8" s="158"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="156">
+      <c r="H8" s="118"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="116">
         <v>51</v>
       </c>
-      <c r="K8" s="157"/>
+      <c r="K8" s="117"/>
       <c r="L8" s="9">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="159" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="160">
+      <c r="A9" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123">
         <v>0</v>
       </c>
-      <c r="D9" s="161"/>
+      <c r="D9" s="124"/>
       <c r="E9" s="13">
         <v>42</v>
       </c>
       <c r="F9" s="14">
         <v>42</v>
       </c>
-      <c r="G9" s="160">
+      <c r="G9" s="123">
         <v>0</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="160">
+      <c r="H9" s="125"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="123">
         <v>35</v>
       </c>
-      <c r="K9" s="161"/>
+      <c r="K9" s="124"/>
       <c r="L9" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139">
+      <c r="B10" s="127"/>
+      <c r="C10" s="128">
         <v>48</v>
       </c>
-      <c r="D10" s="140"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="12">
         <v>7554</v>
       </c>
       <c r="F10" s="12">
         <v>7602</v>
       </c>
-      <c r="G10" s="139">
+      <c r="G10" s="128">
         <v>18</v>
       </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="142">
+      <c r="H10" s="130"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="131">
         <v>3957</v>
       </c>
-      <c r="K10" s="143"/>
+      <c r="K10" s="132"/>
       <c r="L10" s="12">
         <v>3975</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="96" t="s">
+      <c r="C14" s="137"/>
+      <c r="D14" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="96" t="s">
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="98"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="145"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150" t="s">
+      <c r="A15" s="135"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="151"/>
-      <c r="F15" s="152" t="s">
+      <c r="E15" s="141"/>
+      <c r="F15" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="153"/>
+      <c r="G15" s="143"/>
       <c r="H15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="150" t="s">
+      <c r="I15" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="151"/>
-      <c r="K15" s="152" t="s">
+      <c r="J15" s="141"/>
+      <c r="K15" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="153"/>
+      <c r="L15" s="143"/>
       <c r="M15" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="115"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="89">
         <v>0</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="91"/>
       <c r="F16" s="89">
         <v>9</v>
       </c>
-      <c r="G16" s="90"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="2">
         <v>9</v>
       </c>
       <c r="I16" s="89">
         <v>1</v>
       </c>
-      <c r="J16" s="90"/>
+      <c r="J16" s="91"/>
       <c r="K16" s="89">
         <v>2</v>
       </c>
-      <c r="L16" s="90"/>
+      <c r="L16" s="91"/>
       <c r="M16" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="114" t="s">
+      <c r="A17" s="145"/>
+      <c r="B17" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116">
+      <c r="C17" s="120"/>
+      <c r="D17" s="148">
         <v>2</v>
       </c>
-      <c r="E17" s="117"/>
-      <c r="F17" s="116">
+      <c r="E17" s="149"/>
+      <c r="F17" s="148">
         <v>20</v>
       </c>
-      <c r="G17" s="117"/>
+      <c r="G17" s="149"/>
       <c r="H17" s="16">
         <v>22</v>
       </c>
-      <c r="I17" s="116">
+      <c r="I17" s="148">
         <v>6</v>
       </c>
-      <c r="J17" s="117"/>
-      <c r="K17" s="116">
+      <c r="J17" s="149"/>
+      <c r="K17" s="148">
         <v>4</v>
       </c>
-      <c r="L17" s="117"/>
+      <c r="L17" s="149"/>
       <c r="M17" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="135"/>
-      <c r="B18" s="114" t="s">
+      <c r="A18" s="145"/>
+      <c r="B18" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116">
+      <c r="C18" s="120"/>
+      <c r="D18" s="148">
         <v>0</v>
       </c>
-      <c r="E18" s="117"/>
-      <c r="F18" s="116">
+      <c r="E18" s="149"/>
+      <c r="F18" s="148">
         <v>0</v>
       </c>
-      <c r="G18" s="117"/>
+      <c r="G18" s="149"/>
       <c r="H18" s="16">
         <v>0</v>
       </c>
-      <c r="I18" s="116">
+      <c r="I18" s="148">
         <v>0</v>
       </c>
-      <c r="J18" s="117"/>
-      <c r="K18" s="116">
+      <c r="J18" s="149"/>
+      <c r="K18" s="148">
         <v>1</v>
       </c>
-      <c r="L18" s="117"/>
+      <c r="L18" s="149"/>
       <c r="M18" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="136"/>
-      <c r="B19" s="110" t="s">
+      <c r="A19" s="146"/>
+      <c r="B19" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="111"/>
+      <c r="C19" s="151"/>
       <c r="D19" s="89">
         <v>0</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="89">
         <v>1</v>
       </c>
-      <c r="G19" s="90"/>
+      <c r="G19" s="91"/>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="89">
         <v>0</v>
       </c>
-      <c r="J19" s="90"/>
+      <c r="J19" s="91"/>
       <c r="K19" s="89">
         <v>0</v>
       </c>
-      <c r="L19" s="90"/>
+      <c r="L19" s="91"/>
       <c r="M19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="107"/>
-      <c r="B20" s="114" t="s">
+      <c r="A20" s="152"/>
+      <c r="B20" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="115"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="120"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="115"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="120"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="108"/>
-      <c r="B21" s="114" t="s">
+      <c r="A21" s="153"/>
+      <c r="B21" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="126">
+      <c r="C21" s="120"/>
+      <c r="D21" s="155">
         <v>0</v>
       </c>
-      <c r="E21" s="127"/>
-      <c r="F21" s="116">
+      <c r="E21" s="156"/>
+      <c r="F21" s="148">
         <v>1</v>
       </c>
-      <c r="G21" s="117"/>
+      <c r="G21" s="149"/>
       <c r="H21" s="17">
         <v>1</v>
       </c>
-      <c r="I21" s="116">
+      <c r="I21" s="148">
         <v>0</v>
       </c>
-      <c r="J21" s="117"/>
-      <c r="K21" s="118">
+      <c r="J21" s="149"/>
+      <c r="K21" s="157">
         <v>0</v>
       </c>
-      <c r="L21" s="119"/>
+      <c r="L21" s="158"/>
       <c r="M21" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="108"/>
-      <c r="B22" s="114" t="s">
+      <c r="A22" s="153"/>
+      <c r="B22" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="126">
+      <c r="C22" s="120"/>
+      <c r="D22" s="155">
         <v>1</v>
       </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="116">
+      <c r="E22" s="156"/>
+      <c r="F22" s="148">
         <v>2</v>
       </c>
-      <c r="G22" s="117"/>
+      <c r="G22" s="149"/>
       <c r="H22" s="17">
         <v>3</v>
       </c>
-      <c r="I22" s="116">
+      <c r="I22" s="148">
         <v>1</v>
       </c>
-      <c r="J22" s="117"/>
-      <c r="K22" s="118">
+      <c r="J22" s="149"/>
+      <c r="K22" s="157">
         <v>0</v>
       </c>
-      <c r="L22" s="119"/>
+      <c r="L22" s="158"/>
       <c r="M22" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="114" t="s">
+      <c r="A23" s="153"/>
+      <c r="B23" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="126">
+      <c r="C23" s="120"/>
+      <c r="D23" s="155">
         <v>0</v>
       </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="116">
+      <c r="E23" s="156"/>
+      <c r="F23" s="148">
         <v>1</v>
       </c>
-      <c r="G23" s="117"/>
+      <c r="G23" s="149"/>
       <c r="H23" s="17">
         <v>1</v>
       </c>
-      <c r="I23" s="116">
+      <c r="I23" s="148">
         <v>0</v>
       </c>
-      <c r="J23" s="117"/>
-      <c r="K23" s="118">
+      <c r="J23" s="149"/>
+      <c r="K23" s="157">
         <v>0</v>
       </c>
-      <c r="L23" s="119"/>
+      <c r="L23" s="158"/>
       <c r="M23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="114" t="s">
+      <c r="A24" s="153"/>
+      <c r="B24" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="126">
+      <c r="C24" s="120"/>
+      <c r="D24" s="155">
         <v>13</v>
       </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="116">
+      <c r="E24" s="156"/>
+      <c r="F24" s="148">
         <v>23</v>
       </c>
-      <c r="G24" s="117"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="19">
         <v>36</v>
       </c>
-      <c r="I24" s="116">
+      <c r="I24" s="148">
         <v>5</v>
       </c>
-      <c r="J24" s="117"/>
-      <c r="K24" s="118">
+      <c r="J24" s="149"/>
+      <c r="K24" s="157">
         <v>6</v>
       </c>
-      <c r="L24" s="119"/>
+      <c r="L24" s="158"/>
       <c r="M24" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="114" t="s">
+      <c r="A25" s="153"/>
+      <c r="B25" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="126">
+      <c r="C25" s="120"/>
+      <c r="D25" s="155">
         <v>3</v>
       </c>
-      <c r="E25" s="127"/>
-      <c r="F25" s="116">
+      <c r="E25" s="156"/>
+      <c r="F25" s="148">
         <v>5</v>
       </c>
-      <c r="G25" s="117"/>
+      <c r="G25" s="149"/>
       <c r="H25" s="17">
         <v>8</v>
       </c>
-      <c r="I25" s="116">
+      <c r="I25" s="148">
         <v>1</v>
       </c>
-      <c r="J25" s="117"/>
-      <c r="K25" s="118">
+      <c r="J25" s="149"/>
+      <c r="K25" s="157">
         <v>0</v>
       </c>
-      <c r="L25" s="119"/>
+      <c r="L25" s="158"/>
       <c r="M25" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="114" t="s">
+      <c r="A26" s="153"/>
+      <c r="B26" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="126">
+      <c r="C26" s="120"/>
+      <c r="D26" s="155">
         <v>0</v>
       </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="116">
+      <c r="E26" s="156"/>
+      <c r="F26" s="148">
         <v>5</v>
       </c>
-      <c r="G26" s="117"/>
+      <c r="G26" s="149"/>
       <c r="H26" s="17">
         <v>5</v>
       </c>
-      <c r="I26" s="116">
+      <c r="I26" s="148">
         <v>2</v>
       </c>
-      <c r="J26" s="117"/>
-      <c r="K26" s="118">
+      <c r="J26" s="149"/>
+      <c r="K26" s="157">
         <v>0</v>
       </c>
-      <c r="L26" s="119"/>
+      <c r="L26" s="158"/>
       <c r="M26" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
-      <c r="B27" s="120" t="s">
+      <c r="A27" s="154"/>
+      <c r="B27" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="132">
+      <c r="C27" s="160"/>
+      <c r="D27" s="161">
         <v>19</v>
       </c>
-      <c r="E27" s="133"/>
-      <c r="F27" s="122">
+      <c r="E27" s="162"/>
+      <c r="F27" s="163">
         <v>67</v>
       </c>
-      <c r="G27" s="123"/>
+      <c r="G27" s="164"/>
       <c r="H27" s="21">
         <v>86</v>
       </c>
-      <c r="I27" s="122">
+      <c r="I27" s="163">
         <v>16</v>
       </c>
-      <c r="J27" s="123"/>
-      <c r="K27" s="124">
+      <c r="J27" s="164"/>
+      <c r="K27" s="165">
         <v>13</v>
       </c>
-      <c r="L27" s="125"/>
+      <c r="L27" s="166"/>
       <c r="M27" s="22">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="128">
+      <c r="C28" s="120"/>
+      <c r="D28" s="167">
         <v>0</v>
       </c>
-      <c r="E28" s="129"/>
+      <c r="E28" s="168"/>
       <c r="F28" s="89">
         <v>1</v>
       </c>
-      <c r="G28" s="90"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="23">
         <v>1</v>
       </c>
       <c r="I28" s="89">
         <v>0</v>
       </c>
-      <c r="J28" s="90"/>
-      <c r="K28" s="130">
+      <c r="J28" s="91"/>
+      <c r="K28" s="169">
         <v>0</v>
       </c>
-      <c r="L28" s="131"/>
+      <c r="L28" s="170"/>
       <c r="M28" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="135"/>
-      <c r="B29" s="114" t="s">
+      <c r="A29" s="145"/>
+      <c r="B29" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="126">
+      <c r="C29" s="120"/>
+      <c r="D29" s="155">
         <v>3</v>
       </c>
-      <c r="E29" s="127"/>
-      <c r="F29" s="116">
+      <c r="E29" s="156"/>
+      <c r="F29" s="148">
         <v>7</v>
       </c>
-      <c r="G29" s="117"/>
+      <c r="G29" s="149"/>
       <c r="H29" s="19">
         <v>10</v>
       </c>
-      <c r="I29" s="116">
+      <c r="I29" s="148">
         <v>3</v>
       </c>
-      <c r="J29" s="117"/>
-      <c r="K29" s="118">
+      <c r="J29" s="149"/>
+      <c r="K29" s="157">
         <v>4</v>
       </c>
-      <c r="L29" s="119"/>
+      <c r="L29" s="158"/>
       <c r="M29" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="135"/>
-      <c r="B30" s="114" t="s">
+      <c r="A30" s="145"/>
+      <c r="B30" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="126">
+      <c r="C30" s="120"/>
+      <c r="D30" s="155">
         <v>0</v>
       </c>
-      <c r="E30" s="127"/>
-      <c r="F30" s="116">
+      <c r="E30" s="156"/>
+      <c r="F30" s="148">
         <v>1</v>
       </c>
-      <c r="G30" s="117"/>
+      <c r="G30" s="149"/>
       <c r="H30" s="17">
         <v>1</v>
       </c>
-      <c r="I30" s="116">
+      <c r="I30" s="148">
         <v>0</v>
       </c>
-      <c r="J30" s="117"/>
-      <c r="K30" s="118">
+      <c r="J30" s="149"/>
+      <c r="K30" s="157">
         <v>1</v>
       </c>
-      <c r="L30" s="119"/>
+      <c r="L30" s="158"/>
       <c r="M30" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="135"/>
-      <c r="B31" s="114" t="s">
+      <c r="A31" s="145"/>
+      <c r="B31" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="126">
+      <c r="C31" s="120"/>
+      <c r="D31" s="155">
         <v>0</v>
       </c>
-      <c r="E31" s="127"/>
-      <c r="F31" s="116">
+      <c r="E31" s="156"/>
+      <c r="F31" s="148">
         <v>0</v>
       </c>
-      <c r="G31" s="117"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="116">
+      <c r="I31" s="148">
         <v>1</v>
       </c>
-      <c r="J31" s="117"/>
-      <c r="K31" s="118">
+      <c r="J31" s="149"/>
+      <c r="K31" s="157">
         <v>0</v>
       </c>
-      <c r="L31" s="119"/>
+      <c r="L31" s="158"/>
       <c r="M31" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="135"/>
-      <c r="B32" s="114" t="s">
+      <c r="A32" s="145"/>
+      <c r="B32" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="126">
+      <c r="C32" s="120"/>
+      <c r="D32" s="155">
         <v>0</v>
       </c>
-      <c r="E32" s="127"/>
-      <c r="F32" s="116">
+      <c r="E32" s="156"/>
+      <c r="F32" s="148">
         <v>1</v>
       </c>
-      <c r="G32" s="117"/>
+      <c r="G32" s="149"/>
       <c r="H32" s="17">
         <v>1</v>
       </c>
-      <c r="I32" s="116">
+      <c r="I32" s="148">
         <v>0</v>
       </c>
-      <c r="J32" s="117"/>
-      <c r="K32" s="118">
+      <c r="J32" s="149"/>
+      <c r="K32" s="157">
         <v>0</v>
       </c>
-      <c r="L32" s="119"/>
+      <c r="L32" s="158"/>
       <c r="M32" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="136"/>
-      <c r="B33" s="114" t="s">
+      <c r="A33" s="146"/>
+      <c r="B33" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="128">
+      <c r="C33" s="120"/>
+      <c r="D33" s="167">
         <v>0</v>
       </c>
-      <c r="E33" s="129"/>
+      <c r="E33" s="168"/>
       <c r="F33" s="89">
         <v>2</v>
       </c>
-      <c r="G33" s="90"/>
+      <c r="G33" s="91"/>
       <c r="H33" s="23">
         <v>2</v>
       </c>
       <c r="I33" s="89">
         <v>1</v>
       </c>
-      <c r="J33" s="90"/>
-      <c r="K33" s="130">
+      <c r="J33" s="91"/>
+      <c r="K33" s="169">
         <v>1</v>
       </c>
-      <c r="L33" s="131"/>
+      <c r="L33" s="170"/>
       <c r="M33" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110" t="s">
+      <c r="A34" s="152"/>
+      <c r="B34" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="113"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="173"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="172"/>
+      <c r="L34" s="173"/>
       <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="108"/>
-      <c r="B35" s="114" t="s">
+      <c r="A35" s="153"/>
+      <c r="B35" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="116">
+      <c r="C35" s="120"/>
+      <c r="D35" s="148">
         <v>3</v>
       </c>
-      <c r="E35" s="117"/>
-      <c r="F35" s="116">
+      <c r="E35" s="149"/>
+      <c r="F35" s="148">
         <v>24</v>
       </c>
-      <c r="G35" s="117"/>
+      <c r="G35" s="149"/>
       <c r="H35" s="19">
         <v>27</v>
       </c>
-      <c r="I35" s="116">
+      <c r="I35" s="148">
         <v>3</v>
       </c>
-      <c r="J35" s="117"/>
-      <c r="K35" s="118">
+      <c r="J35" s="149"/>
+      <c r="K35" s="157">
         <v>6</v>
       </c>
-      <c r="L35" s="119"/>
+      <c r="L35" s="158"/>
       <c r="M35" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="108"/>
-      <c r="B36" s="114" t="s">
+      <c r="A36" s="153"/>
+      <c r="B36" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116">
+      <c r="C36" s="120"/>
+      <c r="D36" s="148">
         <v>1</v>
       </c>
-      <c r="E36" s="117"/>
-      <c r="F36" s="116">
+      <c r="E36" s="149"/>
+      <c r="F36" s="148">
         <v>3</v>
       </c>
-      <c r="G36" s="117"/>
+      <c r="G36" s="149"/>
       <c r="H36" s="17">
         <v>4</v>
       </c>
-      <c r="I36" s="116">
+      <c r="I36" s="148">
         <v>1</v>
       </c>
-      <c r="J36" s="117"/>
-      <c r="K36" s="118">
+      <c r="J36" s="149"/>
+      <c r="K36" s="157">
         <v>0</v>
       </c>
-      <c r="L36" s="119"/>
+      <c r="L36" s="158"/>
       <c r="M36" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="109"/>
-      <c r="B37" s="120" t="s">
+      <c r="A37" s="154"/>
+      <c r="B37" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="122">
+      <c r="C37" s="160"/>
+      <c r="D37" s="163">
         <v>7</v>
       </c>
-      <c r="E37" s="123"/>
-      <c r="F37" s="122">
+      <c r="E37" s="164"/>
+      <c r="F37" s="163">
         <v>39</v>
       </c>
-      <c r="G37" s="123"/>
+      <c r="G37" s="164"/>
       <c r="H37" s="21">
         <v>46</v>
       </c>
-      <c r="I37" s="122">
+      <c r="I37" s="163">
         <v>9</v>
       </c>
-      <c r="J37" s="123"/>
-      <c r="K37" s="124">
+      <c r="J37" s="164"/>
+      <c r="K37" s="165">
         <v>12</v>
       </c>
-      <c r="L37" s="125"/>
+      <c r="L37" s="166"/>
       <c r="M37" s="22">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="105" t="s">
+      <c r="A38" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="106"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="171"/>
+      <c r="J44" s="171"/>
+      <c r="K44" s="171"/>
+      <c r="L44" s="171"/>
+      <c r="M44" s="171"/>
+      <c r="N44" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
@@ -6328,82 +6324,76 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6426,12 +6416,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="175" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="A1" s="174" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
@@ -6442,16 +6432,16 @@
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -6498,10 +6488,10 @@
     </row>
     <row r="8" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B8" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="63" t="s">
         <v>114</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -6532,28 +6522,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="175" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="A1" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="67" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="72">
         <v>2016</v>
@@ -6564,7 +6554,7 @@
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="72">
         <v>2017</v>
@@ -6575,10 +6565,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="73" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>97</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -6615,7 +6605,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -6623,27 +6613,27 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="42">
         <v>2018</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="36">
         <v>35</v>
@@ -6651,30 +6641,30 @@
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="42">
         <v>2018</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="36">
         <v>1</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="42">
         <v>2018</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="36">
         <v>0</v>
@@ -6682,13 +6672,13 @@
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="42">
         <v>2018</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -6696,13 +6686,13 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="42">
         <v>2018</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="36">
         <v>4</v>
@@ -6710,13 +6700,13 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="42">
         <v>2018</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="36">
         <v>8</v>
@@ -6724,13 +6714,13 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="42">
         <v>2018</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="38">
         <v>0</v>
@@ -6738,13 +6728,13 @@
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="42">
         <v>2018</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="44">
         <v>363</v>
@@ -6752,13 +6742,13 @@
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="42">
         <v>2018</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="44">
         <v>1517</v>
@@ -6766,13 +6756,13 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="42">
         <v>2018</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="44">
         <v>1920</v>
@@ -6780,13 +6770,13 @@
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="42">
         <v>2018</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="44">
         <v>2523</v>
@@ -6794,13 +6784,13 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="42">
         <v>2018</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="44">
         <v>1100</v>
@@ -6808,13 +6798,13 @@
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="42">
         <v>2018</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="44">
         <v>89</v>
@@ -6822,13 +6812,13 @@
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="42">
         <v>2018</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="45">
         <v>42</v>
@@ -6836,13 +6826,13 @@
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="42">
         <v>2019</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="36">
         <v>11</v>
@@ -6850,13 +6840,13 @@
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="42">
         <v>2019</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="36">
         <v>2</v>
@@ -6864,13 +6854,13 @@
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="42">
         <v>2019</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="36">
         <v>1</v>
@@ -6878,13 +6868,13 @@
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="42">
         <v>2019</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="36">
         <v>0</v>
@@ -6892,13 +6882,13 @@
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="42">
         <v>2019</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="36">
         <v>1</v>
@@ -6906,13 +6896,13 @@
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="42">
         <v>2019</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="36">
         <v>3</v>
@@ -6920,13 +6910,13 @@
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="42">
         <v>2019</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="38">
         <v>0</v>
@@ -6934,13 +6924,13 @@
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="42">
         <v>2019</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="36">
         <v>198</v>
@@ -6948,13 +6938,13 @@
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="42">
         <v>2019</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="36">
         <v>831</v>
@@ -6962,13 +6952,13 @@
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="42">
         <v>2019</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" s="36">
         <v>940</v>
@@ -6976,13 +6966,13 @@
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="42">
         <v>2019</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="36">
         <v>1382</v>
@@ -6990,13 +6980,13 @@
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="42">
         <v>2019</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="36">
         <v>520</v>
@@ -7004,13 +6994,13 @@
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="42">
         <v>2019</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="36">
         <v>51</v>
@@ -7018,20 +7008,20 @@
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="42">
         <v>2019</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="38">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -7060,7 +7050,7 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46"/>
       <c r="B1" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -7070,7 +7060,7 @@
     <row r="2" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46"/>
       <c r="B2" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -7086,33 +7076,33 @@
     </row>
     <row r="4" spans="1:6" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="42">
         <v>2018</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="37">
         <v>0</v>
@@ -7120,16 +7110,16 @@
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="42">
         <v>2018</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="39">
         <v>2</v>
@@ -7137,16 +7127,16 @@
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="42">
         <v>2018</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="39">
         <v>0</v>
@@ -7154,16 +7144,16 @@
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="42">
         <v>2018</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="37">
         <v>0</v>
@@ -7171,16 +7161,16 @@
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="42">
         <v>2018</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="39">
         <v>0</v>
@@ -7188,16 +7178,16 @@
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="42">
         <v>2018</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="39">
         <v>1</v>
@@ -7205,16 +7195,16 @@
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="42">
         <v>2018</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="39">
         <v>0</v>
@@ -7222,16 +7212,16 @@
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="42">
         <v>2018</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="39">
         <v>13</v>
@@ -7239,16 +7229,16 @@
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="42">
         <v>2018</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="39">
         <v>3</v>
@@ -7256,16 +7246,16 @@
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="42">
         <v>2018</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="39">
         <v>0</v>
@@ -7273,16 +7263,16 @@
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="42">
         <v>2018</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="37">
         <v>0</v>
@@ -7290,16 +7280,16 @@
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="42">
         <v>2018</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="39">
         <v>3</v>
@@ -7307,16 +7297,16 @@
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="42">
         <v>2018</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="39">
         <v>0</v>
@@ -7324,16 +7314,16 @@
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="42">
         <v>2018</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="39">
         <v>0</v>
@@ -7341,16 +7331,16 @@
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="42">
         <v>2018</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="39">
         <v>0</v>
@@ -7358,16 +7348,16 @@
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="42">
         <v>2018</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="37">
         <v>0</v>
@@ -7375,16 +7365,16 @@
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="42">
         <v>2018</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" s="39">
         <v>3</v>
@@ -7392,16 +7382,16 @@
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="42">
         <v>2018</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="39">
         <v>1</v>
@@ -7409,16 +7399,16 @@
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="42">
         <v>2018</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="37">
         <v>9</v>
@@ -7426,16 +7416,16 @@
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="42">
         <v>2018</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="39">
         <v>20</v>
@@ -7443,16 +7433,16 @@
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="42">
         <v>2018</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="39">
         <v>0</v>
@@ -7460,16 +7450,16 @@
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="42">
         <v>2018</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26" s="37">
         <v>1</v>
@@ -7477,16 +7467,16 @@
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="42">
         <v>2018</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="39">
         <v>1</v>
@@ -7494,16 +7484,16 @@
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="42">
         <v>2018</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="39">
         <v>2</v>
@@ -7511,16 +7501,16 @@
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="42">
         <v>2018</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="39">
         <v>1</v>
@@ -7528,16 +7518,16 @@
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="42">
         <v>2018</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="39">
         <v>23</v>
@@ -7545,16 +7535,16 @@
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="42">
         <v>2018</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" s="39">
         <v>5</v>
@@ -7562,16 +7552,16 @@
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="42">
         <v>2018</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="39">
         <v>5</v>
@@ -7579,16 +7569,16 @@
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="42">
         <v>2018</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" s="37">
         <v>1</v>
@@ -7596,16 +7586,16 @@
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="42">
         <v>2018</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="39">
         <v>7</v>
@@ -7613,16 +7603,16 @@
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="42">
         <v>2018</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" s="39">
         <v>1</v>
@@ -7630,16 +7620,16 @@
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="42">
         <v>2018</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" s="39">
         <v>0</v>
@@ -7647,16 +7637,16 @@
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="42">
         <v>2018</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" s="39">
         <v>1</v>
@@ -7664,16 +7654,16 @@
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="42">
         <v>2018</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="37">
         <v>2</v>
@@ -7681,16 +7671,16 @@
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="42">
         <v>2018</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" s="39">
         <v>24</v>
@@ -7698,16 +7688,16 @@
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="42">
         <v>2018</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" s="39">
         <v>3</v>
@@ -7715,16 +7705,16 @@
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="42">
         <v>2019</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="37">
         <v>1</v>
@@ -7732,16 +7722,16 @@
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="42">
         <v>2019</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="39">
         <v>6</v>
@@ -7749,16 +7739,16 @@
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="42">
         <v>2019</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="39">
         <v>0</v>
@@ -7766,16 +7756,16 @@
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" s="42">
         <v>2019</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44" s="37">
         <v>0</v>
@@ -7783,16 +7773,16 @@
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="42">
         <v>2019</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="39">
         <v>0</v>
@@ -7800,16 +7790,16 @@
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" s="42">
         <v>2019</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" s="39">
         <v>1</v>
@@ -7817,16 +7807,16 @@
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="42">
         <v>2019</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="39">
         <v>0</v>
@@ -7834,16 +7824,16 @@
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="42">
         <v>2019</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E48" s="39">
         <v>5</v>
@@ -7851,16 +7841,16 @@
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="42">
         <v>2019</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" s="39">
         <v>1</v>
@@ -7868,16 +7858,16 @@
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="42">
         <v>2019</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="39">
         <v>2</v>
@@ -7885,16 +7875,16 @@
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" s="42">
         <v>2019</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="37">
         <v>0</v>
@@ -7902,16 +7892,16 @@
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="42">
         <v>2019</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="39">
         <v>3</v>
@@ -7919,16 +7909,16 @@
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="42">
         <v>2019</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E53" s="39">
         <v>0</v>
@@ -7936,16 +7926,16 @@
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54" s="42">
         <v>2019</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" s="39">
         <v>1</v>
@@ -7953,16 +7943,16 @@
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" s="42">
         <v>2019</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="39">
         <v>0</v>
@@ -7970,16 +7960,16 @@
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" s="42">
         <v>2019</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" s="37">
         <v>1</v>
@@ -7987,16 +7977,16 @@
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" s="42">
         <v>2019</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E57" s="39">
         <v>3</v>
@@ -8004,16 +7994,16 @@
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C58" s="42">
         <v>2019</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" s="39">
         <v>1</v>
@@ -8021,16 +8011,16 @@
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="42">
         <v>2019</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" s="37">
         <v>2</v>
@@ -8038,16 +8028,16 @@
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="42">
         <v>2019</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" s="39">
         <v>4</v>
@@ -8055,16 +8045,16 @@
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="42">
         <v>2019</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" s="39">
         <v>1</v>
@@ -8072,16 +8062,16 @@
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="42">
         <v>2019</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E62" s="37">
         <v>0</v>
@@ -8089,16 +8079,16 @@
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="42">
         <v>2019</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" s="39">
         <v>0</v>
@@ -8106,16 +8096,16 @@
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="42">
         <v>2019</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" s="39">
         <v>0</v>
@@ -8123,16 +8113,16 @@
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="42">
         <v>2019</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E65" s="39">
         <v>0</v>
@@ -8140,16 +8130,16 @@
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="42">
         <v>2019</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E66" s="39">
         <v>6</v>
@@ -8157,16 +8147,16 @@
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="42">
         <v>2019</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E67" s="39">
         <v>0</v>
@@ -8174,16 +8164,16 @@
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="42">
         <v>2019</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" s="39">
         <v>0</v>
@@ -8191,16 +8181,16 @@
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="42">
         <v>2019</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E69" s="37">
         <v>0</v>
@@ -8208,16 +8198,16 @@
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" s="42">
         <v>2019</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E70" s="39">
         <v>4</v>
@@ -8225,16 +8215,16 @@
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="42">
         <v>2019</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E71" s="39">
         <v>1</v>
@@ -8242,16 +8232,16 @@
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C72" s="42">
         <v>2019</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72" s="39">
         <v>0</v>
@@ -8259,16 +8249,16 @@
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" s="42">
         <v>2019</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E73" s="39">
         <v>0</v>
@@ -8276,16 +8266,16 @@
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="42">
         <v>2019</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E74" s="37">
         <v>1</v>
@@ -8293,16 +8283,16 @@
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="42">
         <v>2019</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E75" s="39">
         <v>6</v>
@@ -8310,16 +8300,16 @@
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" s="42">
         <v>2019</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76" s="39">
         <v>0</v>

--- a/EL SALVADOR/Delitos/Informe Femicidios.xlsx
+++ b/EL SALVADOR/Delitos/Informe Femicidios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13966B7C-AECE-4EA4-93B8-D6269166F9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8981F97D-2A25-4669-97FD-E4085786DFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="informe1" sheetId="1" r:id="rId1"/>
@@ -2601,95 +2601,275 @@
     <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2720,186 +2900,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4442,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4468,308 +4468,308 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="204.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9" ht="60.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
     </row>
     <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
     </row>
     <row r="27" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86" t="s">
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="88"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="30" t="s">
         <v>85</v>
       </c>
@@ -4781,13 +4781,13 @@
       <c r="B28" s="89">
         <v>524</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="89">
         <v>16</v>
       </c>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="3">
         <v>346</v>
       </c>
@@ -4799,13 +4799,13 @@
       <c r="B29" s="89">
         <v>469</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="89">
         <v>17</v>
       </c>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="90"/>
       <c r="H29" s="3">
         <v>354</v>
       </c>
@@ -4817,13 +4817,13 @@
       <c r="B30" s="89">
         <v>386</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="89">
         <v>31</v>
       </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="3">
         <v>232</v>
       </c>
@@ -4842,184 +4842,221 @@
       <c r="I31" s="92"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="95"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="4">
         <v>2016</v>
       </c>
-      <c r="D34" s="96">
+      <c r="D34" s="85">
         <v>2017</v>
       </c>
-      <c r="E34" s="97"/>
+      <c r="E34" s="86"/>
       <c r="F34" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="99"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="3">
         <v>5</v>
       </c>
       <c r="D35" s="89">
         <v>1</v>
       </c>
-      <c r="E35" s="91"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="174.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
     </row>
     <row r="38" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
     </row>
     <row r="41" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
     </row>
     <row r="42" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
     </row>
     <row r="43" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
     </row>
     <row r="44" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
     </row>
     <row r="45" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A43:I43"/>
     <mergeCell ref="A44:I44"/>
@@ -5029,43 +5066,6 @@
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.asamblea.gob.sv/decretos/details/483" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5105,1125 +5105,1271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="108" t="s">
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="170"/>
     </row>
     <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="111" t="s">
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="112"/>
+      <c r="D2" s="172"/>
       <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="111" t="s">
+      <c r="H2" s="173"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="112"/>
+      <c r="K2" s="172"/>
       <c r="L2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116">
+      <c r="B3" s="154"/>
+      <c r="C3" s="155">
         <v>35</v>
       </c>
-      <c r="D3" s="117"/>
+      <c r="D3" s="156"/>
       <c r="E3" s="8">
         <v>363</v>
       </c>
       <c r="F3" s="9">
         <v>398</v>
       </c>
-      <c r="G3" s="116">
+      <c r="G3" s="155">
         <v>11</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="116">
+      <c r="H3" s="157"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="155">
         <v>198</v>
       </c>
-      <c r="K3" s="117"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="9">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="116">
+      <c r="B4" s="114"/>
+      <c r="C4" s="155">
         <v>1</v>
       </c>
-      <c r="D4" s="117"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="11">
         <v>1517</v>
       </c>
       <c r="F4" s="12">
         <v>1518</v>
       </c>
-      <c r="G4" s="116">
+      <c r="G4" s="155">
         <v>2</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="116">
+      <c r="H4" s="157"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="155">
         <v>831</v>
       </c>
-      <c r="K4" s="117"/>
+      <c r="K4" s="156"/>
       <c r="L4" s="9">
         <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="116">
+      <c r="B5" s="154"/>
+      <c r="C5" s="155">
         <v>0</v>
       </c>
-      <c r="D5" s="117"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="11">
         <v>1920</v>
       </c>
       <c r="F5" s="12">
         <v>1920</v>
       </c>
-      <c r="G5" s="116">
+      <c r="G5" s="155">
         <v>1</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="116">
+      <c r="H5" s="157"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="155">
         <v>940</v>
       </c>
-      <c r="K5" s="117"/>
+      <c r="K5" s="156"/>
       <c r="L5" s="9">
         <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="116">
+      <c r="B6" s="154"/>
+      <c r="C6" s="155">
         <v>0</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="156"/>
       <c r="E6" s="11">
         <v>2523</v>
       </c>
       <c r="F6" s="12">
         <v>2523</v>
       </c>
-      <c r="G6" s="116">
+      <c r="G6" s="155">
         <v>0</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="121">
+      <c r="H6" s="157"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="162">
         <v>1382</v>
       </c>
-      <c r="K6" s="122"/>
+      <c r="K6" s="163"/>
       <c r="L6" s="12">
         <v>1382</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="116">
+      <c r="B7" s="154"/>
+      <c r="C7" s="155">
         <v>4</v>
       </c>
-      <c r="D7" s="117"/>
+      <c r="D7" s="156"/>
       <c r="E7" s="11">
         <v>1100</v>
       </c>
       <c r="F7" s="12">
         <v>1104</v>
       </c>
-      <c r="G7" s="116">
+      <c r="G7" s="155">
         <v>1</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="116">
+      <c r="H7" s="157"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="155">
         <v>520</v>
       </c>
-      <c r="K7" s="117"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="9">
         <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="116">
+      <c r="B8" s="114"/>
+      <c r="C8" s="155">
         <v>8</v>
       </c>
-      <c r="D8" s="117"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="8">
         <v>89</v>
       </c>
       <c r="F8" s="9">
         <v>97</v>
       </c>
-      <c r="G8" s="116">
+      <c r="G8" s="155">
         <v>3</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="116">
+      <c r="H8" s="157"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="155">
         <v>51</v>
       </c>
-      <c r="K8" s="117"/>
+      <c r="K8" s="156"/>
       <c r="L8" s="9">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123">
+      <c r="B9" s="114"/>
+      <c r="C9" s="159">
         <v>0</v>
       </c>
-      <c r="D9" s="124"/>
+      <c r="D9" s="160"/>
       <c r="E9" s="13">
         <v>42</v>
       </c>
       <c r="F9" s="14">
         <v>42</v>
       </c>
-      <c r="G9" s="123">
+      <c r="G9" s="159">
         <v>0</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="123">
+      <c r="H9" s="161"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="159">
         <v>35</v>
       </c>
-      <c r="K9" s="124"/>
+      <c r="K9" s="160"/>
       <c r="L9" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="128">
+      <c r="B10" s="137"/>
+      <c r="C10" s="138">
         <v>48</v>
       </c>
-      <c r="D10" s="129"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="12">
         <v>7554</v>
       </c>
       <c r="F10" s="12">
         <v>7602</v>
       </c>
-      <c r="G10" s="128">
+      <c r="G10" s="138">
         <v>18</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="131">
+      <c r="H10" s="140"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="141">
         <v>3957</v>
       </c>
-      <c r="K10" s="132"/>
+      <c r="K10" s="142"/>
       <c r="L10" s="12">
         <v>3975</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="86" t="s">
+      <c r="C14" s="146"/>
+      <c r="D14" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="86" t="s">
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="98"/>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140" t="s">
+      <c r="A15" s="144"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142" t="s">
+      <c r="E15" s="150"/>
+      <c r="F15" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="143"/>
+      <c r="G15" s="152"/>
       <c r="H15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="140" t="s">
+      <c r="I15" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="141"/>
-      <c r="K15" s="142" t="s">
+      <c r="J15" s="150"/>
+      <c r="K15" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="143"/>
+      <c r="L15" s="152"/>
       <c r="M15" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="120"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="89">
         <v>0</v>
       </c>
-      <c r="E16" s="91"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="89">
         <v>9</v>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="2">
         <v>9</v>
       </c>
       <c r="I16" s="89">
         <v>1</v>
       </c>
-      <c r="J16" s="91"/>
+      <c r="J16" s="90"/>
       <c r="K16" s="89">
         <v>2</v>
       </c>
-      <c r="L16" s="91"/>
+      <c r="L16" s="90"/>
       <c r="M16" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="145"/>
-      <c r="B17" s="147" t="s">
+      <c r="A17" s="134"/>
+      <c r="B17" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="148">
+      <c r="C17" s="114"/>
+      <c r="D17" s="115">
         <v>2</v>
       </c>
-      <c r="E17" s="149"/>
-      <c r="F17" s="148">
+      <c r="E17" s="116"/>
+      <c r="F17" s="115">
         <v>20</v>
       </c>
-      <c r="G17" s="149"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="16">
         <v>22</v>
       </c>
-      <c r="I17" s="148">
+      <c r="I17" s="115">
         <v>6</v>
       </c>
-      <c r="J17" s="149"/>
-      <c r="K17" s="148">
+      <c r="J17" s="116"/>
+      <c r="K17" s="115">
         <v>4</v>
       </c>
-      <c r="L17" s="149"/>
+      <c r="L17" s="116"/>
       <c r="M17" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="145"/>
-      <c r="B18" s="147" t="s">
+      <c r="A18" s="134"/>
+      <c r="B18" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="148">
+      <c r="C18" s="114"/>
+      <c r="D18" s="115">
         <v>0</v>
       </c>
-      <c r="E18" s="149"/>
-      <c r="F18" s="148">
+      <c r="E18" s="116"/>
+      <c r="F18" s="115">
         <v>0</v>
       </c>
-      <c r="G18" s="149"/>
+      <c r="G18" s="116"/>
       <c r="H18" s="16">
         <v>0</v>
       </c>
-      <c r="I18" s="148">
+      <c r="I18" s="115">
         <v>0</v>
       </c>
-      <c r="J18" s="149"/>
-      <c r="K18" s="148">
+      <c r="J18" s="116"/>
+      <c r="K18" s="115">
         <v>1</v>
       </c>
-      <c r="L18" s="149"/>
+      <c r="L18" s="116"/>
       <c r="M18" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="146"/>
-      <c r="B19" s="150" t="s">
+      <c r="A19" s="135"/>
+      <c r="B19" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="151"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="89">
         <v>0</v>
       </c>
-      <c r="E19" s="91"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="89">
         <v>1</v>
       </c>
-      <c r="G19" s="91"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="89">
         <v>0</v>
       </c>
-      <c r="J19" s="91"/>
+      <c r="J19" s="90"/>
       <c r="K19" s="89">
         <v>0</v>
       </c>
-      <c r="L19" s="91"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="152"/>
-      <c r="B20" s="147" t="s">
+      <c r="A20" s="106"/>
+      <c r="B20" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="120"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="114"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="120"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="153"/>
-      <c r="B21" s="147" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="155">
+      <c r="C21" s="114"/>
+      <c r="D21" s="125">
         <v>0</v>
       </c>
-      <c r="E21" s="156"/>
-      <c r="F21" s="148">
+      <c r="E21" s="126"/>
+      <c r="F21" s="115">
         <v>1</v>
       </c>
-      <c r="G21" s="149"/>
+      <c r="G21" s="116"/>
       <c r="H21" s="17">
         <v>1</v>
       </c>
-      <c r="I21" s="148">
+      <c r="I21" s="115">
         <v>0</v>
       </c>
-      <c r="J21" s="149"/>
-      <c r="K21" s="157">
+      <c r="J21" s="116"/>
+      <c r="K21" s="117">
         <v>0</v>
       </c>
-      <c r="L21" s="158"/>
+      <c r="L21" s="118"/>
       <c r="M21" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="153"/>
-      <c r="B22" s="147" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="155">
+      <c r="C22" s="114"/>
+      <c r="D22" s="125">
         <v>1</v>
       </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="148">
+      <c r="E22" s="126"/>
+      <c r="F22" s="115">
         <v>2</v>
       </c>
-      <c r="G22" s="149"/>
+      <c r="G22" s="116"/>
       <c r="H22" s="17">
         <v>3</v>
       </c>
-      <c r="I22" s="148">
+      <c r="I22" s="115">
         <v>1</v>
       </c>
-      <c r="J22" s="149"/>
-      <c r="K22" s="157">
+      <c r="J22" s="116"/>
+      <c r="K22" s="117">
         <v>0</v>
       </c>
-      <c r="L22" s="158"/>
+      <c r="L22" s="118"/>
       <c r="M22" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="153"/>
-      <c r="B23" s="147" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="155">
+      <c r="C23" s="114"/>
+      <c r="D23" s="125">
         <v>0</v>
       </c>
-      <c r="E23" s="156"/>
-      <c r="F23" s="148">
+      <c r="E23" s="126"/>
+      <c r="F23" s="115">
         <v>1</v>
       </c>
-      <c r="G23" s="149"/>
+      <c r="G23" s="116"/>
       <c r="H23" s="17">
         <v>1</v>
       </c>
-      <c r="I23" s="148">
+      <c r="I23" s="115">
         <v>0</v>
       </c>
-      <c r="J23" s="149"/>
-      <c r="K23" s="157">
+      <c r="J23" s="116"/>
+      <c r="K23" s="117">
         <v>0</v>
       </c>
-      <c r="L23" s="158"/>
+      <c r="L23" s="118"/>
       <c r="M23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="153"/>
-      <c r="B24" s="147" t="s">
+      <c r="A24" s="107"/>
+      <c r="B24" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="155">
+      <c r="C24" s="114"/>
+      <c r="D24" s="125">
         <v>13</v>
       </c>
-      <c r="E24" s="156"/>
-      <c r="F24" s="148">
+      <c r="E24" s="126"/>
+      <c r="F24" s="115">
         <v>23</v>
       </c>
-      <c r="G24" s="149"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="19">
         <v>36</v>
       </c>
-      <c r="I24" s="148">
+      <c r="I24" s="115">
         <v>5</v>
       </c>
-      <c r="J24" s="149"/>
-      <c r="K24" s="157">
+      <c r="J24" s="116"/>
+      <c r="K24" s="117">
         <v>6</v>
       </c>
-      <c r="L24" s="158"/>
+      <c r="L24" s="118"/>
       <c r="M24" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="153"/>
-      <c r="B25" s="147" t="s">
+      <c r="A25" s="107"/>
+      <c r="B25" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="155">
+      <c r="C25" s="114"/>
+      <c r="D25" s="125">
         <v>3</v>
       </c>
-      <c r="E25" s="156"/>
-      <c r="F25" s="148">
+      <c r="E25" s="126"/>
+      <c r="F25" s="115">
         <v>5</v>
       </c>
-      <c r="G25" s="149"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="17">
         <v>8</v>
       </c>
-      <c r="I25" s="148">
+      <c r="I25" s="115">
         <v>1</v>
       </c>
-      <c r="J25" s="149"/>
-      <c r="K25" s="157">
+      <c r="J25" s="116"/>
+      <c r="K25" s="117">
         <v>0</v>
       </c>
-      <c r="L25" s="158"/>
+      <c r="L25" s="118"/>
       <c r="M25" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="153"/>
-      <c r="B26" s="147" t="s">
+      <c r="A26" s="107"/>
+      <c r="B26" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="155">
+      <c r="C26" s="114"/>
+      <c r="D26" s="125">
         <v>0</v>
       </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="148">
+      <c r="E26" s="126"/>
+      <c r="F26" s="115">
         <v>5</v>
       </c>
-      <c r="G26" s="149"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="17">
         <v>5</v>
       </c>
-      <c r="I26" s="148">
+      <c r="I26" s="115">
         <v>2</v>
       </c>
-      <c r="J26" s="149"/>
-      <c r="K26" s="157">
+      <c r="J26" s="116"/>
+      <c r="K26" s="117">
         <v>0</v>
       </c>
-      <c r="L26" s="158"/>
+      <c r="L26" s="118"/>
       <c r="M26" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="154"/>
-      <c r="B27" s="159" t="s">
+      <c r="A27" s="108"/>
+      <c r="B27" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161">
+      <c r="C27" s="120"/>
+      <c r="D27" s="131">
         <v>19</v>
       </c>
-      <c r="E27" s="162"/>
-      <c r="F27" s="163">
+      <c r="E27" s="132"/>
+      <c r="F27" s="121">
         <v>67</v>
       </c>
-      <c r="G27" s="164"/>
+      <c r="G27" s="122"/>
       <c r="H27" s="21">
         <v>86</v>
       </c>
-      <c r="I27" s="163">
+      <c r="I27" s="121">
         <v>16</v>
       </c>
-      <c r="J27" s="164"/>
-      <c r="K27" s="165">
+      <c r="J27" s="122"/>
+      <c r="K27" s="123">
         <v>13</v>
       </c>
-      <c r="L27" s="166"/>
+      <c r="L27" s="124"/>
       <c r="M27" s="22">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="144" t="s">
+      <c r="A28" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="167">
+      <c r="C28" s="114"/>
+      <c r="D28" s="127">
         <v>0</v>
       </c>
-      <c r="E28" s="168"/>
+      <c r="E28" s="128"/>
       <c r="F28" s="89">
         <v>1</v>
       </c>
-      <c r="G28" s="91"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="23">
         <v>1</v>
       </c>
       <c r="I28" s="89">
         <v>0</v>
       </c>
-      <c r="J28" s="91"/>
-      <c r="K28" s="169">
+      <c r="J28" s="90"/>
+      <c r="K28" s="129">
         <v>0</v>
       </c>
-      <c r="L28" s="170"/>
+      <c r="L28" s="130"/>
       <c r="M28" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="145"/>
-      <c r="B29" s="147" t="s">
+      <c r="A29" s="134"/>
+      <c r="B29" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="155">
+      <c r="C29" s="114"/>
+      <c r="D29" s="125">
         <v>3</v>
       </c>
-      <c r="E29" s="156"/>
-      <c r="F29" s="148">
+      <c r="E29" s="126"/>
+      <c r="F29" s="115">
         <v>7</v>
       </c>
-      <c r="G29" s="149"/>
+      <c r="G29" s="116"/>
       <c r="H29" s="19">
         <v>10</v>
       </c>
-      <c r="I29" s="148">
+      <c r="I29" s="115">
         <v>3</v>
       </c>
-      <c r="J29" s="149"/>
-      <c r="K29" s="157">
+      <c r="J29" s="116"/>
+      <c r="K29" s="117">
         <v>4</v>
       </c>
-      <c r="L29" s="158"/>
+      <c r="L29" s="118"/>
       <c r="M29" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="145"/>
-      <c r="B30" s="147" t="s">
+      <c r="A30" s="134"/>
+      <c r="B30" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="155">
+      <c r="C30" s="114"/>
+      <c r="D30" s="125">
         <v>0</v>
       </c>
-      <c r="E30" s="156"/>
-      <c r="F30" s="148">
+      <c r="E30" s="126"/>
+      <c r="F30" s="115">
         <v>1</v>
       </c>
-      <c r="G30" s="149"/>
+      <c r="G30" s="116"/>
       <c r="H30" s="17">
         <v>1</v>
       </c>
-      <c r="I30" s="148">
+      <c r="I30" s="115">
         <v>0</v>
       </c>
-      <c r="J30" s="149"/>
-      <c r="K30" s="157">
+      <c r="J30" s="116"/>
+      <c r="K30" s="117">
         <v>1</v>
       </c>
-      <c r="L30" s="158"/>
+      <c r="L30" s="118"/>
       <c r="M30" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="145"/>
-      <c r="B31" s="147" t="s">
+      <c r="A31" s="134"/>
+      <c r="B31" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="120"/>
-      <c r="D31" s="155">
+      <c r="C31" s="114"/>
+      <c r="D31" s="125">
         <v>0</v>
       </c>
-      <c r="E31" s="156"/>
-      <c r="F31" s="148">
+      <c r="E31" s="126"/>
+      <c r="F31" s="115">
         <v>0</v>
       </c>
-      <c r="G31" s="149"/>
+      <c r="G31" s="116"/>
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="148">
+      <c r="I31" s="115">
         <v>1</v>
       </c>
-      <c r="J31" s="149"/>
-      <c r="K31" s="157">
+      <c r="J31" s="116"/>
+      <c r="K31" s="117">
         <v>0</v>
       </c>
-      <c r="L31" s="158"/>
+      <c r="L31" s="118"/>
       <c r="M31" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="145"/>
-      <c r="B32" s="147" t="s">
+      <c r="A32" s="134"/>
+      <c r="B32" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="155">
+      <c r="C32" s="114"/>
+      <c r="D32" s="125">
         <v>0</v>
       </c>
-      <c r="E32" s="156"/>
-      <c r="F32" s="148">
+      <c r="E32" s="126"/>
+      <c r="F32" s="115">
         <v>1</v>
       </c>
-      <c r="G32" s="149"/>
+      <c r="G32" s="116"/>
       <c r="H32" s="17">
         <v>1</v>
       </c>
-      <c r="I32" s="148">
+      <c r="I32" s="115">
         <v>0</v>
       </c>
-      <c r="J32" s="149"/>
-      <c r="K32" s="157">
+      <c r="J32" s="116"/>
+      <c r="K32" s="117">
         <v>0</v>
       </c>
-      <c r="L32" s="158"/>
+      <c r="L32" s="118"/>
       <c r="M32" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="146"/>
-      <c r="B33" s="147" t="s">
+      <c r="A33" s="135"/>
+      <c r="B33" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="167">
+      <c r="C33" s="114"/>
+      <c r="D33" s="127">
         <v>0</v>
       </c>
-      <c r="E33" s="168"/>
+      <c r="E33" s="128"/>
       <c r="F33" s="89">
         <v>2</v>
       </c>
-      <c r="G33" s="91"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="23">
         <v>2</v>
       </c>
       <c r="I33" s="89">
         <v>1</v>
       </c>
-      <c r="J33" s="91"/>
-      <c r="K33" s="169">
+      <c r="J33" s="90"/>
+      <c r="K33" s="129">
         <v>1</v>
       </c>
-      <c r="L33" s="170"/>
+      <c r="L33" s="130"/>
       <c r="M33" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="152"/>
-      <c r="B34" s="150" t="s">
+      <c r="A34" s="106"/>
+      <c r="B34" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="151"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="173"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="112"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="173"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="112"/>
       <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="153"/>
-      <c r="B35" s="147" t="s">
+      <c r="A35" s="107"/>
+      <c r="B35" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="120"/>
-      <c r="D35" s="148">
+      <c r="C35" s="114"/>
+      <c r="D35" s="115">
         <v>3</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="148">
+      <c r="E35" s="116"/>
+      <c r="F35" s="115">
         <v>24</v>
       </c>
-      <c r="G35" s="149"/>
+      <c r="G35" s="116"/>
       <c r="H35" s="19">
         <v>27</v>
       </c>
-      <c r="I35" s="148">
+      <c r="I35" s="115">
         <v>3</v>
       </c>
-      <c r="J35" s="149"/>
-      <c r="K35" s="157">
+      <c r="J35" s="116"/>
+      <c r="K35" s="117">
         <v>6</v>
       </c>
-      <c r="L35" s="158"/>
+      <c r="L35" s="118"/>
       <c r="M35" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="153"/>
-      <c r="B36" s="147" t="s">
+      <c r="A36" s="107"/>
+      <c r="B36" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="120"/>
-      <c r="D36" s="148">
+      <c r="C36" s="114"/>
+      <c r="D36" s="115">
         <v>1</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="148">
+      <c r="E36" s="116"/>
+      <c r="F36" s="115">
         <v>3</v>
       </c>
-      <c r="G36" s="149"/>
+      <c r="G36" s="116"/>
       <c r="H36" s="17">
         <v>4</v>
       </c>
-      <c r="I36" s="148">
+      <c r="I36" s="115">
         <v>1</v>
       </c>
-      <c r="J36" s="149"/>
-      <c r="K36" s="157">
+      <c r="J36" s="116"/>
+      <c r="K36" s="117">
         <v>0</v>
       </c>
-      <c r="L36" s="158"/>
+      <c r="L36" s="118"/>
       <c r="M36" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="154"/>
-      <c r="B37" s="159" t="s">
+      <c r="A37" s="108"/>
+      <c r="B37" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="160"/>
-      <c r="D37" s="163">
+      <c r="C37" s="120"/>
+      <c r="D37" s="121">
         <v>7</v>
       </c>
-      <c r="E37" s="164"/>
-      <c r="F37" s="163">
+      <c r="E37" s="122"/>
+      <c r="F37" s="121">
         <v>39</v>
       </c>
-      <c r="G37" s="164"/>
+      <c r="G37" s="122"/>
       <c r="H37" s="21">
         <v>46</v>
       </c>
-      <c r="I37" s="163">
+      <c r="I37" s="121">
         <v>9</v>
       </c>
-      <c r="J37" s="164"/>
-      <c r="K37" s="165">
+      <c r="J37" s="122"/>
+      <c r="K37" s="123">
         <v>12</v>
       </c>
-      <c r="L37" s="166"/>
+      <c r="L37" s="124"/>
       <c r="M37" s="22">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="133" t="s">
+      <c r="A38" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="133"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="171" t="s">
+      <c r="A44" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-      <c r="L44" s="171"/>
-      <c r="M44" s="171"/>
-      <c r="N44" s="171"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
     <mergeCell ref="A38:N38"/>
     <mergeCell ref="A39:N39"/>
     <mergeCell ref="A40:N40"/>
@@ -6248,152 +6394,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6419,9 +6419,9 @@
       <c r="A1" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
@@ -6525,8 +6525,8 @@
       <c r="A1" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
     </row>
@@ -7033,7 +7033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4184C7-D28C-C441-B082-D2AEE83C63D1}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
